--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="14880" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="204">
   <si>
     <t>Resource</t>
   </si>
@@ -645,6 +645,69 @@
   </si>
   <si>
     <t>Name (dropdown)</t>
+  </si>
+  <si>
+    <t>__WBI__</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>CompressedAtmosphere</t>
+  </si>
+  <si>
+    <t>ElectroPlasma</t>
+  </si>
+  <si>
+    <t>Raptium</t>
+  </si>
+  <si>
+    <t>RHK1</t>
+  </si>
+  <si>
+    <t>FusionPellets</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Konkrete</t>
+  </si>
+  <si>
+    <t>Aurum</t>
+  </si>
+  <si>
+    <t>SRMFuel</t>
+  </si>
+  <si>
+    <t>Compost</t>
+  </si>
+  <si>
+    <t>FreshAir</t>
+  </si>
+  <si>
+    <t>StaleAir</t>
+  </si>
+  <si>
+    <t>ResearchKits</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <t>Water (CRP)</t>
+  </si>
+  <si>
+    <t>Water (WBI)</t>
+  </si>
+  <si>
+    <t>Supports stock and CRP but not WBI.</t>
+  </si>
+  <si>
+    <t>Supports stock, CRP and WBI.</t>
   </si>
 </sst>
 </file>
@@ -663,7 +726,7 @@
     <numFmt numFmtId="171" formatCode="0.0000"/>
     <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -845,6 +908,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1000,9 +1070,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,6 +1207,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1475,251 +1543,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>181</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>203</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>0</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>0</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>0</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>0</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="51" t="str">
-        <f>IFERROR(VLOOKUP(B6,Database!$A$2:$E$35,5,FALSE),"-")</f>
+      <c r="B7" s="50" t="str">
+        <f>IFERROR(VLOOKUP(B6,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C7" s="51" t="str">
-        <f>IFERROR(VLOOKUP(C6,Database!$A$2:$E$35,5,FALSE),"-")</f>
+      <c r="C7" s="50" t="str">
+        <f>IFERROR(VLOOKUP(C6,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D7" s="51" t="str">
-        <f>IFERROR(VLOOKUP(D6,Database!$A$2:$E$35,5,FALSE),"-")</f>
+      <c r="D7" s="50" t="str">
+        <f>IFERROR(VLOOKUP(D6,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E7" s="51" t="str">
-        <f>IFERROR(VLOOKUP(E6,Database!$A$2:$E$35,5,FALSE),"-")</f>
+      <c r="E7" s="50" t="str">
+        <f>IFERROR(VLOOKUP(E6,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="F7" s="51" t="str">
-        <f>IFERROR(VLOOKUP(F6,Database!$A$2:$E$35,5,FALSE),"-")</f>
+      <c r="F7" s="50" t="str">
+        <f>IFERROR(VLOOKUP(F6,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="54" t="str">
+      <c r="B8" s="53" t="str">
         <f t="shared" ref="B8:E8" si="0">IFERROR(B5*B7,"-")</f>
         <v>-</v>
       </c>
-      <c r="C8" s="54" t="str">
+      <c r="C8" s="53" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D8" s="54" t="str">
+      <c r="D8" s="53" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="E8" s="54" t="str">
+      <c r="E8" s="53" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F8" s="54" t="str">
+      <c r="F8" s="53" t="str">
         <f>IFERROR(F5*F7,"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="53">
         <f>SUM(B8:F8)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="32">
-        <v>0.1802</v>
-      </c>
-      <c r="C12" s="32">
-        <v>1.44E-2</v>
-      </c>
-      <c r="D12" s="32">
-        <v>0.89570000000000005</v>
-      </c>
-      <c r="E12" s="32">
-        <v>1.29E-2</v>
-      </c>
-      <c r="F12" s="32">
-        <v>68.085099999999997</v>
+      <c r="B12" s="31">
+        <v>0</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0</v>
+      </c>
+      <c r="D12" s="31">
+        <v>0</v>
+      </c>
+      <c r="E12" s="31">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="51" t="str">
-        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$E$35,5,FALSE),"-")</f>
+      <c r="B14" s="50" t="str">
+        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C14" s="51" t="str">
-        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$E$35,5,FALSE),"-")</f>
+      <c r="C14" s="50" t="str">
+        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D14" s="51" t="str">
-        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$E$35,5,FALSE),"-")</f>
+      <c r="D14" s="50" t="str">
+        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E14" s="51" t="str">
-        <f>IFERROR(VLOOKUP(E13,Database!$A$2:$E$35,5,FALSE),"-")</f>
+      <c r="E14" s="50" t="str">
+        <f>IFERROR(VLOOKUP(E13,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="F14" s="51" t="str">
-        <f>IFERROR(VLOOKUP(F13,Database!$A$2:$E$35,5,FALSE),"-")</f>
+      <c r="F14" s="50" t="str">
+        <f>IFERROR(VLOOKUP(F13,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="54" t="str">
+      <c r="B15" s="53" t="str">
         <f t="shared" ref="B15:E15" si="1">IFERROR(B12*B14,"-")</f>
         <v>-</v>
       </c>
-      <c r="C15" s="54" t="str">
+      <c r="C15" s="53" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D15" s="54" t="str">
+      <c r="D15" s="53" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E15" s="54" t="str">
+      <c r="E15" s="53" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F15" s="54" t="str">
+      <c r="F15" s="53" t="str">
         <f>IFERROR(F12*F14,"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="53">
         <f>SUM(B15:F15)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="49" t="str">
+      <c r="B19" s="48" t="str">
         <f>IF($B$9&gt;$B$16,"Input excesive",IF($B$9&lt;$B$16,"Output excessive","Equal"))</f>
         <v>Equal</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="49">
         <f>IF($B$9&gt;$B$16,B9/B16,IF($B$9&lt;$B$16,B16/B9,1))</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1734,7 +1807,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$36</xm:f>
+            <xm:f>Database!$A$2:$A$69</xm:f>
           </x14:formula1>
           <xm:sqref>B6:F6 B13:F13</xm:sqref>
         </x14:dataValidation>
@@ -1749,7 +1822,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1758,346 +1831,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>181</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>202</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>0</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>0</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>0</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>0</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="51" t="str">
+      <c r="B7" s="50" t="str">
         <f>IFERROR(VLOOKUP(B6,Database!$A$2:$E$35,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C7" s="51" t="str">
+      <c r="C7" s="50" t="str">
         <f>IFERROR(VLOOKUP(C6,Database!$A$2:$E$35,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D7" s="51" t="str">
+      <c r="D7" s="50" t="str">
         <f>IFERROR(VLOOKUP(D6,Database!$A$2:$E$35,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E7" s="51" t="str">
+      <c r="E7" s="50" t="str">
         <f>IFERROR(VLOOKUP(E6,Database!$A$2:$E$35,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="F7" s="51" t="str">
+      <c r="F7" s="50" t="str">
         <f>IFERROR(VLOOKUP(F6,Database!$A$2:$E$35,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="51" t="str">
+      <c r="B8" s="50" t="str">
         <f>IFERROR(VLOOKUP(B6,Database!$A$2:$E$35,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C8" s="51" t="str">
+      <c r="C8" s="50" t="str">
         <f>IFERROR(VLOOKUP(C6,Database!$A$2:$E$35,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D8" s="51" t="str">
+      <c r="D8" s="50" t="str">
         <f>IFERROR(VLOOKUP(D6,Database!$A$2:$E$35,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E8" s="51" t="str">
+      <c r="E8" s="50" t="str">
         <f>IFERROR(VLOOKUP(E6,Database!$A$2:$E$35,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="F8" s="51" t="str">
+      <c r="F8" s="50" t="str">
         <f>IFERROR(VLOOKUP(F6,Database!$A$2:$E$35,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <f>IFERROR(B5*B7,0)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="34" t="str">
+      <c r="C9" s="33" t="str">
         <f>IFERROR(C5*C7,"-")</f>
         <v>-</v>
       </c>
-      <c r="D9" s="34" t="str">
+      <c r="D9" s="33" t="str">
         <f>IFERROR(D5*D7,"-")</f>
         <v>-</v>
       </c>
-      <c r="E9" s="34" t="str">
+      <c r="E9" s="33" t="str">
         <f>IFERROR(E5*E7,"-")</f>
         <v>-</v>
       </c>
-      <c r="F9" s="34" t="str">
+      <c r="F9" s="33" t="str">
         <f>IFERROR(F5*F7,"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="56" t="str">
+      <c r="B10" s="55" t="str">
         <f>IFERROR(B9/(B8*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="C10" s="56" t="str">
+      <c r="C10" s="55" t="str">
         <f>IFERROR(C9/(C8*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="D10" s="56" t="str">
+      <c r="D10" s="55" t="str">
         <f>IFERROR(D9/(D8*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="E10" s="56" t="str">
+      <c r="E10" s="55" t="str">
         <f>IFERROR(E9/(E8*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="F10" s="56" t="str">
+      <c r="F10" s="55" t="str">
         <f>IFERROR(F9/(F8*1000),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="53">
         <f>SUM(B9:F9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>0</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>0</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>0</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>0</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="51" t="str">
+      <c r="B16" s="50" t="str">
         <f>IFERROR(VLOOKUP(B15,Database!$A$2:$E$35,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C16" s="51" t="str">
+      <c r="C16" s="50" t="str">
         <f>IFERROR(VLOOKUP(C15,Database!$A$2:$E$35,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D16" s="51" t="str">
+      <c r="D16" s="50" t="str">
         <f>IFERROR(VLOOKUP(D15,Database!$A$2:$E$35,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E16" s="51" t="str">
+      <c r="E16" s="50" t="str">
         <f>IFERROR(VLOOKUP(E15,Database!$A$2:$E$35,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="F16" s="51" t="str">
+      <c r="F16" s="50" t="str">
         <f>IFERROR(VLOOKUP(F15,Database!$A$2:$E$35,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="51" t="str">
+      <c r="B17" s="50" t="str">
         <f>IFERROR(VLOOKUP(B15,Database!$A$2:$E$35,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C17" s="51" t="str">
+      <c r="C17" s="50" t="str">
         <f>IFERROR(VLOOKUP(C15,Database!$A$2:$E$35,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D17" s="51" t="str">
+      <c r="D17" s="50" t="str">
         <f>IFERROR(VLOOKUP(D15,Database!$A$2:$E$35,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E17" s="51" t="str">
+      <c r="E17" s="50" t="str">
         <f>IFERROR(VLOOKUP(E15,Database!$A$2:$E$35,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="F17" s="51" t="str">
+      <c r="F17" s="50" t="str">
         <f>IFERROR(VLOOKUP(F15,Database!$A$2:$E$35,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <f>IFERROR(B14*B16,0)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="34" t="str">
+      <c r="C18" s="33" t="str">
         <f>IFERROR(C14*C16,"-")</f>
         <v>-</v>
       </c>
-      <c r="D18" s="34" t="str">
+      <c r="D18" s="33" t="str">
         <f t="shared" ref="D18:F18" si="0">IFERROR(D14*D16,"-")</f>
         <v>-</v>
       </c>
-      <c r="E18" s="34" t="str">
+      <c r="E18" s="33" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F18" s="34" t="str">
+      <c r="F18" s="33" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19" s="55">
         <f>IFERROR(B18/(B17*1000),0)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="56" t="str">
+      <c r="C19" s="55" t="str">
         <f>IFERROR(C18/(C17*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="D19" s="56" t="str">
+      <c r="D19" s="55" t="str">
         <f>IFERROR(D18/(D17*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="E19" s="56" t="str">
+      <c r="E19" s="55" t="str">
         <f>IFERROR(E18/(E17*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="F19" s="56" t="str">
+      <c r="F19" s="55" t="str">
         <f>IFERROR(F18/(F17*1000),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="53">
         <f>SUM(B18:F18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="49" t="str">
+      <c r="B23" s="48" t="str">
         <f>IF($B$11&gt;$B$20,"Input excesive",IF($B$11&lt;$B$20,"Output excessive","Equal"))</f>
         <v>Equal</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="49">
         <f>IF($B$11&gt;$B$20,B11/B20,IF($B$11&lt;$B$20,B20/B11,1))</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2124,11 +2202,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F35" sqref="F35"/>
+      <selection pane="topRight" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2172,18 +2250,18 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>207.2</v>
       </c>
       <c r="E2" s="4">
         <f>0.01*1000</f>
         <v>10</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>C2*D2/(E2 * 1000)</f>
         <v>2.0719999999999999E-2</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="8"/>
       <c r="I2" t="s">
         <v>0</v>
       </c>
@@ -2207,14 +2285,14 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>170.34</v>
       </c>
       <c r="E3" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>C3*D3/(E3 * 1000)</f>
         <v>3.4068000000000001E-2</v>
       </c>
@@ -2227,29 +2305,29 @@
       <c r="K3">
         <v>117.49</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="51">
         <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <f>C4*D4/(E4 * 1000)</f>
         <v>6.4000000000000003E-3</v>
       </c>
@@ -2262,7 +2340,7 @@
       <c r="K4">
         <v>26.98</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="52">
         <v>0.16</v>
       </c>
     </row>
@@ -2276,7 +2354,7 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
@@ -2284,7 +2362,7 @@
         <f>0.004*1000</f>
         <v>4</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" ref="F5:F6" si="0">C5*D5/(E5 * 1000)</f>
         <v>8.0114999999999995E-3</v>
       </c>
@@ -2297,7 +2375,7 @@
       <c r="K5">
         <v>71.84</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="51">
         <v>0.4</v>
       </c>
     </row>
@@ -2311,7 +2389,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>131.29</f>
         <v>131.29</v>
       </c>
@@ -2319,11 +2397,11 @@
         <f>0.0001*1000</f>
         <v>0.1</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>1.3129</v>
       </c>
-      <c r="L6" s="52"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2333,16 +2411,16 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" ref="F7" si="1">C7*D7/(E7 * 1000)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="52"/>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
@@ -2351,7 +2429,7 @@
       <c r="J8" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="52">
         <v>0.12</v>
       </c>
     </row>
@@ -2365,14 +2443,14 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>101.96</v>
       </c>
       <c r="E9" s="4">
         <f>0.00398*1000</f>
         <v>3.98</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f>C9*D9/(E9 * 1000)</f>
         <v>2.5618090452261304E-2</v>
       </c>
@@ -2382,7 +2460,7 @@
       <c r="J9" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="52">
+      <c r="L9" s="51">
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
@@ -2396,14 +2474,14 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>26.98</v>
       </c>
       <c r="E10" s="4">
         <f>0.00277*1000</f>
         <v>2.77</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f>C10*D10/(E10 * 1000)</f>
         <v>9.7400722021660658E-3</v>
       </c>
@@ -2418,7 +2496,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>14.007+(1.008*3)</f>
         <v>17.030999999999999</v>
       </c>
@@ -2426,7 +2504,7 @@
         <f>0.000000769*1000</f>
         <v>7.6899999999999994E-4</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f>C11*D11/(E11 * 1000)</f>
         <v>22.14694408322497</v>
       </c>
@@ -2441,7 +2519,7 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>39.948*2</f>
         <v>79.896000000000001</v>
       </c>
@@ -2449,7 +2527,7 @@
         <f>0.000001784*1000</f>
         <v>1.784E-3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f>C12*D12/(E12 * 1000)</f>
         <v>44.784753363228702</v>
       </c>
@@ -2464,14 +2542,14 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>12.01</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" ref="F13" si="2">C13*D13/(E13 * 1000)</f>
         <v>2.4020000000000001E-3</v>
       </c>
@@ -2486,7 +2564,7 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f>12.011 + 16*2</f>
         <v>44.010999999999996</v>
       </c>
@@ -2494,7 +2572,7 @@
         <f>0.000001951*1000</f>
         <v>1.951E-3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" ref="F14:F34" si="3">C14*D14/(E14 * 1000)</f>
         <v>22.558175294720652</v>
       </c>
@@ -2509,7 +2587,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>88.906+30.974+(16*4)</f>
         <v>183.88</v>
       </c>
@@ -2517,7 +2595,7 @@
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" si="3"/>
         <v>7.3551999999999992E-2</v>
       </c>
@@ -2532,7 +2610,7 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>40.078+32.065+(16*4)+(18*2)</f>
         <v>172.143</v>
       </c>
@@ -2540,7 +2618,7 @@
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" si="3"/>
         <v>3.129872727272727E-2</v>
       </c>
@@ -2555,7 +2633,7 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>(55.845*2)+(16*3)+(18*0.5)</f>
         <v>168.69</v>
       </c>
@@ -2563,7 +2641,7 @@
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f t="shared" si="3"/>
         <v>0.11246</v>
       </c>
@@ -2578,7 +2656,7 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f>1.008*2</f>
         <v>2.016</v>
       </c>
@@ -2586,11 +2664,11 @@
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f t="shared" si="3"/>
         <v>22.424916573971078</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2602,7 +2680,7 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <f>14.007+(1.008*3)</f>
         <v>17.030999999999999</v>
       </c>
@@ -2610,7 +2688,7 @@
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f t="shared" si="3"/>
         <v>2.4257228315054839E-2</v>
       </c>
@@ -2625,7 +2703,7 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <f>12.011+(16*2)</f>
         <v>44.010999999999996</v>
       </c>
@@ -2633,7 +2711,7 @@
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f t="shared" si="3"/>
         <v>3.7512039207330053E-2</v>
       </c>
@@ -2648,7 +2726,7 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>1.008*2</f>
         <v>2.016</v>
       </c>
@@ -2656,7 +2734,7 @@
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f t="shared" si="3"/>
         <v>2.8454481298517999E-2</v>
       </c>
@@ -2671,7 +2749,7 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
@@ -2679,7 +2757,7 @@
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f t="shared" si="3"/>
         <v>3.771527924625831E-2</v>
       </c>
@@ -2688,21 +2766,21 @@
       <c r="A23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>1</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <f t="shared" si="3"/>
         <v>2.8045574057843997E-2</v>
       </c>
@@ -2717,7 +2795,7 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
@@ -2725,7 +2803,7 @@
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <f t="shared" si="3"/>
         <v>3.3960191876175133E-2</v>
       </c>
@@ -2740,7 +2818,7 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
@@ -2748,7 +2826,7 @@
         <f>0.026*1000</f>
         <v>26</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <f t="shared" si="3"/>
         <v>4.2957692307692306E-3</v>
       </c>
@@ -2763,7 +2841,7 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
@@ -2771,7 +2849,7 @@
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <f t="shared" si="3"/>
         <v>1.4319230769230768E-2</v>
       </c>
@@ -2786,7 +2864,7 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
@@ -2794,7 +2872,7 @@
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f t="shared" si="3"/>
         <v>22.387726638772666</v>
       </c>
@@ -2809,7 +2887,7 @@
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
@@ -2817,7 +2895,7 @@
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <f t="shared" si="3"/>
         <v>3.2656296296296294E-2</v>
       </c>
@@ -2832,14 +2910,14 @@
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>233.88</v>
       </c>
       <c r="E29" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <f t="shared" si="3"/>
         <v>4.6775999999999998E-2</v>
       </c>
@@ -2854,7 +2932,7 @@
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
@@ -2862,7 +2940,7 @@
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <f t="shared" si="3"/>
         <v>22.393285371702639</v>
       </c>
@@ -2877,7 +2955,7 @@
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <f>16*2</f>
         <v>32</v>
       </c>
@@ -2885,7 +2963,7 @@
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <f t="shared" si="3"/>
         <v>22.695035460992909</v>
       </c>
@@ -2900,14 +2978,14 @@
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>30.97</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <f t="shared" si="3"/>
         <v>6.1939999999999999E-3</v>
       </c>
@@ -2922,7 +3000,7 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
@@ -2930,7 +3008,7 @@
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <f t="shared" si="3"/>
         <v>2.5010000000000001E-2</v>
       </c>
@@ -2945,7 +3023,7 @@
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <f>28.086*2</f>
         <v>56.171999999999997</v>
       </c>
@@ -2953,7 +3031,7 @@
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <f t="shared" si="3"/>
         <v>2.2468799999999997E-2</v>
       </c>
@@ -2966,18 +3044,18 @@
       <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>0</v>
       </c>
       <c r="E35" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>24</v>
@@ -2985,7 +3063,7 @@
       <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <f>(1.008*2)+16</f>
         <v>18.015999999999998</v>
       </c>
@@ -2993,42 +3071,405 @@
         <f>0.0001*1000</f>
         <v>0.1</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <f>C36*D36/(E36 * 1000)</f>
         <v>0.18015999999999999</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" ref="E39:E69" si="4">F39*1000</f>
+        <v>5</v>
+      </c>
+      <c r="F39" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="4"/>
+        <v>19.3</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1.9300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="4"/>
+        <v>54.4</v>
+      </c>
+      <c r="F41" s="6">
+        <v>5.4399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F42" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F43" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="F44" s="6">
+        <v>6.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="F45" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
+      <c r="A46" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0108799999999993</v>
+      </c>
+      <c r="F46" s="6">
+        <v>5.0108799999999997E-3</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
+      <c r="A47" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="4"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F47" s="6">
+        <v>4.3499999999999997E-3</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
+      <c r="A48" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="4"/>
+        <v>0.216</v>
+      </c>
+      <c r="F48" s="6">
+        <v>2.1599999999999999E-4</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="5"/>
+      <c r="A49" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="4"/>
+        <v>23.125</v>
+      </c>
+      <c r="F49" s="6">
+        <v>2.3125E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="4"/>
+        <v>5.25</v>
+      </c>
+      <c r="F50" s="6">
+        <v>5.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F51" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4</v>
+      </c>
+      <c r="F53" s="6">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="4"/>
+        <v>8.6</v>
+      </c>
+      <c r="F55" s="6">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4">
+        <f t="shared" si="4"/>
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="F56" s="6">
+        <v>5.705E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4">
+        <f t="shared" si="4"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F58" s="6">
+        <v>3.5399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4">
+        <f t="shared" si="4"/>
+        <v>2.12805</v>
+      </c>
+      <c r="F59" s="6">
+        <v>2.1280499999999998E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1.08E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="F61" s="6">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="4"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F63" s="6">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="F66" s="6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="4"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F67" s="6">
+        <v>4.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F68" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F69" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3055,90 +3496,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="46">
         <f>SUM(B5:B24)</f>
         <v>100</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="46">
         <f t="shared" ref="C3:M3" si="0">SUM(C5:C24)</f>
         <v>95</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="46">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="46">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="46">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="46">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="46">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="46">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="46">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -3703,51 +4144,51 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="46">
         <f>SUM(B29:B42)</f>
         <v>93</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="46">
         <f t="shared" ref="C27:M27" si="1">SUM(C29:C42)</f>
         <v>84</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="46">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="46">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="46">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="46">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="46">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47">
+      <c r="I27" s="46"/>
+      <c r="J27" s="46">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="K27" s="47">
+      <c r="K27" s="46">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="L27" s="47">
+      <c r="L27" s="46">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="M27" s="47">
+      <c r="M27" s="46">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -4163,55 +4604,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="60">
         <f>SUM(B4:B18)</f>
         <v>95.140186915887853</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="60">
         <f t="shared" ref="C2:H2" si="0">SUM(C4:C18)</f>
         <v>95.015576323987545</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="60">
         <f t="shared" si="0"/>
         <v>95.007788161993773</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="60">
         <f t="shared" si="0"/>
         <v>95.007788161993773</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="46">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -4259,25 +4700,25 @@
       <c r="A7" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="59">
         <f>B18/642</f>
         <v>0.14018691588785046</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="59">
         <f t="shared" ref="C7:E7" si="1">C18/642</f>
         <v>1.5576323987538941E-2</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="59">
         <f t="shared" si="1"/>
         <v>7.7881619937694704E-3</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="59">
         <f t="shared" si="1"/>
         <v>7.7881619937694704E-3</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4386,31 +4827,31 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="46">
         <f>SUM(B23:B34)</f>
         <v>97</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="46">
         <f t="shared" ref="C21:H21" si="2">SUM(C23:C34)</f>
         <v>95</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="46">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="46">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="46">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47">
+      <c r="G21" s="46"/>
+      <c r="H21" s="46">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
@@ -4581,125 +5022,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46" t="s">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="46">
         <f t="shared" ref="B2:O2" si="0">SUM(B4:B17)</f>
         <v>93</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="46">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="46">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="46">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="60">
         <f t="shared" si="0"/>
         <v>92.003115264797515</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="60">
         <f t="shared" si="0"/>
         <v>90.006230529595015</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="60">
         <f t="shared" si="0"/>
         <v>92.003115264797515</v>
       </c>
-      <c r="I2" s="61">
+      <c r="I2" s="60">
         <f t="shared" si="0"/>
         <v>95.115264797507791</v>
       </c>
-      <c r="J2" s="61">
+      <c r="J2" s="60">
         <f t="shared" si="0"/>
         <v>93.115264797507791</v>
       </c>
-      <c r="K2" s="61">
+      <c r="K2" s="60">
         <f t="shared" si="0"/>
         <v>98.121495327102807</v>
       </c>
-      <c r="L2" s="61">
+      <c r="L2" s="60">
         <f t="shared" si="0"/>
         <v>99.121495327102807</v>
       </c>
-      <c r="M2" s="61">
+      <c r="M2" s="60">
         <f t="shared" si="0"/>
         <v>98.109034267912776</v>
       </c>
-      <c r="N2" s="61">
+      <c r="N2" s="60">
         <f t="shared" si="0"/>
         <v>97.116822429906534</v>
       </c>
-      <c r="O2" s="61">
+      <c r="O2" s="60">
         <f t="shared" si="0"/>
         <v>99.13239875389408</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61">
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60">
         <f>SUM(Q4:Q17)</f>
         <v>95.109034267912776</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4797,48 +5238,48 @@
       <c r="A8" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="59">
         <f>F10/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="59">
         <f>G10/642</f>
         <v>6.2305295950155761E-3</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="59">
         <f t="shared" ref="H8:Q8" si="1">H10/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="59">
         <f t="shared" si="1"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="59">
         <f t="shared" si="1"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="59">
         <f t="shared" si="1"/>
         <v>0.12149532710280374</v>
       </c>
-      <c r="L8" s="60">
+      <c r="L8" s="59">
         <f t="shared" si="1"/>
         <v>0.12149532710280374</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="59">
         <f t="shared" si="1"/>
         <v>0.10903426791277258</v>
       </c>
-      <c r="N8" s="60">
+      <c r="N8" s="59">
         <f t="shared" si="1"/>
         <v>0.11682242990654206</v>
       </c>
-      <c r="O8" s="60">
+      <c r="O8" s="59">
         <f t="shared" si="1"/>
         <v>0.13239875389408098</v>
       </c>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60">
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59">
         <f t="shared" si="1"/>
         <v>0.10903426791277258</v>
       </c>
@@ -5066,67 +5507,67 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="46">
         <f>SUM(B22:B30)</f>
         <v>10</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="46">
         <f t="shared" ref="C20:Q20" si="2">SUM(C22:C30)</f>
         <v>9</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="46">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="46">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="46">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="46">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="46">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="46">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="46">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="46">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="46">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="46">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="O20" s="47">
+      <c r="O20" s="46">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47">
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
@@ -5406,2607 +5847,2607 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="37" customWidth="1"/>
-    <col min="2" max="4" width="12.5" style="37" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="34" customWidth="1"/>
-    <col min="6" max="7" width="12.5" style="32" customWidth="1"/>
-    <col min="8" max="10" width="12.5" style="34" customWidth="1"/>
+    <col min="1" max="1" width="15" style="36" customWidth="1"/>
+    <col min="2" max="4" width="12.5" style="36" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="33" customWidth="1"/>
+    <col min="6" max="7" width="12.5" style="31" customWidth="1"/>
+    <col min="8" max="10" width="12.5" style="33" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="13" width="12.5" style="32" customWidth="1"/>
-    <col min="14" max="17" width="12.5" style="34" customWidth="1"/>
+    <col min="12" max="13" width="12.5" style="31" customWidth="1"/>
+    <col min="14" max="17" width="12.5" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="39" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>175750</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>1600</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="39">
+      <c r="D2" s="24"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38">
         <v>9</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="38">
         <v>12</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="44">
         <f>(F2*(B2/2)+B2)</f>
         <v>966625</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="44">
         <f>IF(G2&gt;=F2,SUM(G2*(B2/2)+B2),H2)</f>
         <v>1230250</v>
       </c>
-      <c r="J2" s="40" t="str">
+      <c r="J2" s="39" t="str">
         <f>IF(H2&lt;=B2+C2,"Yes","-")</f>
         <v>-</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="39">
+      <c r="K2" s="25"/>
+      <c r="L2" s="38">
         <v>5</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="38">
         <v>10</v>
       </c>
-      <c r="N2" s="41">
+      <c r="N2" s="40">
         <f>L2*B2</f>
         <v>878750</v>
       </c>
-      <c r="O2" s="41">
+      <c r="O2" s="40">
         <f>IF((M2*B2&gt;=N2),M2*B2,N2)</f>
         <v>1757500</v>
       </c>
-      <c r="P2" s="40" t="str">
+      <c r="P2" s="39" t="str">
         <f>IF(SUM(H2-(N2/2))&lt;=B2+C2,"Yes","-")</f>
         <v>-</v>
       </c>
-      <c r="Q2" s="40" t="str">
+      <c r="Q2" s="39" t="str">
         <f>IF(SUM(I2-(O2/2))&lt;=B2+C2,"Yes","-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>650</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28">
         <v>26572</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="43">
         <f>IF((B3&gt;0),(D3/(B3/2)),0)</f>
         <v>81.760000000000005</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="45">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="44">
         <f t="shared" ref="H3:H33" si="0">(F3*(B3/2)+B3)</f>
         <v>650</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="44">
         <f t="shared" ref="I3:I33" si="1">IF(G3&gt;=F3,SUM(G3*(B3/2)+B3),H3)</f>
         <v>650</v>
       </c>
-      <c r="J3" s="40" t="str">
+      <c r="J3" s="39" t="str">
         <f t="shared" ref="J3:J33" si="2">IF(H3&lt;=B3+C3,"Yes","-")</f>
         <v>Yes</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="29">
         <v>14522400</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="41">
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="40">
         <f t="shared" ref="N3:N33" si="3">L3*B3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="41">
+      <c r="O3" s="40">
         <f t="shared" ref="O3:O33" si="4">IF((M3*B3&gt;=N3),M3*B3,N3)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="40" t="str">
+      <c r="P3" s="39" t="str">
         <f t="shared" ref="P3:P33" si="5">IF(SUM(H3-(N3/2))&lt;=B3+C3,"Yes","-")</f>
         <v>Yes</v>
       </c>
-      <c r="Q3" s="40" t="str">
+      <c r="Q3" s="39" t="str">
         <f t="shared" ref="Q3:Q33" si="6">IF(SUM(I3-(O3/2))&lt;=B3+C3,"Yes","-")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>2050</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>60</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>233567</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <f t="shared" ref="E4:E33" si="7">IF((B4&gt;0),(D4/(B4/2)),0)</f>
         <v>227.87024390243903</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="38">
         <v>0.1</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="45">
+      <c r="G4" s="37"/>
+      <c r="H4" s="44">
         <f t="shared" si="0"/>
         <v>2152.5</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="44">
         <f t="shared" si="1"/>
         <v>2152.5</v>
       </c>
-      <c r="J4" s="40" t="str">
+      <c r="J4" s="39" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="29">
         <v>27131000</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="41">
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P4" s="40" t="str">
+      <c r="P4" s="39" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="Q4" s="40" t="str">
+      <c r="Q4" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>30</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27">
+      <c r="C5" s="27"/>
+      <c r="D5" s="26">
         <v>366</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <f t="shared" si="7"/>
         <v>24.4</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="45">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="44">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="44">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J5" s="40" t="str">
+      <c r="J5" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="28">
         <v>86920</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="41">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P5" s="40" t="str">
+      <c r="P5" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q5" s="40" t="str">
+      <c r="Q5" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>1600</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>85</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>231588</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <f t="shared" si="7"/>
         <v>289.48500000000001</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>0.11</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="45">
+      <c r="G6" s="37"/>
+      <c r="H6" s="44">
         <f t="shared" si="0"/>
         <v>1688</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="44">
         <f t="shared" si="1"/>
         <v>1688</v>
       </c>
-      <c r="J6" s="40" t="str">
+      <c r="J6" s="39" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="29">
         <v>37525648</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="38">
         <v>10</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="41">
+      <c r="M6" s="37"/>
+      <c r="N6" s="40">
         <f t="shared" si="3"/>
         <v>16000</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="40">
         <f t="shared" si="4"/>
         <v>16000</v>
       </c>
-      <c r="P6" s="40" t="str">
+      <c r="P6" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q6" s="40" t="str">
+      <c r="Q6" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>400</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28">
         <v>13860</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <f t="shared" si="7"/>
         <v>69.3</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="45">
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="44">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="44">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="J7" s="40" t="str">
+      <c r="J7" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="28">
         <v>90960</v>
       </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="41">
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P7" s="40" t="str">
+      <c r="P7" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q7" s="40" t="str">
+      <c r="Q7" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>160</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28">
         <v>8655</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <f t="shared" si="7"/>
         <v>108.1875</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="45">
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="44">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="44">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="J8" s="40" t="str">
+      <c r="J8" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="28">
         <v>181010</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="41">
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P8" s="40" t="str">
+      <c r="P8" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q8" s="40" t="str">
+      <c r="Q8" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>800</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>70</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>131664</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <f t="shared" si="7"/>
         <v>329.16</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>0.18</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="45">
+      <c r="G9" s="37"/>
+      <c r="H9" s="44">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="44">
         <f t="shared" si="1"/>
         <v>872</v>
       </c>
-      <c r="J9" s="40" t="str">
+      <c r="J9" s="39" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="29">
         <v>57189100</v>
       </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="41">
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P9" s="40" t="str">
+      <c r="P9" s="39" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="Q9" s="40" t="str">
+      <c r="Q9" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>210</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28">
         <v>6286</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <f t="shared" si="7"/>
         <v>59.866666666666667</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="45">
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="44">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="44">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="J10" s="40" t="str">
+      <c r="J10" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <v>36680</v>
       </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="41">
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P10" s="40" t="str">
+      <c r="P10" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q10" s="40" t="str">
+      <c r="Q10" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>260</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28">
         <v>49409</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <f t="shared" si="7"/>
         <v>380.06923076923078</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="45">
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="44">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="J11" s="40" t="str">
+      <c r="J11" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="29">
         <v>94080000</v>
       </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="41">
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P11" s="40" t="str">
+      <c r="P11" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q11" s="40" t="str">
+      <c r="Q11" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>20</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27">
+      <c r="C12" s="27"/>
+      <c r="D12" s="26">
         <v>244</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <f t="shared" si="7"/>
         <v>24.4</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="45">
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="44">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="44">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J12" s="40" t="str">
+      <c r="J12" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="28">
         <v>4770</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="41">
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P12" s="40" t="str">
+      <c r="P12" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q12" s="40" t="str">
+      <c r="Q12" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>360</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28">
         <v>90298</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="43">
         <f t="shared" si="7"/>
         <v>501.65555555555557</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="45">
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="44">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="44">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="J13" s="40" t="str">
+      <c r="J13" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="29">
         <v>112687000</v>
       </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="41">
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P13" s="40" t="str">
+      <c r="P13" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q13" s="40" t="str">
+      <c r="Q13" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>14000</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>700</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>6745648</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="43">
         <f t="shared" si="7"/>
         <v>963.66399999999999</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="38">
         <v>0.11</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="45">
+      <c r="G14" s="37"/>
+      <c r="H14" s="44">
         <f t="shared" si="0"/>
         <v>14770</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="44">
         <f t="shared" si="1"/>
         <v>14770</v>
       </c>
-      <c r="J14" s="40" t="str">
+      <c r="J14" s="39" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <v>189765000</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="38">
         <v>75</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="38">
         <v>100</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="40">
         <f t="shared" si="3"/>
         <v>1050000</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="40">
         <f t="shared" si="4"/>
         <v>1400000</v>
       </c>
-      <c r="P14" s="40" t="str">
+      <c r="P14" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q14" s="40" t="str">
+      <c r="Q14" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>1100</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>75</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>9067</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <f t="shared" si="7"/>
         <v>16.485454545454544</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="38">
         <v>0.2</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="45">
+      <c r="G15" s="37"/>
+      <c r="H15" s="44">
         <f t="shared" si="0"/>
         <v>1210</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="44">
         <f t="shared" si="1"/>
         <v>1210</v>
       </c>
-      <c r="J15" s="40" t="str">
+      <c r="J15" s="39" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="28">
         <v>87640</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="41">
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P15" s="40" t="str">
+      <c r="P15" s="39" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="Q15" s="40" t="str">
+      <c r="Q15" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>550</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28">
         <v>5962</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="43">
         <f t="shared" si="7"/>
         <v>21.68</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="45">
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="44">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="44">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="J16" s="40" t="str">
+      <c r="J16" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="28">
         <v>160230</v>
       </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="41">
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P16" s="40" t="str">
+      <c r="P16" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q16" s="40" t="str">
+      <c r="Q16" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>900</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <v>85</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>20348</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <f t="shared" si="7"/>
         <v>45.217777777777776</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="38">
         <v>0.2</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="45">
+      <c r="G17" s="37"/>
+      <c r="H17" s="44">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="44">
         <f t="shared" si="1"/>
         <v>990</v>
       </c>
-      <c r="J17" s="40" t="str">
+      <c r="J17" s="39" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="28">
         <v>292950</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="38">
         <v>0.2</v>
       </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="41">
+      <c r="M17" s="37"/>
+      <c r="N17" s="40">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="O17" s="41">
+      <c r="O17" s="40">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="P17" s="40" t="str">
+      <c r="P17" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q17" s="40" t="str">
+      <c r="Q17" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>190</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28">
         <v>5553</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <f t="shared" si="7"/>
         <v>58.452631578947368</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="38">
         <v>0.1</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="45">
+      <c r="G18" s="37"/>
+      <c r="H18" s="44">
         <f t="shared" si="0"/>
         <v>199.5</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="44">
         <f t="shared" si="1"/>
         <v>199.5</v>
       </c>
-      <c r="J18" s="40" t="str">
+      <c r="J18" s="39" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="28">
         <v>582970</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="38">
         <v>0.1</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="38">
         <v>0.2</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="40">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O18" s="40">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="P18" s="40" t="str">
+      <c r="P18" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q18" s="40" t="str">
+      <c r="Q18" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>130</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28">
         <v>4238</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <f t="shared" si="7"/>
         <v>65.2</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="45">
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="44">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="44">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="J19" s="40" t="str">
+      <c r="J19" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="28">
         <v>739460</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="41">
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P19" s="40" t="str">
+      <c r="P19" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q19" s="40" t="str">
+      <c r="Q19" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="28">
         <v>8000</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>540</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="28">
         <v>7845120</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="43">
         <f t="shared" si="7"/>
         <v>1961.28</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="38">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="45">
+      <c r="G20" s="37"/>
+      <c r="H20" s="44">
         <f t="shared" si="0"/>
         <v>8560</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="44">
         <f t="shared" si="1"/>
         <v>8560</v>
       </c>
-      <c r="J20" s="40" t="str">
+      <c r="J20" s="39" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="29">
         <v>359571000</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="38">
         <v>20</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="38">
         <v>40</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="40">
         <f t="shared" si="3"/>
         <v>160000</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="40">
         <f t="shared" si="4"/>
         <v>320000</v>
       </c>
-      <c r="P20" s="40" t="str">
+      <c r="P20" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q20" s="40" t="str">
+      <c r="Q20" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="26">
         <v>150</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27">
+      <c r="C21" s="27"/>
+      <c r="D21" s="26">
         <v>614</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="43">
         <f t="shared" si="7"/>
         <v>8.1866666666666674</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="45">
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="44">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="44">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="J21" s="40" t="str">
+      <c r="J21" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="28">
         <v>58600</v>
       </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="41">
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O21" s="41">
+      <c r="O21" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P21" s="40" t="str">
+      <c r="P21" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q21" s="40" t="str">
+      <c r="Q21" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <v>300</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29">
+      <c r="C22" s="27"/>
+      <c r="D22" s="28">
         <v>2741</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="43">
         <f t="shared" si="7"/>
         <v>18.273333333333333</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="38">
         <v>0.1</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="45">
+      <c r="G22" s="37"/>
+      <c r="H22" s="44">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="44">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="J22" s="40" t="str">
+      <c r="J22" s="39" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="28">
         <v>107140</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="38">
         <v>1</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="41">
+      <c r="M22" s="37"/>
+      <c r="N22" s="40">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="40">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="P22" s="40" t="str">
+      <c r="P22" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q22" s="40" t="str">
+      <c r="Q22" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>670</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>180</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="28">
         <v>12376</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="43">
         <f t="shared" ref="E23" si="8">IF((B23&gt;0),(D23/(B23/2)),0)</f>
         <v>36.943283582089549</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="45">
+      <c r="F23" s="38"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="44">
         <f t="shared" ref="H23" si="9">(F23*(B23/2)+B23)</f>
         <v>670</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="44">
         <f t="shared" ref="I23" si="10">IF(G23&gt;=F23,SUM(G23*(B23/2)+B23),H23)</f>
         <v>670</v>
       </c>
-      <c r="J23" s="40" t="str">
+      <c r="J23" s="39" t="str">
         <f t="shared" ref="J23" si="11">IF(H23&lt;=B23+C23,"Yes","-")</f>
         <v>Yes</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="28">
         <v>187500</v>
       </c>
-      <c r="L23" s="39"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="41">
+      <c r="L23" s="38"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="40">
         <f t="shared" ref="N23" si="12">L23*B23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="41">
+      <c r="O23" s="40">
         <f t="shared" ref="O23" si="13">IF((M23*B23&gt;=N23),M23*B23,N23)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="40" t="str">
+      <c r="P23" s="39" t="str">
         <f t="shared" ref="P23" si="14">IF(SUM(H23-(N23/2))&lt;=B23+C23,"Yes","-")</f>
         <v>Yes</v>
       </c>
-      <c r="Q23" s="40" t="str">
+      <c r="Q23" s="39" t="str">
         <f t="shared" ref="Q23" si="15">IF(SUM(I23-(O23/2))&lt;=B23+C23,"Yes","-")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="26">
         <v>750</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>90</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="28">
         <v>19297</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="43">
         <f t="shared" si="7"/>
         <v>51.458666666666666</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="38">
         <v>0.25</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="45">
+      <c r="G24" s="37"/>
+      <c r="H24" s="44">
         <f t="shared" si="0"/>
         <v>843.75</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="44">
         <f t="shared" si="1"/>
         <v>843.75</v>
       </c>
-      <c r="J24" s="40" t="str">
+      <c r="J24" s="39" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="28">
         <v>309380</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="38">
         <v>1</v>
       </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="41">
+      <c r="M24" s="37"/>
+      <c r="N24" s="40">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
-      <c r="O24" s="41">
+      <c r="O24" s="40">
         <f t="shared" si="4"/>
         <v>750</v>
       </c>
-      <c r="P24" s="40" t="str">
+      <c r="P24" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q24" s="40" t="str">
+      <c r="Q24" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="26">
         <v>500</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29">
+      <c r="C25" s="27"/>
+      <c r="D25" s="28">
         <v>26558</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <f t="shared" si="7"/>
         <v>106.232</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="45">
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="44">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="44">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="J25" s="40" t="str">
+      <c r="J25" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="28">
         <v>575680</v>
       </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="41">
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O25" s="41">
+      <c r="O25" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P25" s="40" t="str">
+      <c r="P25" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q25" s="40" t="str">
+      <c r="Q25" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="26">
         <v>450</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29">
+      <c r="C26" s="27"/>
+      <c r="D26" s="28">
         <v>469439</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="43">
         <f t="shared" si="7"/>
         <v>2086.3955555555553</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="45">
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="44">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="44">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="J26" s="40" t="str">
+      <c r="J26" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="29">
         <v>527129000</v>
       </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="41">
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P26" s="40" t="str">
+      <c r="P26" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q26" s="40" t="str">
+      <c r="Q26" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="26">
         <v>600</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="26">
         <v>80</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <v>612195</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="43">
         <f t="shared" si="7"/>
         <v>2040.65</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="38">
         <v>0.27</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="38">
         <v>10</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="44">
         <f t="shared" si="0"/>
         <v>681</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="44">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="J27" s="40" t="str">
+      <c r="J27" s="39" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="29">
         <v>471171300</v>
       </c>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="41">
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" s="41">
+      <c r="O27" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P27" s="40" t="str">
+      <c r="P27" s="39" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="Q27" s="40" t="str">
+      <c r="Q27" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <v>200</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29">
+      <c r="C28" s="27"/>
+      <c r="D28" s="28">
         <v>7782</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="43">
         <f t="shared" si="7"/>
         <v>77.819999999999993</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="45">
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="44">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="44">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="J28" s="40" t="str">
+      <c r="J28" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="28">
         <v>31800</v>
       </c>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="41">
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O28" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P28" s="40" t="str">
+      <c r="P28" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q28" s="40" t="str">
+      <c r="Q28" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="26">
         <v>10</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27">
+      <c r="C29" s="27"/>
+      <c r="D29" s="26">
         <v>544</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="43">
         <f t="shared" si="7"/>
         <v>108.8</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="45">
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="44">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J29" s="40" t="str">
+      <c r="J29" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="28">
         <v>64670</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="38">
         <v>20</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="38">
         <v>40</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="40">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="O29" s="41">
+      <c r="O29" s="40">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="P29" s="40" t="str">
+      <c r="P29" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q29" s="40" t="str">
+      <c r="Q29" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <v>3600</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="26">
         <v>200</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="28">
         <v>20213317</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="43">
         <f t="shared" si="7"/>
         <v>11229.620555555555</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="38">
         <v>0.12</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="45">
+      <c r="G30" s="37"/>
+      <c r="H30" s="44">
         <f t="shared" si="0"/>
         <v>3816</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="44">
         <f t="shared" si="1"/>
         <v>3816</v>
       </c>
-      <c r="J30" s="40" t="str">
+      <c r="J30" s="39" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="29">
         <v>1712000000</v>
       </c>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="41">
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O30" s="41">
+      <c r="O30" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P30" s="40" t="str">
+      <c r="P30" s="39" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="Q30" s="40" t="str">
+      <c r="Q30" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="26">
         <v>320</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29">
+      <c r="C31" s="27"/>
+      <c r="D31" s="28">
         <v>2616</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="43">
         <f t="shared" si="7"/>
         <v>16.350000000000001</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="45">
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="44">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="44">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="J31" s="40" t="str">
+      <c r="J31" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="28">
         <v>55880</v>
       </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="41">
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P31" s="40" t="str">
+      <c r="P31" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q31" s="40" t="str">
+      <c r="Q31" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <v>700</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="29">
+      <c r="C32" s="25"/>
+      <c r="D32" s="28">
         <v>15914</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="43">
         <f t="shared" si="7"/>
         <v>45.46857142857143</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="45">
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="44">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="44">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="J32" s="40" t="str">
+      <c r="J32" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="28">
         <v>125980</v>
       </c>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="41">
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O32" s="41">
+      <c r="O32" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P32" s="40" t="str">
+      <c r="P32" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q32" s="40" t="str">
+      <c r="Q32" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="26">
         <v>110</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29">
+      <c r="C33" s="27"/>
+      <c r="D33" s="28">
         <v>9653</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="43">
         <f t="shared" si="7"/>
         <v>175.5090909090909</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="45">
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="44">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="I33" s="45">
+      <c r="I33" s="44">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="J33" s="40" t="str">
+      <c r="J33" s="39" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="28">
         <v>751900</v>
       </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="41">
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" s="41">
+      <c r="O33" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P33" s="40" t="str">
+      <c r="P33" s="39" t="str">
         <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
-      <c r="Q33" s="40" t="str">
+      <c r="Q33" s="39" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="26">
         <v>0</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="26">
         <v>0</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="44">
+      <c r="D35" s="28"/>
+      <c r="E35" s="43">
         <f t="shared" ref="E35" si="16">IF((B35&gt;0),(D35/(B35/2)),0)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="38">
         <v>0.41</v>
       </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="45">
+      <c r="G35" s="38"/>
+      <c r="H35" s="44">
         <f t="shared" ref="H35" si="17">(F35*(B35/2)+B35)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="44">
         <f t="shared" ref="I35" si="18">IF(G35&gt;=F35,SUM(G35*(B35/2)+B35),H35)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="40" t="str">
+      <c r="J35" s="39" t="str">
         <f t="shared" ref="J35" si="19">IF(H35&lt;=B35+C35,"Yes","-")</f>
         <v>Yes</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="28">
         <v>751900</v>
       </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="41">
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="40">
         <f t="shared" ref="N35" si="20">L35*B35</f>
         <v>0</v>
       </c>
-      <c r="O35" s="41">
+      <c r="O35" s="40">
         <f t="shared" ref="O35" si="21">IF((M35*B35&gt;=N35),M35*B35,N35)</f>
         <v>0</v>
       </c>
-      <c r="P35" s="40" t="str">
+      <c r="P35" s="39" t="str">
         <f t="shared" ref="P35" si="22">IF(SUM(H35-(N35/2))&lt;=B35+C35,"Yes","-")</f>
         <v>Yes</v>
       </c>
-      <c r="Q35" s="40" t="str">
+      <c r="Q35" s="39" t="str">
         <f t="shared" ref="Q35" si="23">IF(SUM(I35-(O35/2))&lt;=B35+C35,"Yes","-")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="33"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="33"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="33"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="33"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="33"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="33"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="33"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="33"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="33"/>
-      <c r="O75" s="33"/>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="33"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="32"/>
+      <c r="P75" s="32"/>
+      <c r="Q75" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="16740" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="151">
   <si>
     <t>Resource</t>
   </si>
@@ -408,10 +408,85 @@
     <t>Water (WBI)</t>
   </si>
   <si>
-    <t>Supports stock and CRP but not WBI.</t>
-  </si>
-  <si>
-    <t>Supports stock, CRP and WBI.</t>
+    <t>Dirt</t>
+  </si>
+  <si>
+    <t>Materialkits</t>
+  </si>
+  <si>
+    <t>SpecializedParts</t>
+  </si>
+  <si>
+    <t>Polymers</t>
+  </si>
+  <si>
+    <t>RefinedExotics</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Colony Supplies</t>
+  </si>
+  <si>
+    <t>EnrichedUranium</t>
+  </si>
+  <si>
+    <t>MetallicOre</t>
+  </si>
+  <si>
+    <t>Organics</t>
+  </si>
+  <si>
+    <t>Recyclables</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Uraninite</t>
+  </si>
+  <si>
+    <t>UO2</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Sand (SiO2)</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Hematite (Fe2O3)</t>
+  </si>
+  <si>
+    <t>Mulch</t>
+  </si>
+  <si>
+    <t>Depleted[Fuel/Uranium]</t>
+  </si>
+  <si>
+    <t>Supports stock and CRP (only where correlated IRL resources can be found).</t>
+  </si>
+  <si>
+    <t>Does not support most of CRP (KSPI, RealFuels) or WBI.</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Does not support most of CRP (KSPI, RealFuels).</t>
+  </si>
+  <si>
+    <t>Supports stock, CRP (the realms of NFT and USI) and WBI.</t>
   </si>
 </sst>
 </file>
@@ -423,8 +498,8 @@
     <numFmt numFmtId="165" formatCode="#,##0.000\ &quot;kg/unit&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;g/mol&quot;"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000&quot;:1&quot;"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000&quot;:1&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -690,16 +765,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="7"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1032,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1060,247 +1135,252 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B6" s="18">
         <v>0</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C6" s="18">
         <v>0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D6" s="18">
         <v>0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E6" s="18">
         <v>0</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B6,Database!$A$2:$E$69,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C7" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C6,Database!$A$2:$E$69,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D7" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D6,Database!$A$2:$E$69,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E7" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E6,Database!$A$2:$E$69,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F7" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F6,Database!$A$2:$E$69,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="25" t="str">
-        <f t="shared" ref="B8:E8" si="0">IFERROR(B5*B7,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C8" s="25" t="str">
+      <c r="B9" s="25" t="str">
+        <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D8" s="25" t="str">
+      <c r="D9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="E8" s="25" t="str">
+      <c r="E9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F8" s="25" t="str">
-        <f>IFERROR(F5*F7,"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="F9" s="25" t="str">
+        <f>IFERROR(F6*F8,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="25">
-        <f>SUM(B8:F8)</f>
+      <c r="B10" s="25">
+        <f>SUM(B9:F9)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B13" s="18">
         <v>0</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C13" s="18">
         <v>0</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D13" s="18">
         <v>0</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E13" s="18">
         <v>0</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F13" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$E$69,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C14" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$E$69,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D14" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$E$69,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E14" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E13,Database!$A$2:$E$69,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F14" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F13,Database!$A$2:$E$69,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="22" t="str">
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C15" s="22" t="str">
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D15" s="22" t="str">
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E15" s="22" t="str">
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F15" s="22" t="str">
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="25" t="str">
-        <f t="shared" ref="B15:E15" si="1">IFERROR(B12*B14,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C15" s="25" t="str">
+      <c r="B16" s="25" t="str">
+        <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C16" s="25" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D15" s="25" t="str">
+      <c r="D16" s="25" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E15" s="25" t="str">
+      <c r="E16" s="25" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F15" s="25" t="str">
-        <f>IFERROR(F12*F14,"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="F16" s="25" t="str">
+        <f>IFERROR(F13*F15,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="25">
-        <f>SUM(B15:F15)</f>
+      <c r="B17" s="25">
+        <f>SUM(B16:F16)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="20" t="str">
-        <f>IF($B$9&gt;$B$16,"Input excesive",IF($B$9&lt;$B$16,"Output excessive","Equal"))</f>
+      <c r="B20" s="20" t="str">
+        <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
         <v>Equal</v>
       </c>
-      <c r="C19" s="21">
-        <f>IF($B$9&gt;$B$16,B9/B16,IF($B$9&lt;$B$16,B16/B9,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="C20" s="21">
+        <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1308,9 +1388,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$69</xm:f>
+            <xm:f>Database!$A$2:$A$87</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:F6 B13:F13</xm:sqref>
+          <xm:sqref>B7:F7 B14:F14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1320,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1348,342 +1428,347 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B6" s="18">
         <v>0</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C6" s="18">
         <v>0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D6" s="18">
         <v>0</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E6" s="18">
         <v>0</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B6,Database!$A$2:$E$35,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C7" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C6,Database!$A$2:$E$35,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D7" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D6,Database!$A$2:$E$35,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E7" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E6,Database!$A$2:$E$35,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F7" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F6,Database!$A$2:$E$35,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B6,Database!$A$2:$E$35,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C6,Database!$A$2:$E$35,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D6,Database!$A$2:$E$35,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E6,Database!$A$2:$E$35,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F6,Database!$A$2:$E$35,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="22" t="str">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C9" s="22" t="str">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D9" s="22" t="str">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E9" s="22" t="str">
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F9" s="22" t="str">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="19">
-        <f>IFERROR(B5*B7,0)</f>
+      <c r="B10" s="19">
+        <f>IFERROR(B6*B8,0)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="19" t="str">
-        <f>IFERROR(C5*C7,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D9" s="19" t="str">
-        <f>IFERROR(D5*D7,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E9" s="19" t="str">
-        <f>IFERROR(E5*E7,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F9" s="19" t="str">
-        <f>IFERROR(F5*F7,"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="C10" s="19" t="str">
+        <f>IFERROR(C6*C8,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f>IFERROR(D6*D8,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E10" s="19" t="str">
+        <f>IFERROR(E6*E8,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F10" s="19" t="str">
+        <f>IFERROR(F6*F8,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="27" t="str">
-        <f>IFERROR(B9/(B8*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C10" s="27" t="str">
-        <f>IFERROR(C9/(C8*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D10" s="27" t="str">
-        <f>IFERROR(D9/(D8*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E10" s="27" t="str">
-        <f>IFERROR(E9/(E8*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F10" s="27" t="str">
-        <f>IFERROR(F9/(F8*1000),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="27" t="str">
+        <f>IFERROR(B10/(B9*1000),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C11" s="27" t="str">
+        <f>IFERROR(C10/(C9*1000),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D11" s="27" t="str">
+        <f>IFERROR(D10/(D9*1000),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E11" s="27" t="str">
+        <f>IFERROR(E10/(E9*1000),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F11" s="27" t="str">
+        <f>IFERROR(F10/(F9*1000),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="25">
-        <f>SUM(B9:F9)</f>
+      <c r="B12" s="25">
+        <f>SUM(B10:F10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
+    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B15" s="18">
         <v>0</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C15" s="18">
         <v>0</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D15" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E15" s="18">
         <v>0</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F15" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B15,Database!$A$2:$E$35,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C16" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C15,Database!$A$2:$E$35,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D16" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D15,Database!$A$2:$E$35,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E16" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E15,Database!$A$2:$E$35,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F16" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F15,Database!$A$2:$E$35,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="22" t="str">
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D17" s="22" t="str">
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E17" s="22" t="str">
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F17" s="22" t="str">
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B15,Database!$A$2:$E$35,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C15,Database!$A$2:$E$35,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D15,Database!$A$2:$E$35,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E15,Database!$A$2:$E$35,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F15,Database!$A$2:$E$35,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="22" t="str">
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C18" s="22" t="str">
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D18" s="22" t="str">
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E18" s="22" t="str">
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F18" s="22" t="str">
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="19">
-        <f>IFERROR(B14*B16,0)</f>
+      <c r="B19" s="19">
+        <f>IFERROR(B15*B17,0)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="19" t="str">
-        <f>IFERROR(C14*C16,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D18" s="19" t="str">
-        <f t="shared" ref="D18:F18" si="0">IFERROR(D14*D16,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E18" s="19" t="str">
+      <c r="C19" s="19" t="str">
+        <f>IFERROR(C15*C17,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D19" s="19" t="str">
+        <f t="shared" ref="D19:F19" si="0">IFERROR(D15*D17,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F18" s="19" t="str">
+      <c r="F19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="27">
-        <f>IFERROR(B18/(B17*1000),0)</f>
+      <c r="B20" s="27" t="str">
+        <f>IFERROR(B19/(B18*1000),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C20" s="27" t="str">
+        <f>IFERROR(C19/(C18*1000),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D20" s="27" t="str">
+        <f>IFERROR(D19/(D18*1000),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E20" s="27" t="str">
+        <f>IFERROR(E19/(E18*1000),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F20" s="27" t="str">
+        <f>IFERROR(F19/(F18*1000),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="25">
+        <f>SUM(B19:F19)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="27" t="str">
-        <f>IFERROR(C18/(C17*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D19" s="27" t="str">
-        <f>IFERROR(D18/(D17*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E19" s="27" t="str">
-        <f>IFERROR(E18/(E17*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F19" s="27" t="str">
-        <f>IFERROR(F18/(F17*1000),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="25">
-        <f>SUM(B18:F18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="20" t="str">
-        <f>IF($B$11&gt;$B$20,"Input excesive",IF($B$11&lt;$B$20,"Output excessive","Equal"))</f>
+      <c r="B24" s="20" t="str">
+        <f>IF($B$12&gt;$B$21,"Input excesive",IF($B$12&lt;$B$21,"Output excessive","Equal"))</f>
         <v>Equal</v>
       </c>
-      <c r="C23" s="21">
-        <f>IF($B$11&gt;$B$20,B11/B20,IF($B$11&lt;$B$20,B20/B11,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="C24" s="21">
+        <f>IF($B$12&gt;$B$21,B12/B21,IF($B$12&lt;$B$21,B21/B12,1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1691,9 +1776,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$36</xm:f>
+            <xm:f>Database!$A$2:$A$54</xm:f>
           </x14:formula1>
-          <xm:sqref>B15:F15 B6:F6</xm:sqref>
+          <xm:sqref>B16:F16 B7:F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1703,11 +1788,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E66" sqref="E66"/>
+      <selection pane="topRight" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2074,901 +2159,1210 @@
         <v>1.951E-3</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" ref="F14:F34" si="3">C14*D14/(E14 * 1000)</f>
+        <f t="shared" ref="F14:F49" si="3">C14*D14/(E14 * 1000)</f>
         <v>22.558175294720652</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
-        <f>88.906+30.974+(16*4)</f>
-        <v>183.88</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4">
+        <f>0.001556*1000</f>
+        <v>1.556</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>238.03</v>
+      </c>
+      <c r="E17" s="4">
+        <f>0.01097*1000</f>
+        <v>10.97</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="3"/>
+        <v>2.1698268003646309E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>60.08</v>
+      </c>
+      <c r="E18" s="4">
+        <f>0.0016*1000</f>
+        <v>1.6</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="3"/>
+        <v>3.755E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>238.03</v>
+      </c>
+      <c r="E19" s="4">
+        <f>0.01097*1000</f>
+        <v>10.97</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="3"/>
+        <v>2.1698268003646309E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <f>88.906+30.974+(16*4)</f>
+        <v>183.88</v>
+      </c>
+      <c r="E20" s="4">
+        <f>0.0025*1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="6">
         <f t="shared" si="3"/>
         <v>7.3551999999999992E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <f>40.078+32.065+(16*4)+(18*2)</f>
         <v>172.143</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E22" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F22" s="6">
         <f t="shared" si="3"/>
         <v>3.129872727272727E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
         <f>(55.845*2)+(16*3)+(18*0.5)</f>
         <v>168.69</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E23" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F23" s="6">
         <f t="shared" si="3"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
         <f>1.008*2</f>
         <v>2.016</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E24" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F24" s="6">
         <f t="shared" si="3"/>
         <v>22.424916573971078</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>6.94</v>
+      </c>
+      <c r="E25" s="4">
+        <f xml:space="preserve"> 0.000534*1000</f>
+        <v>0.53399999999999992</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2996254681647943E-2</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <f>14.007+(1.008*3)</f>
         <v>17.030999999999999</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E26" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F26" s="6">
         <f t="shared" si="3"/>
         <v>2.4257228315054839E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <f>12.011+(16*2)</f>
         <v>44.010999999999996</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E27" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F27" s="6">
         <f t="shared" si="3"/>
         <v>3.7512039207330053E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
         <f>1.008*2</f>
         <v>2.016</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E28" s="4">
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F28" s="6">
         <f t="shared" si="3"/>
         <v>2.8454481298517999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E29" s="4">
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F29" s="6">
         <f t="shared" si="3"/>
         <v>3.771527924625831E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E30" s="11">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F30" s="12">
         <f t="shared" si="3"/>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E31" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F31" s="6">
         <f t="shared" si="3"/>
         <v>3.3960191876175133E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4">
+        <f>0.00378*1000</f>
+        <v>3.78</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>159.69</v>
+      </c>
+      <c r="E34" s="4">
+        <f>0.0055*1000</f>
+        <v>5.5</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="3"/>
+        <v>2.9034545454545455E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E35" s="4">
         <f>0.026*1000</f>
         <v>26</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F35" s="6">
         <f t="shared" si="3"/>
         <v>4.2957692307692306E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E36" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F36" s="6">
         <f t="shared" si="3"/>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E37" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F37" s="6">
         <f t="shared" si="3"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E38" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F38" s="6">
         <f t="shared" si="3"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
         <v>233.88</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E39" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F39" s="6">
         <f t="shared" si="3"/>
         <v>4.6775999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E41" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F41" s="6">
         <f t="shared" si="3"/>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E43" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F43" s="6">
         <f t="shared" si="3"/>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <v>30.97</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E44" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F44" s="6">
         <f t="shared" si="3"/>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4">
+        <f>0.00104*1000</f>
+        <v>1.0399999999999998</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E46" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F46" s="6">
         <f t="shared" si="3"/>
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4">
+        <f>0.00378*1000</f>
+        <v>3.78</v>
+      </c>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="4">
+        <f>0.0052*1000</f>
+        <v>5.2</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
         <f>28.086*2</f>
         <v>56.171999999999997</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E49" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F49" s="6">
         <f t="shared" si="3"/>
         <v>2.2468799999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="4">
+        <f>0.00378*1000</f>
+        <v>3.78</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
+        <v>270.02999999999997</v>
+      </c>
+      <c r="E53" s="4">
+        <f>0.0075*1000</f>
+        <v>7.5</v>
+      </c>
+      <c r="F53" s="6">
+        <f>C53*D53/(E53 * 1000)</f>
+        <v>3.6003999999999994E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
         <f>(1.008*2)+16</f>
         <v>18.015999999999998</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E54" s="4">
         <f>0.0001*1000</f>
         <v>0.1</v>
       </c>
-      <c r="F36" s="6">
-        <f>C36*D36/(E36 * 1000)</f>
+      <c r="F54" s="6">
+        <f>C54*D54/(E54 * 1000)</f>
         <v>0.18015999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="4">
-        <f t="shared" ref="E39:E69" si="4">F39*1000</f>
+      <c r="E57" s="4">
+        <f t="shared" ref="E57:E87" si="4">F57*1000</f>
         <v>5</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F57" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E58" s="4">
         <f t="shared" si="4"/>
         <v>19.3</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F58" s="6">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E59" s="4">
         <f t="shared" si="4"/>
         <v>54.4</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F59" s="6">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E60" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F60" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E61" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F61" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E62" s="4">
         <f t="shared" si="4"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F62" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E63" s="4">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F63" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E64" s="4">
         <f t="shared" si="4"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F64" s="6">
         <v>5.0108799999999997E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E65" s="4">
         <f t="shared" si="4"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F65" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E66" s="4">
         <f t="shared" si="4"/>
         <v>0.216</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F66" s="6">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E67" s="4">
         <f t="shared" si="4"/>
         <v>23.125</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F67" s="6">
         <v>2.3125E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E68" s="4">
         <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F68" s="6">
         <v>5.2500000000000003E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="4">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F51" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="shared" si="4"/>
-        <v>12.5</v>
-      </c>
-      <c r="F52" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4</v>
-      </c>
-      <c r="F53" s="6">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="4">
-        <f t="shared" si="4"/>
-        <v>13.5</v>
-      </c>
-      <c r="F54" s="6">
-        <v>1.35E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="4">
-        <f t="shared" si="4"/>
-        <v>8.6</v>
-      </c>
-      <c r="F55" s="6">
-        <v>8.6E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4">
-        <f t="shared" si="4"/>
-        <v>5.7050000000000001</v>
-      </c>
-      <c r="F56" s="6">
-        <v>5.705E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4">
-        <f t="shared" si="4"/>
-        <v>13.5</v>
-      </c>
-      <c r="F57" s="6">
-        <v>1.35E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="4">
-        <f t="shared" si="4"/>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="F58" s="6">
-        <v>3.5399999999999999E-4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4">
-        <f t="shared" si="4"/>
-        <v>2.12805</v>
-      </c>
-      <c r="F59" s="6">
-        <v>2.1280499999999998E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4">
-        <f t="shared" si="4"/>
-        <v>1.08</v>
-      </c>
-      <c r="F60" s="6">
-        <v>1.08E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4">
-        <f t="shared" si="4"/>
-        <v>4.1000000000000005</v>
-      </c>
-      <c r="F61" s="6">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62" s="4">
-        <f t="shared" si="4"/>
-        <v>12.5</v>
-      </c>
-      <c r="F62" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="4">
-        <f t="shared" si="4"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F63" s="6">
-        <v>4.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F64" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F65" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" s="4">
-        <f t="shared" si="4"/>
-        <v>7.5</v>
-      </c>
-      <c r="F66" s="6">
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" s="4">
-        <f t="shared" si="4"/>
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="F67" s="6">
-        <v>4.3499999999999997E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" s="4">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F68" s="6">
-        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F69" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4</v>
+      </c>
+      <c r="F71" s="6">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="4"/>
+        <v>8.6</v>
+      </c>
+      <c r="F73" s="6">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4">
+        <f t="shared" si="4"/>
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="F74" s="6">
+        <v>5.705E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4">
+        <f t="shared" si="4"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F76" s="6">
+        <v>3.5399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4">
+        <f t="shared" si="4"/>
+        <v>2.12805</v>
+      </c>
+      <c r="F77" s="6">
+        <v>2.1280499999999998E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4">
+        <f t="shared" si="4"/>
+        <v>1.08</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1.08E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="F79" s="6">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="F80" s="6">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="4"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F81" s="6">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F83" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="F84" s="6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="4"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F85" s="6">
+        <v>4.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F86" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F87" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="154">
   <si>
     <t>Resource</t>
   </si>
@@ -487,6 +487,15 @@
   </si>
   <si>
     <t>Supports stock, CRP (the realms of NFT and USI) and WBI.</t>
+  </si>
+  <si>
+    <t>Glykerol</t>
+  </si>
+  <si>
+    <t>RocketParts</t>
+  </si>
+  <si>
+    <t>ScrapMetal</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1119,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1188,23 +1197,23 @@
         <v>77</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$90,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$90,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$90,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$90,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$90,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1291,23 +1300,23 @@
         <v>77</v>
       </c>
       <c r="B15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$90,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$90,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$90,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$90,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$90,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1388,7 +1397,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$87</xm:f>
+            <xm:f>Database!$A$2:$A$90</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7 B14:F14</xm:sqref>
         </x14:dataValidation>
@@ -1403,7 +1412,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1481,23 +1490,23 @@
         <v>96</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$54,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$54,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$54,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$54,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$54,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1506,23 +1515,23 @@
         <v>101</v>
       </c>
       <c r="B9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$54,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$54,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$54,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$54,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$54,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1630,23 +1639,23 @@
         <v>96</v>
       </c>
       <c r="B17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$54,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$54,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$54,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$54,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$51,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$54,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1655,23 +1664,23 @@
         <v>101</v>
       </c>
       <c r="B18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$54,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$54,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$54,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$54,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$51,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$54,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1776,7 +1785,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$54</xm:f>
+            <xm:f>Database!$A$2:$A$57</xm:f>
           </x14:formula1>
           <xm:sqref>B16:F16 B7:F7</xm:sqref>
         </x14:dataValidation>
@@ -1788,11 +1797,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A80" sqref="A80"/>
+      <selection pane="topRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2159,7 +2168,7 @@
         <v>1.951E-3</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" ref="F14:F49" si="3">C14*D14/(E14 * 1000)</f>
+        <f t="shared" ref="F14:F52" si="3">C14*D14/(E14 * 1000)</f>
         <v>22.558175294720652</v>
       </c>
     </row>
@@ -2297,313 +2306,305 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4">
+        <f>0.012*1000</f>
+        <v>12</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
         <f>40.078+32.065+(16*4)+(18*2)</f>
         <v>172.143</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <f t="shared" si="3"/>
         <v>3.129872727272727E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
         <f>(55.845*2)+(16*3)+(18*0.5)</f>
         <v>168.69</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="6">
         <f t="shared" si="3"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
         <f>1.008*2</f>
         <v>2.016</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <f t="shared" si="3"/>
         <v>22.424916573971078</v>
       </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>6.94</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="4">
         <f xml:space="preserve"> 0.000534*1000</f>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <f t="shared" si="3"/>
         <v>1.2996254681647943E-2</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <f>14.007+(1.008*3)</f>
         <v>17.030999999999999</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <f t="shared" si="3"/>
         <v>2.4257228315054839E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
         <f>12.011+(16*2)</f>
         <v>44.010999999999996</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="6">
         <f t="shared" si="3"/>
         <v>3.7512039207330053E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <f>1.008*2</f>
         <v>2.016</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <f t="shared" si="3"/>
         <v>2.8454481298517999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <f t="shared" si="3"/>
         <v>3.771527924625831E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="9">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10">
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F31" s="12">
         <f t="shared" si="3"/>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="6">
         <f t="shared" si="3"/>
         <v>3.3960191876175133E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <v>159.69</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <f t="shared" si="3"/>
         <v>2.9034545454545455E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
-        <f>55.845*2</f>
-        <v>111.69</v>
-      </c>
-      <c r="E35" s="4">
-        <f>0.026*1000</f>
-        <v>26</v>
-      </c>
-      <c r="F35" s="6">
-        <f t="shared" si="3"/>
-        <v>4.2957692307692306E-3</v>
-      </c>
-    </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>48</v>
@@ -2616,592 +2617,603 @@
         <v>111.69</v>
       </c>
       <c r="E36" s="4">
+        <f>0.026*1000</f>
+        <v>26</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="3"/>
+        <v>4.2957692307692306E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <f>55.845*2</f>
+        <v>111.69</v>
+      </c>
+      <c r="E37" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="3"/>
+      <c r="F37" s="6">
+        <f>C37*D37/(E37 * 1000)</f>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <f t="shared" si="3"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <f t="shared" si="3"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
         <v>233.88</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="6">
         <f t="shared" si="3"/>
         <v>4.6775999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F40" s="6"/>
-    </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="6">
         <f t="shared" si="3"/>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F42" s="6"/>
-    </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="6">
         <f t="shared" si="3"/>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
         <v>30.97</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <f t="shared" si="3"/>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4">
         <f>0.00104*1000</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <f t="shared" si="3"/>
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="4">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="4">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="4">
         <f>0.0052*1000</f>
         <v>5.2</v>
       </c>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="4">
+        <f>0.0025*1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="4">
+        <f>0.004*1000</f>
+        <v>4</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
         <f>28.086*2</f>
         <v>56.171999999999997</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E52" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F52" s="6">
         <f t="shared" si="3"/>
         <v>2.2468799999999997E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="4">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="4">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="4">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E56" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F53" s="6">
-        <f>C53*D53/(E53 * 1000)</f>
+      <c r="F56" s="6">
+        <f>C56*D56/(E56 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
         <f>(1.008*2)+16</f>
         <v>18.015999999999998</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E57" s="4">
         <f>0.0001*1000</f>
         <v>0.1</v>
       </c>
-      <c r="F54" s="6">
-        <f>C54*D54/(E54 * 1000)</f>
+      <c r="F57" s="6">
+        <f>C57*D57/(E57 * 1000)</f>
         <v>0.18015999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="4">
-        <f t="shared" ref="E57:E87" si="4">F57*1000</f>
+      <c r="E60" s="4">
+        <f t="shared" ref="E60:E90" si="4">F60*1000</f>
         <v>5</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F60" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E61" s="4">
         <f t="shared" si="4"/>
         <v>19.3</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F61" s="6">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E62" s="4">
         <f t="shared" si="4"/>
         <v>54.4</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F62" s="6">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E63" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F63" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E64" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F64" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E65" s="4">
         <f t="shared" si="4"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F65" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E66" s="4">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F66" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E67" s="4">
         <f t="shared" si="4"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F67" s="6">
         <v>5.0108799999999997E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E68" s="4">
         <f t="shared" si="4"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F68" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E69" s="4">
         <f t="shared" si="4"/>
         <v>0.216</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F69" s="6">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E70" s="4">
         <f t="shared" si="4"/>
         <v>23.125</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F70" s="6">
         <v>2.3125E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E71" s="4">
         <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F71" s="6">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E72" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F72" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E73" s="4">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F73" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E74" s="4">
         <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F74" s="6">
         <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" s="4">
-        <f t="shared" si="4"/>
-        <v>13.5</v>
-      </c>
-      <c r="F72" s="6">
-        <v>1.35E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="4">
-        <f t="shared" si="4"/>
-        <v>8.6</v>
-      </c>
-      <c r="F73" s="6">
-        <v>8.6E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="4">
-        <f t="shared" si="4"/>
-        <v>5.7050000000000001</v>
-      </c>
-      <c r="F74" s="6">
-        <v>5.705E-3</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="3"/>
+        <v>63</v>
+      </c>
       <c r="E75" s="4">
         <f t="shared" si="4"/>
         <v>13.5</v>
@@ -3212,157 +3224,199 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="3"/>
+        <v>64</v>
+      </c>
       <c r="E76" s="4">
         <f t="shared" si="4"/>
-        <v>0.35399999999999998</v>
+        <v>8.6</v>
       </c>
       <c r="F76" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="3"/>
       <c r="E77" s="4">
         <f t="shared" si="4"/>
-        <v>2.12805</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F77" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="3"/>
       <c r="E78" s="4">
         <f t="shared" si="4"/>
-        <v>1.08</v>
+        <v>13.5</v>
       </c>
       <c r="F78" s="6">
-        <v>1.08E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="3"/>
       <c r="E79" s="4">
         <f t="shared" si="4"/>
-        <v>4.1000000000000005</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F79" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
-        <v>53</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="4">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>2.12805</v>
       </c>
       <c r="F80" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
-        <v>72</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="4">
         <f t="shared" si="4"/>
-        <v>4.5999999999999996</v>
+        <v>1.08</v>
       </c>
       <c r="F81" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F82" s="6">
-        <v>1E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="E83" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="F83" s="6">
-        <v>1E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" si="4"/>
-        <v>7.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F84" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="4">
         <f t="shared" si="4"/>
-        <v>4.3499999999999996</v>
+        <v>1</v>
       </c>
       <c r="F85" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E86" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F86" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="F87" s="6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" si="4"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F88" s="6">
+        <v>4.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" s="4">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F89" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F90" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="17670" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="155">
   <si>
     <t>Resource</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>ScrapMetal</t>
+  </si>
+  <si>
+    <t>HydrazineVodka</t>
   </si>
 </sst>
 </file>
@@ -720,7 +723,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,6 +797,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1119,7 +1123,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1197,23 +1201,23 @@
         <v>77</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$90,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$91,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$90,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$91,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$90,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$91,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$90,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$91,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$90,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$91,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1300,23 +1304,23 @@
         <v>77</v>
       </c>
       <c r="B15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$90,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$91,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$90,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$91,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$90,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$91,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$90,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$91,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$90,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$91,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1397,7 +1401,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$90</xm:f>
+            <xm:f>Database!$A$2:$A$91</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7 B14:F14</xm:sqref>
         </x14:dataValidation>
@@ -1490,23 +1494,23 @@
         <v>96</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$54,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$57,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$54,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$57,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$54,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$57,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$54,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$57,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$54,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$57,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1515,23 +1519,23 @@
         <v>101</v>
       </c>
       <c r="B9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$54,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$57,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$54,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$57,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$54,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$57,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$54,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$57,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$54,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$57,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1639,23 +1643,23 @@
         <v>96</v>
       </c>
       <c r="B17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$54,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$57,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$54,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$57,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$54,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$57,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$54,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$57,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$54,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$57,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1664,23 +1668,23 @@
         <v>101</v>
       </c>
       <c r="B18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$54,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$57,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$54,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$57,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$54,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$57,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$54,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$57,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$54,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$57,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1797,11 +1801,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B38" sqref="B38"/>
+      <selection pane="topRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2092,8 +2096,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="5">
-        <f>14.007+(1.008*3)</f>
-        <v>17.030999999999999</v>
+        <v>17.03</v>
       </c>
       <c r="E11" s="4">
         <f>0.000000769*1000</f>
@@ -2101,7 +2104,7 @@
       </c>
       <c r="F11" s="6">
         <f>C11*D11/(E11 * 1000)</f>
-        <v>22.14694408322497</v>
+        <v>22.145643693107935</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2115,8 +2118,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="5">
-        <f>39.948*2</f>
-        <v>79.896000000000001</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="E12" s="4">
         <f>0.000001784*1000</f>
@@ -2124,7 +2126,7 @@
       </c>
       <c r="F12" s="6">
         <f>C12*D12/(E12 * 1000)</f>
-        <v>44.784753363228702</v>
+        <v>22.393497757847534</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2160,8 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="5">
-        <f>12.011 + 16*2</f>
-        <v>44.010999999999996</v>
+        <v>44.01</v>
       </c>
       <c r="E14" s="4">
         <f>0.000001951*1000</f>
@@ -2169,7 +2170,7 @@
       </c>
       <c r="F14" s="6">
         <f t="shared" ref="F14:F52" si="3">C14*D14/(E14 * 1000)</f>
-        <v>22.558175294720652</v>
+        <v>22.557662737057917</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2277,7 +2278,6 @@
         <v>1</v>
       </c>
       <c r="D20" s="5">
-        <f>88.906+30.974+(16*4)</f>
         <v>183.88</v>
       </c>
       <c r="E20" s="4">
@@ -2330,8 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="5">
-        <f>40.078+32.065+(16*4)+(18*2)</f>
-        <v>172.143</v>
+        <v>172.14</v>
       </c>
       <c r="E23" s="4">
         <f>0.0055*1000</f>
@@ -2339,7 +2338,7 @@
       </c>
       <c r="F23" s="6">
         <f t="shared" si="3"/>
-        <v>3.129872727272727E-2</v>
+        <v>3.1298181818181815E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2353,7 +2352,6 @@
         <v>1</v>
       </c>
       <c r="D24" s="5">
-        <f>(55.845*2)+(16*3)+(18*0.5)</f>
         <v>168.69</v>
       </c>
       <c r="E24" s="4">
@@ -2376,8 +2374,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="5">
-        <f>1.008*2</f>
-        <v>2.016</v>
+        <v>2.02</v>
       </c>
       <c r="E25" s="4">
         <f>0.0000000899*1000</f>
@@ -2385,7 +2382,7 @@
       </c>
       <c r="F25" s="6">
         <f t="shared" si="3"/>
-        <v>22.424916573971078</v>
+        <v>22.469410456062288</v>
       </c>
       <c r="G25" s="8"/>
     </row>
@@ -2423,8 +2420,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="5">
-        <f>14.007+(1.008*3)</f>
-        <v>17.030999999999999</v>
+        <v>17.03</v>
       </c>
       <c r="E27" s="4">
         <f>0.0007021*1000</f>
@@ -2432,7 +2428,7 @@
       </c>
       <c r="F27" s="6">
         <f t="shared" si="3"/>
-        <v>2.4257228315054839E-2</v>
+        <v>2.4255804016521866E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2446,8 +2442,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="5">
-        <f>12.011+(16*2)</f>
-        <v>44.010999999999996</v>
+        <v>44.01</v>
       </c>
       <c r="E28" s="4">
         <f>0.00117325*1000</f>
@@ -2455,7 +2450,7 @@
       </c>
       <c r="F28" s="6">
         <f t="shared" si="3"/>
-        <v>3.7512039207330053E-2</v>
+        <v>3.7511186874067751E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2469,8 +2464,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="5">
-        <f>1.008*2</f>
-        <v>2.016</v>
+        <v>2.02</v>
       </c>
       <c r="E29" s="4">
         <f>0.00007085*1000</f>
@@ -2478,7 +2472,7 @@
       </c>
       <c r="F29" s="6">
         <f t="shared" si="3"/>
-        <v>2.8454481298517999E-2</v>
+        <v>2.8510938602681724E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2492,8 +2486,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="5">
-        <f>12.02+4*1.008</f>
-        <v>16.052</v>
+        <v>16.05</v>
       </c>
       <c r="E30" s="4">
         <f>0.00042561*1000</f>
@@ -2501,7 +2494,7 @@
       </c>
       <c r="F30" s="6">
         <f t="shared" si="3"/>
-        <v>3.771527924625831E-2</v>
+        <v>3.7710580108550079E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2515,7 +2508,6 @@
         <v>1</v>
       </c>
       <c r="D31" s="10">
-        <f>16*2</f>
         <v>32</v>
       </c>
       <c r="E31" s="11">
@@ -2538,8 +2530,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="5">
-        <f>14.007*2</f>
-        <v>28.013999999999999</v>
+        <v>28.01</v>
       </c>
       <c r="E32" s="4">
         <f>0.000824907*1000</f>
@@ -2547,7 +2538,7 @@
       </c>
       <c r="F32" s="6">
         <f t="shared" si="3"/>
-        <v>3.3960191876175133E-2</v>
+        <v>3.3955342844708553E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2780,7 +2771,6 @@
         <v>1</v>
       </c>
       <c r="D44" s="5">
-        <f>16*2</f>
         <v>32</v>
       </c>
       <c r="E44" s="4">
@@ -2923,8 +2913,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="5">
-        <f>28.086*2</f>
-        <v>56.171999999999997</v>
+        <v>28.09</v>
       </c>
       <c r="E52" s="4">
         <f>0.0025*1000</f>
@@ -2932,7 +2921,7 @@
       </c>
       <c r="F52" s="6">
         <f t="shared" si="3"/>
-        <v>2.2468799999999997E-2</v>
+        <v>1.1235999999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3013,8 +3002,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="5">
-        <f>(1.008*2)+16</f>
-        <v>18.015999999999998</v>
+        <v>18.02</v>
       </c>
       <c r="E57" s="4">
         <f>0.0001*1000</f>
@@ -3022,7 +3010,7 @@
       </c>
       <c r="F57" s="6">
         <f>C57*D57/(E57 * 1000)</f>
-        <v>0.18015999999999999</v>
+        <v>0.1802</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3034,8 +3022,9 @@
       <c r="A60" s="31" t="s">
         <v>106</v>
       </c>
+      <c r="D60" s="35"/>
       <c r="E60" s="4">
-        <f t="shared" ref="E60:E90" si="4">F60*1000</f>
+        <f t="shared" ref="E60:E91" si="4">F60*1000</f>
         <v>5</v>
       </c>
       <c r="F60" s="6">
@@ -3188,181 +3177,181 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="E73" s="4">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="F73" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" si="4"/>
-        <v>2.4</v>
+        <v>12.5</v>
       </c>
       <c r="F74" s="6">
-        <v>2.3999999999999998E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>2.4</v>
       </c>
       <c r="F75" s="6">
-        <v>1.35E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" si="4"/>
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="F76" s="6">
-        <v>8.6E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="3"/>
+        <v>64</v>
+      </c>
       <c r="E77" s="4">
         <f t="shared" si="4"/>
-        <v>5.7050000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="F77" s="6">
-        <v>5.705E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="3"/>
       <c r="E78" s="4">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F78" s="6">
-        <v>1.35E-2</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="3"/>
       <c r="E79" s="4">
         <f t="shared" si="4"/>
-        <v>0.35399999999999998</v>
+        <v>13.5</v>
       </c>
       <c r="F79" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="3"/>
       <c r="E80" s="4">
         <f t="shared" si="4"/>
-        <v>2.12805</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F80" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="3"/>
       <c r="E81" s="4">
         <f t="shared" si="4"/>
-        <v>1.08</v>
+        <v>2.12805</v>
       </c>
       <c r="F81" s="6">
-        <v>1.08E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="3"/>
       <c r="E82" s="4">
         <f t="shared" si="4"/>
-        <v>4.1000000000000005</v>
+        <v>1.08</v>
       </c>
       <c r="F82" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
-        <v>53</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="4">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F83" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" si="4"/>
-        <v>4.5999999999999996</v>
+        <v>12.5</v>
       </c>
       <c r="F84" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="E85" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F85" s="6">
-        <v>1E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E86" s="4">
         <f t="shared" si="4"/>
@@ -3374,49 +3363,61 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" si="4"/>
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="F87" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E88" s="4">
         <f t="shared" si="4"/>
-        <v>4.3499999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="F88" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E89" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F89" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F90" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E91" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F91" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="18600" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
     <sheet name="Calc (Moles)" sheetId="7" r:id="rId2"/>
     <sheet name="Database" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="157">
   <si>
     <t>Resource</t>
   </si>
@@ -499,6 +499,12 @@
   </si>
   <si>
     <t>HydrazineVodka</t>
+  </si>
+  <si>
+    <t>ore</t>
+  </si>
+  <si>
+    <t>rock</t>
   </si>
 </sst>
 </file>
@@ -788,6 +794,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,7 +804,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1122,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1132,14 +1138,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -1157,21 +1163,21 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -1190,7 +1196,9 @@
       <c r="A7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="28" t="s">
+        <v>155</v>
+      </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -1200,9 +1208,9 @@
       <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="22">
         <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$91,5,FALSE),"-")</f>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="C8" s="22" t="str">
         <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$91,5,FALSE),"-")</f>
@@ -1225,9 +1233,9 @@
       <c r="A9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="25" t="str">
+      <c r="B9" s="25">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="C9" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1252,7 +1260,7 @@
       </c>
       <c r="B10" s="25">
         <f>SUM(B9:F9)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -1260,21 +1268,21 @@
       <c r="F10" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="18">
         <v>0</v>
@@ -1293,7 +1301,9 @@
       <c r="A14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="28" t="s">
+        <v>156</v>
+      </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -1303,9 +1313,9 @@
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="22">
         <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$91,5,FALSE),"-")</f>
-        <v>-</v>
+        <v>12.5</v>
       </c>
       <c r="C15" s="22" t="str">
         <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$91,5,FALSE),"-")</f>
@@ -1328,9 +1338,9 @@
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="25" t="str">
+      <c r="B16" s="25">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
-        <v>-</v>
+        <v>12.5</v>
       </c>
       <c r="C16" s="25" t="str">
         <f t="shared" si="1"/>
@@ -1355,7 +1365,7 @@
       </c>
       <c r="B17" s="25">
         <f>SUM(B16:F16)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -1363,14 +1373,14 @@
       <c r="F17" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -1378,11 +1388,11 @@
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Equal</v>
+        <v>Output excessive</v>
       </c>
       <c r="C20" s="21">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,14 +1435,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -1450,14 +1460,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1599,14 +1609,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1751,14 +1761,14 @@
       <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -1803,9 +1813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A74" sqref="A74"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3022,7 +3032,7 @@
       <c r="A60" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="35"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="4">
         <f t="shared" ref="E60:E91" si="4">F60*1000</f>
         <v>5</v>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="2"/>
+    <workbookView xWindow="19530" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="163">
   <si>
     <t>Resource</t>
   </si>
@@ -501,10 +501,28 @@
     <t>HydrazineVodka</t>
   </si>
   <si>
-    <t>ore</t>
-  </si>
-  <si>
-    <t>rock</t>
+    <t>Coolant</t>
+  </si>
+  <si>
+    <t>LqdDeuterium</t>
+  </si>
+  <si>
+    <t>LqdHe3</t>
+  </si>
+  <si>
+    <t>3He</t>
+  </si>
+  <si>
+    <t>D / 2H</t>
+  </si>
+  <si>
+    <t>NuclearSaltWater</t>
+  </si>
+  <si>
+    <t>FissionPellets</t>
+  </si>
+  <si>
+    <t>MetallicHydrogen</t>
   </si>
 </sst>
 </file>
@@ -1128,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1195,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -1196,9 +1214,7 @@
       <c r="A7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>155</v>
-      </c>
+      <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -1208,24 +1224,24 @@
       <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="22">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$91,5,FALSE),"-")</f>
-        <v>10</v>
+      <c r="B8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$98,5,FALSE),"-")</f>
+        <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$91,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$98,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$91,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$98,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$91,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$98,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$91,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$98,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1233,9 +1249,9 @@
       <c r="A9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="25" t="str">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>10</v>
+        <v>-</v>
       </c>
       <c r="C9" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1260,7 +1276,7 @@
       </c>
       <c r="B10" s="25">
         <f>SUM(B9:F9)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -1282,7 +1298,7 @@
         <v>98</v>
       </c>
       <c r="B13" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="18">
         <v>0</v>
@@ -1301,9 +1317,7 @@
       <c r="A14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>156</v>
-      </c>
+      <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -1313,24 +1327,24 @@
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="22">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$91,5,FALSE),"-")</f>
-        <v>12.5</v>
+      <c r="B15" s="22" t="str">
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$98,5,FALSE),"-")</f>
+        <v>-</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$91,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$98,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$91,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$98,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$91,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$98,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$91,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$98,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1338,9 +1352,9 @@
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="25" t="str">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
-        <v>12.5</v>
+        <v>-</v>
       </c>
       <c r="C16" s="25" t="str">
         <f t="shared" si="1"/>
@@ -1365,7 +1379,7 @@
       </c>
       <c r="B17" s="25">
         <f>SUM(B16:F16)</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -1388,11 +1402,11 @@
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Output excessive</v>
+        <v>Equal</v>
       </c>
       <c r="C20" s="21">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,7 +1425,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$91</xm:f>
+            <xm:f>Database!$A$2:$A$98</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7 B14:F14</xm:sqref>
         </x14:dataValidation>
@@ -1426,7 +1440,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1504,23 +1518,23 @@
         <v>96</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$57,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$63,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$57,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$63,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$57,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$63,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$57,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$63,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$57,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$63,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1529,23 +1543,23 @@
         <v>101</v>
       </c>
       <c r="B9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$57,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$63,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$57,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$63,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$57,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$63,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$57,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$63,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$57,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$63,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1653,23 +1667,23 @@
         <v>96</v>
       </c>
       <c r="B17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$57,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$63,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$57,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$63,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$57,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$63,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$57,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$63,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$57,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$63,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1678,23 +1692,23 @@
         <v>101</v>
       </c>
       <c r="B18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$57,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$63,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$57,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$63,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$57,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$63,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$57,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$63,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$57,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$63,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1799,7 +1813,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$57</xm:f>
+            <xm:f>Database!$A$2:$A$63</xm:f>
           </x14:formula1>
           <xm:sqref>B16:F16 B7:F7</xm:sqref>
         </x14:dataValidation>
@@ -1811,11 +1825,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2179,7 +2193,7 @@
         <v>1.951E-3</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" ref="F14:F52" si="3">C14*D14/(E14 * 1000)</f>
+        <f t="shared" ref="F14:F58" si="3">C14*D14/(E14 * 1000)</f>
         <v>22.557662737057917</v>
       </c>
     </row>
@@ -2316,7 +2330,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
@@ -2324,1110 +2338,1227 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4">
+        <f>0.000216*1000</f>
+        <v>0.216</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4">
         <f>0.012*1000</f>
         <v>12</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
         <v>172.14</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E25" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F25" s="6">
         <f t="shared" si="3"/>
         <v>3.1298181818181815E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>168.69</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E26" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F26" s="6">
         <f t="shared" si="3"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>2.02</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E27" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F27" s="6">
         <f t="shared" si="3"/>
         <v>22.469410456062288</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
         <v>6.94</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E28" s="4">
         <f xml:space="preserve"> 0.000534*1000</f>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F28" s="6">
         <f t="shared" si="3"/>
         <v>1.2996254681647943E-2</v>
       </c>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>17.03</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E29" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F29" s="6">
         <f t="shared" si="3"/>
         <v>2.4255804016521866E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
         <v>44.01</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E30" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F30" s="6">
         <f t="shared" si="3"/>
         <v>3.7511186874067751E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="E31" s="4">
+        <f>0.0001624*1000</f>
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2401477832512315E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
         <v>2.02</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E32" s="4">
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F32" s="6">
         <f t="shared" si="3"/>
         <v>2.8510938602681724E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3.016</v>
+      </c>
+      <c r="E33" s="4">
+        <f>0.000059*1000</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="3"/>
+        <v>5.1118644067796613E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
         <v>16.05</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E34" s="4">
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F34" s="6">
         <f t="shared" si="3"/>
         <v>3.7710580108550079E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10">
         <v>32</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E35" s="11">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F35" s="12">
         <f t="shared" si="3"/>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>28.01</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E36" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F36" s="6">
         <f t="shared" si="3"/>
         <v>3.3955342844708553E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <f>D32</f>
+        <v>2.02</v>
+      </c>
+      <c r="E39" s="4">
+        <f>0.007085*1000</f>
+        <v>7.085</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="3"/>
+        <v>2.851093860268172E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
         <v>159.69</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E40" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F40" s="6">
         <f t="shared" si="3"/>
         <v>2.9034545454545455E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E41" s="4">
         <f>0.026*1000</f>
         <v>26</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F41" s="6">
         <f t="shared" si="3"/>
         <v>4.2957692307692306E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E42" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F37" s="6">
-        <f>C37*D37/(E37 * 1000)</f>
+      <c r="F42" s="6">
+        <f>C42*D42/(E42 * 1000)</f>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E43" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F43" s="6">
         <f t="shared" si="3"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E44" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F44" s="6">
         <f t="shared" si="3"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
         <v>233.88</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E45" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F45" s="6">
         <f t="shared" si="3"/>
         <v>4.6775999999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E47" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F47" s="6">
         <f t="shared" si="3"/>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="4">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
         <v>32</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E50" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F50" s="6">
         <f t="shared" si="3"/>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
         <v>30.97</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E51" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F51" s="6">
         <f t="shared" si="3"/>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="4">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="4">
         <f>0.00104*1000</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E53" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F53" s="6">
         <f t="shared" si="3"/>
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="4">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="4">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="4">
         <f>0.0052*1000</f>
         <v>5.2</v>
       </c>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="4">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="4">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="4">
         <f>0.004*1000</f>
         <v>4</v>
       </c>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
         <v>28.09</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E58" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F58" s="6">
         <f t="shared" si="3"/>
         <v>1.1235999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="4">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="4">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="4">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E62" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F56" s="6">
-        <f>C56*D56/(E56 * 1000)</f>
+      <c r="F62" s="6">
+        <f>C62*D62/(E62 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
         <v>18.02</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E63" s="4">
         <f>0.0001*1000</f>
         <v>0.1</v>
       </c>
-      <c r="F57" s="6">
-        <f>C57*D57/(E57 * 1000)</f>
+      <c r="F63" s="6">
+        <f>C63*D63/(E63 * 1000)</f>
         <v>0.1802</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="4">
-        <f t="shared" ref="E60:E91" si="4">F60*1000</f>
+      <c r="D66" s="32"/>
+      <c r="E66" s="4">
+        <f t="shared" ref="E66:E98" si="4">F66*1000</f>
         <v>5</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F66" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E67" s="4">
         <f t="shared" si="4"/>
         <v>19.3</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F67" s="6">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E68" s="4">
         <f t="shared" si="4"/>
         <v>54.4</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F68" s="6">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E69" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F69" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E70" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F70" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="4"/>
+        <v>0.53399999999999992</v>
+      </c>
+      <c r="F71" s="6">
+        <v>5.3399999999999997E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E72" s="4">
         <f t="shared" si="4"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F72" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E73" s="4">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F73" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E74" s="4">
         <f t="shared" si="4"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F74" s="6">
         <v>5.0108799999999997E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E75" s="4">
         <f t="shared" si="4"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F75" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E76" s="4">
         <f t="shared" si="4"/>
         <v>0.216</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F76" s="6">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E77" s="4">
         <f t="shared" si="4"/>
         <v>23.125</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F77" s="6">
         <v>2.3125E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E78" s="4">
         <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F78" s="6">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E79" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F79" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E80" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F80" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E81" s="4">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F81" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E82" s="4">
         <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F82" s="6">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E83" s="4">
         <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F83" s="6">
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E84" s="4">
         <f t="shared" si="4"/>
         <v>8.6</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F84" s="6">
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="4">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4">
         <f t="shared" si="4"/>
         <v>5.7050000000000001</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F85" s="6">
         <v>5.705E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="4">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4">
         <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F86" s="6">
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="4">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4">
         <f t="shared" si="4"/>
         <v>0.35399999999999998</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F87" s="6">
         <v>3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="4">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4">
         <f t="shared" si="4"/>
         <v>2.12805</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F88" s="6">
         <v>2.1280499999999998E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="4">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4">
         <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F89" s="6">
         <v>1.08E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="4">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4">
         <f t="shared" si="4"/>
         <v>4.1000000000000005</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F90" s="6">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E91" s="4">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F91" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E92" s="4">
         <f t="shared" si="4"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F92" s="6">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E93" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F93" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E94" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F94" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E95" s="4">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F95" s="6">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E96" s="4">
         <f t="shared" si="4"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F96" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E97" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F97" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E98" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F98" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="20460" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -1147,7 +1147,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1827,9 +1827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F39" sqref="F39"/>
+      <selection pane="topRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2869,9 +2869,13 @@
         <v>160</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
       <c r="D48" s="5"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4">
+        <v>1.0499999999999999E-3</v>
+      </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="21390" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -1827,9 +1827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D47" sqref="D47"/>
+      <selection pane="topRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3138,12 +3138,12 @@
         <v>18.02</v>
       </c>
       <c r="E63" s="4">
-        <f>0.0001*1000</f>
-        <v>0.1</v>
+        <f>0.001*1000</f>
+        <v>1</v>
       </c>
       <c r="F63" s="6">
         <f>C63*D63/(E63 * 1000)</f>
-        <v>0.1802</v>
+        <v>1.8020000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jadon\Documents\GitHub\RationalResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RationalResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21390" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="22320" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
   <si>
     <t>Resource</t>
   </si>
@@ -523,6 +523,36 @@
   </si>
   <si>
     <t>MetallicHydrogen</t>
+  </si>
+  <si>
+    <t>AZ50</t>
+  </si>
+  <si>
+    <t>MMH</t>
+  </si>
+  <si>
+    <t>NTO</t>
+  </si>
+  <si>
+    <t>UDMH</t>
+  </si>
+  <si>
+    <t>Hydrazine</t>
+  </si>
+  <si>
+    <t>N2H4</t>
+  </si>
+  <si>
+    <t>UH25</t>
+  </si>
+  <si>
+    <t>Hydrazine + UDMH (50:50)</t>
+  </si>
+  <si>
+    <t>Hydrazine + UDMH (25:75)</t>
+  </si>
+  <si>
+    <t>H2NN(CH3)2</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1225,23 +1255,23 @@
         <v>77</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$98,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$104,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$98,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$104,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$98,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$104,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$98,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$104,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$98,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$104,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1328,23 +1358,23 @@
         <v>77</v>
       </c>
       <c r="B15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$98,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$104,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$98,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$104,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$98,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$104,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$98,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$104,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$98,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$104,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1425,7 +1455,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$98</xm:f>
+            <xm:f>Database!$A$2:$A$104</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7 B14:F14</xm:sqref>
         </x14:dataValidation>
@@ -1439,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1518,23 +1548,23 @@
         <v>96</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$63,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$69,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$63,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$69,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$63,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$69,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$63,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$69,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$63,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$69,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1543,23 +1573,23 @@
         <v>101</v>
       </c>
       <c r="B9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$63,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$63,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$63,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$63,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$63,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1667,23 +1697,23 @@
         <v>96</v>
       </c>
       <c r="B17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$63,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$69,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$63,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$69,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$63,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$69,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$63,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$69,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$63,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$69,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1692,23 +1722,23 @@
         <v>101</v>
       </c>
       <c r="B18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$63,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$63,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$63,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$63,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$63,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$69,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1813,7 +1843,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$63</xm:f>
+            <xm:f>Database!$A$2:$A$104</xm:f>
           </x14:formula1>
           <xm:sqref>B16:F16 B7:F7</xm:sqref>
         </x14:dataValidation>
@@ -1825,11 +1855,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E63" sqref="E63"/>
+      <selection pane="topRight" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2155,182 +2185,190 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <f>SUM(($D$28*0.5)+($D$67*0.5))</f>
+        <v>46.073</v>
+      </c>
+      <c r="E13" s="4">
+        <f>0.0009*1000</f>
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="6">
+        <f>C13*D13/(E13 * 1000)</f>
+        <v>5.1192222222222222E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
         <v>12.01</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" ref="F13" si="2">C13*D13/(E13 * 1000)</f>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14" si="2">C14*D14/(E14 * 1000)</f>
         <v>2.4020000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
         <v>44.01</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <f>0.000001951*1000</f>
         <v>1.951E-3</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" ref="F14:F58" si="3">C14*D14/(E14 * 1000)</f>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15:F28" si="3">C15*D15/(E15 * 1000)</f>
         <v>22.557662737057917</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4">
         <f>0.001556*1000</f>
         <v>1.556</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
         <v>238.03</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <f>0.01097*1000</f>
         <v>10.97</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <f t="shared" si="3"/>
         <v>2.1698268003646309E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
         <v>60.08</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <f t="shared" si="3"/>
         <v>3.755E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>238.03</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <f>0.01097*1000</f>
         <v>10.97</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <f t="shared" si="3"/>
         <v>2.1698268003646309E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
         <v>183.88</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <f t="shared" si="3"/>
         <v>7.3551999999999992E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
@@ -2345,7 +2383,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
@@ -2353,534 +2391,540 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4">
         <f>0.000216*1000</f>
         <v>0.216</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4">
         <f>0.012*1000</f>
         <v>12</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>172.14</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <f t="shared" si="3"/>
         <v>3.1298181818181815E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>168.69</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <f t="shared" si="3"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <f>(14.007*2)+(1.008*4)</f>
+        <v>32.045999999999999</v>
+      </c>
+      <c r="E28" s="4">
+        <f>0.001004*1000</f>
+        <v>1.004</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="3"/>
+        <v>3.1918326693227091E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>2.02</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E29" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F27" s="6">
-        <f t="shared" si="3"/>
+      <c r="F29" s="6">
+        <f>C29*D29/(E29 * 1000)</f>
         <v>22.469410456062288</v>
       </c>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
         <v>6.94</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E30" s="4">
         <f xml:space="preserve"> 0.000534*1000</f>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F28" s="6">
-        <f t="shared" si="3"/>
+      <c r="F30" s="6">
+        <f>C30*D30/(E30 * 1000)</f>
         <v>1.2996254681647943E-2</v>
       </c>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
         <v>17.03</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E31" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F29" s="6">
-        <f t="shared" si="3"/>
+      <c r="F31" s="6">
+        <f>C31*D31/(E31 * 1000)</f>
         <v>2.4255804016521866E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
         <v>44.01</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E32" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" si="3"/>
+      <c r="F32" s="6">
+        <f>C32*D32/(E32 * 1000)</f>
         <v>3.7511186874067751E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E33" s="4">
         <f>0.0001624*1000</f>
         <v>0.16239999999999999</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" si="3"/>
+      <c r="F33" s="6">
+        <f>C33*D33/(E33 * 1000)</f>
         <v>1.2401477832512315E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
         <v>2.02</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E34" s="4">
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F32" s="6">
-        <f t="shared" si="3"/>
+      <c r="F34" s="6">
+        <f>C34*D34/(E34 * 1000)</f>
         <v>2.8510938602681724E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <v>3.016</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E35" s="4">
         <f>0.000059*1000</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F33" s="6">
-        <f t="shared" si="3"/>
+      <c r="F35" s="6">
+        <f>C35*D35/(E35 * 1000)</f>
         <v>5.1118644067796613E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>16.05</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E36" s="4">
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F34" s="6">
-        <f t="shared" si="3"/>
+      <c r="F36" s="6">
+        <f>C36*D36/(E36 * 1000)</f>
         <v>3.7710580108550079E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="9">
-        <v>1</v>
-      </c>
-      <c r="D35" s="10">
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
         <v>32</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E37" s="11">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F35" s="12">
-        <f t="shared" si="3"/>
+      <c r="F37" s="12">
+        <f>C37*D37/(E37 * 1000)</f>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <v>28.01</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E38" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="3"/>
+      <c r="F38" s="6">
+        <f>C38*D38/(E38 * 1000)</f>
         <v>3.3955342844708553E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
-        <f>D32</f>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
+        <f>D34</f>
         <v>2.02</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E41" s="4">
         <f>0.007085*1000</f>
         <v>7.085</v>
       </c>
-      <c r="F39" s="6">
-        <f t="shared" si="3"/>
+      <c r="F41" s="6">
+        <f>C41*D41/(E41 * 1000)</f>
         <v>2.851093860268172E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
         <v>159.69</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E42" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F40" s="6">
-        <f t="shared" si="3"/>
+      <c r="F42" s="6">
+        <f>C42*D42/(E42 * 1000)</f>
         <v>2.9034545454545455E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E43" s="4">
         <f>0.026*1000</f>
         <v>26</v>
       </c>
-      <c r="F41" s="6">
-        <f t="shared" si="3"/>
+      <c r="F43" s="6">
+        <f>C43*D43/(E43 * 1000)</f>
         <v>4.2957692307692306E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E44" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F42" s="6">
-        <f>C42*D42/(E42 * 1000)</f>
+      <c r="F44" s="6">
+        <f>C44*D44/(E44 * 1000)</f>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E45" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F43" s="6">
-        <f t="shared" si="3"/>
+      <c r="F45" s="6">
+        <f>C45*D45/(E45 * 1000)</f>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E46" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F44" s="6">
-        <f t="shared" si="3"/>
+      <c r="F46" s="6">
+        <f>C46*D46/(E46 * 1000)</f>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
+        <v>46.07</v>
+      </c>
+      <c r="E47" s="4">
+        <f>0.00088*1000</f>
+        <v>0.88</v>
+      </c>
+      <c r="F47" s="6">
+        <f>C47*D47/(E47 * 1000)</f>
+        <v>5.2352272727272726E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
         <v>233.88</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E48" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F45" s="6">
-        <f t="shared" si="3"/>
+      <c r="F48" s="6">
+        <f>C48*D48/(E48 * 1000)</f>
         <v>4.6775999999999998E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
-        <f>14.007*2</f>
-        <v>28.013999999999999</v>
-      </c>
-      <c r="E47" s="4">
-        <f>0.000001251*1000</f>
-        <v>1.2509999999999999E-3</v>
-      </c>
-      <c r="F47" s="6">
-        <f t="shared" si="3"/>
-        <v>22.393285371702639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="4">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1">
@@ -2895,674 +2939,791 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
+        <f>14.007*2</f>
+        <v>28.013999999999999</v>
+      </c>
+      <c r="E50" s="4">
+        <f>0.000001251*1000</f>
+        <v>1.2509999999999999E-3</v>
+      </c>
+      <c r="F50" s="6">
+        <f>C50*D50/(E50 * 1000)</f>
+        <v>22.393285371702639</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
+        <v>92.04</v>
+      </c>
+      <c r="E51" s="4">
+        <f>0.00145*1000</f>
+        <v>1.45</v>
+      </c>
+      <c r="F51" s="6">
+        <f>C51*D51/(E51 * 1000)</f>
+        <v>6.3475862068965522E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="4">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
         <v>32</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E54" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F50" s="6">
-        <f t="shared" si="3"/>
+      <c r="F54" s="6">
+        <f>C54*D54/(E54 * 1000)</f>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
         <v>30.97</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E55" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F51" s="6">
-        <f t="shared" si="3"/>
+      <c r="F55" s="6">
+        <f>C55*D55/(E55 * 1000)</f>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="4">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="4">
         <f>0.00104*1000</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E57" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F53" s="6">
-        <f t="shared" si="3"/>
+      <c r="F57" s="6">
+        <f>C57*D57/(E57 * 1000)</f>
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="4">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="4">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4">
         <f>0.0052*1000</f>
         <v>5.2</v>
       </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="4">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="4">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="4">
         <f>0.004*1000</f>
         <v>4</v>
       </c>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
         <v>28.09</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E62" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F58" s="6">
-        <f t="shared" si="3"/>
+      <c r="F62" s="6">
+        <f>C62*D62/(E62 * 1000)</f>
         <v>1.1235999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="4">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="4">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="4">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E66" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F62" s="6">
-        <f>C62*D62/(E62 * 1000)</f>
+      <c r="F66" s="6">
+        <f>C66*D66/(E66 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
+        <v>60.1</v>
+      </c>
+      <c r="E67" s="4">
+        <f>0.000791*1000</f>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="F67" s="6">
+        <f>C67*D67/(E67 * 1000)</f>
+        <v>7.5979772439949439E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
+        <f>SUM(($D$28*0.25)+($D$67*0.75))</f>
+        <v>53.086500000000001</v>
+      </c>
+      <c r="E68" s="4">
+        <f>0.000829*1000</f>
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="F68" s="6">
+        <f>C68*D68/(E68 * 1000)</f>
+        <v>6.4036791314837152E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5">
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
         <v>18.02</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E69" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F63" s="6">
-        <f>C63*D63/(E63 * 1000)</f>
+      <c r="F69" s="6">
+        <f>C69*D69/(E69 * 1000)</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="4">
-        <f t="shared" ref="E66:E98" si="4">F66*1000</f>
+      <c r="D72" s="32"/>
+      <c r="E72" s="4">
+        <f t="shared" ref="E72:E104" si="4">F72*1000</f>
         <v>5</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F72" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E73" s="4">
         <f t="shared" si="4"/>
         <v>19.3</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F73" s="6">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E74" s="4">
         <f t="shared" si="4"/>
         <v>54.4</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F74" s="6">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E75" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F75" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E76" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F76" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E77" s="4">
         <f t="shared" si="4"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F77" s="6">
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E78" s="4">
         <f t="shared" si="4"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F78" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E79" s="4">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F79" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E80" s="4">
         <f t="shared" si="4"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F80" s="6">
         <v>5.0108799999999997E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E81" s="4">
         <f t="shared" si="4"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F81" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E82" s="4">
         <f t="shared" si="4"/>
         <v>0.216</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F82" s="6">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E83" s="4">
         <f t="shared" si="4"/>
         <v>23.125</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F83" s="6">
         <v>2.3125E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E84" s="4">
         <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F84" s="6">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E85" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F85" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E86" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F86" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E87" s="4">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F87" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E88" s="4">
         <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F88" s="6">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E89" s="4">
         <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F89" s="6">
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E90" s="4">
         <f t="shared" si="4"/>
         <v>8.6</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F90" s="6">
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="4">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="4">
         <f t="shared" si="4"/>
         <v>5.7050000000000001</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F91" s="6">
         <v>5.705E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="4">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="4">
         <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F92" s="6">
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="4">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4">
         <f t="shared" si="4"/>
         <v>0.35399999999999998</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F93" s="6">
         <v>3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="4">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="4">
         <f t="shared" si="4"/>
         <v>2.12805</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F94" s="6">
         <v>2.1280499999999998E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="4">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4">
         <f t="shared" si="4"/>
         <v>1.08</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F95" s="6">
         <v>1.08E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="4">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4">
         <f t="shared" si="4"/>
         <v>4.1000000000000005</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F96" s="6">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E97" s="4">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F97" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E98" s="4">
         <f t="shared" si="4"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F98" s="6">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E99" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F99" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E100" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F100" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="31" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E101" s="4">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F101" s="6">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="31" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E102" s="4">
         <f t="shared" si="4"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F102" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E103" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F103" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E104" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F104" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="1"/>
+    <workbookView minimized="1" xWindow="23250" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="178">
   <si>
     <t>Resource</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Lanthanum var (LaPO4)</t>
   </si>
   <si>
-    <t>Silicon (Si)</t>
-  </si>
-  <si>
     <t>Platinum (Pt)</t>
   </si>
   <si>
@@ -474,9 +471,6 @@
     <t>Supports stock and CRP (only where correlated IRL resources can be found).</t>
   </si>
   <si>
-    <t>Does not support most of CRP (KSPI, RealFuels) or WBI.</t>
-  </si>
-  <si>
     <t>Lithium</t>
   </si>
   <si>
@@ -553,19 +547,41 @@
   </si>
   <si>
     <t>H2NN(CH3)2</t>
+  </si>
+  <si>
+    <t>Spodumene</t>
+  </si>
+  <si>
+    <t>LiAl(SiO3)2</t>
+  </si>
+  <si>
+    <t>Does not support most of CRP (KSPI, RealFuels) or any of WBI.</t>
+  </si>
+  <si>
+    <t>Radical Metasilicate (SiO3)</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>carbondioxide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;kg/mol&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.000\ &quot;kg/unit&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;g/mol&quot;"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="#,##0.000&quot;:1&quot;"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.000000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -777,7 +793,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -852,6 +868,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="172" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1176,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1204,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -1197,22 +1214,22 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -1222,10 +1239,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <v>1.5855E-5</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -1242,9 +1259,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="28"/>
+        <v>103</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>175</v>
+      </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -1252,36 +1271,36 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$104,5,FALSE),"-")</f>
-        <v>-</v>
+        <v>76</v>
+      </c>
+      <c r="B8" s="22">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$105,5,FALSE),"-")</f>
+        <v>12.5</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$104,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$105,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$104,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$105,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$104,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$105,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$104,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$105,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="25" t="str">
+        <v>75</v>
+      </c>
+      <c r="B9" s="25">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>-</v>
+        <v>1.9818749999999999E-4</v>
       </c>
       <c r="C9" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1302,11 +1321,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="25">
         <f>SUM(B9:F9)</f>
-        <v>0</v>
+        <v>1.9818749999999999E-4</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -1315,7 +1334,7 @@
     </row>
     <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -1325,16 +1344,16 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="18">
         <v>0</v>
       </c>
       <c r="C13" s="18">
-        <v>0</v>
+        <v>8.8429999999999995E-2</v>
       </c>
       <c r="D13" s="18">
-        <v>0</v>
+        <v>4.4421499999999997E-3</v>
       </c>
       <c r="E13" s="18">
         <v>0</v>
@@ -1345,54 +1364,58 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>177</v>
+      </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$104,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$104,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$104,5,FALSE),"-")</f>
-        <v>-</v>
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$105,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C15" s="22">
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$105,5,FALSE),"-")</f>
+        <v>1.41E-3</v>
+      </c>
+      <c r="D15" s="22">
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$105,5,FALSE),"-")</f>
+        <v>1.951E-3</v>
       </c>
       <c r="E15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$104,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$105,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$104,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$105,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="25" t="str">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
         <v>-</v>
       </c>
-      <c r="C16" s="25" t="str">
+      <c r="C16" s="25">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="D16" s="25" t="str">
+        <v>1.2468629999999999E-4</v>
+      </c>
+      <c r="D16" s="25">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>8.6666346499999994E-6</v>
       </c>
       <c r="E16" s="25" t="str">
         <f t="shared" si="1"/>
@@ -1405,11 +1428,11 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="25">
         <f>SUM(B16:F16)</f>
-        <v>0</v>
+        <v>1.3335293464999999E-4</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -1418,7 +1441,7 @@
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -1428,15 +1451,15 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Equal</v>
+        <v>Input excesive</v>
       </c>
       <c r="C20" s="21">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>1</v>
+        <v>1.4861877657223346</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1455,7 +1478,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$104</xm:f>
+            <xm:f>Database!$A$2:$A$105</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7 B14:F14</xm:sqref>
         </x14:dataValidation>
@@ -1469,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1503,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -1490,22 +1513,22 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -1515,7 +1538,7 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -1535,7 +1558,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -1545,57 +1568,57 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$69,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$70,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$69,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$70,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$69,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$70,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$69,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$70,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$69,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$70,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$69,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$70,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$69,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$70,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$69,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$70,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$69,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$70,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$69,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$70,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="19">
         <f>IFERROR(B6*B8,0)</f>
@@ -1620,9 +1643,9 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="27" t="str">
+        <v>97</v>
+      </c>
+      <c r="B11" s="36" t="str">
         <f>IFERROR(B10/(B9*1000),"-")</f>
         <v>-</v>
       </c>
@@ -1645,7 +1668,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="25">
         <f>SUM(B10:F10)</f>
@@ -1654,7 +1677,7 @@
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -1664,7 +1687,7 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="18">
         <v>0</v>
@@ -1684,7 +1707,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -1694,57 +1717,57 @@
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$69,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$70,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$69,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$70,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$69,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$70,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$69,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$70,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$69,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$70,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$69,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$70,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$69,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$70,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$69,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$70,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$69,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$70,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$69,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$70,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="19">
         <f>IFERROR(B15*B17,0)</f>
@@ -1769,7 +1792,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="27" t="str">
         <f>IFERROR(B19/(B18*1000),"-")</f>
@@ -1794,7 +1817,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="25">
         <f>SUM(B19:F19)</f>
@@ -1806,7 +1829,7 @@
     </row>
     <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -1816,7 +1839,7 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="20" t="str">
         <f>IF($B$12&gt;$B$21,"Input excesive",IF($B$12&lt;$B$21,"Output excessive","Equal"))</f>
@@ -1843,7 +1866,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$104</xm:f>
+            <xm:f>Database!$A$2:$A$105</xm:f>
           </x14:formula1>
           <xm:sqref>B16:F16 B7:F7</xm:sqref>
         </x14:dataValidation>
@@ -1855,11 +1878,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B104" sqref="B104"/>
+      <selection pane="topRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1895,10 +1918,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1919,13 +1942,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
         <v>91</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>92</v>
-      </c>
-      <c r="L2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1950,10 +1973,10 @@
         <v>3.4068000000000001E-2</v>
       </c>
       <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
         <v>85</v>
-      </c>
-      <c r="J3" t="s">
-        <v>86</v>
       </c>
       <c r="K3">
         <v>117.49</v>
@@ -1985,10 +2008,10 @@
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4">
         <v>26.98</v>
@@ -2020,10 +2043,10 @@
         <v>8.0114999999999995E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5">
         <v>71.84</v>
@@ -2058,7 +2081,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -2077,7 +2100,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
@@ -2108,7 +2131,7 @@
         <v>2.5618090452261304E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
@@ -2119,10 +2142,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -2185,16 +2208,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="5">
-        <f>SUM(($D$28*0.5)+($D$67*0.5))</f>
+        <f>SUM(($D$28*0.5)+($D$68*0.5))</f>
         <v>46.073</v>
       </c>
       <c r="E13" s="4">
@@ -2208,10 +2231,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -2230,7 +2253,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -2252,7 +2275,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -2267,7 +2290,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
@@ -2282,7 +2305,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -2302,10 +2325,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -2324,10 +2347,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2368,7 +2391,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
@@ -2383,7 +2406,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
@@ -2398,7 +2421,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
@@ -2413,7 +2436,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
@@ -2472,10 +2495,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -2495,7 +2518,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>16</v>
@@ -2511,17 +2534,17 @@
         <v>8.9900000000000003E-5</v>
       </c>
       <c r="F29" s="6">
-        <f>C29*D29/(E29 * 1000)</f>
+        <f t="shared" ref="F29:F38" si="4">C29*D29/(E29 * 1000)</f>
         <v>22.469410456062288</v>
       </c>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -2534,7 +2557,7 @@
         <v>0.53399999999999992</v>
       </c>
       <c r="F30" s="6">
-        <f>C30*D30/(E30 * 1000)</f>
+        <f t="shared" si="4"/>
         <v>1.2996254681647943E-2</v>
       </c>
       <c r="G30" s="8"/>
@@ -2557,7 +2580,7 @@
         <v>0.70209999999999995</v>
       </c>
       <c r="F31" s="6">
-        <f>C31*D31/(E31 * 1000)</f>
+        <f t="shared" si="4"/>
         <v>2.4255804016521866E-2</v>
       </c>
     </row>
@@ -2579,16 +2602,16 @@
         <v>1.1732500000000001</v>
       </c>
       <c r="F32" s="6">
-        <f>C32*D32/(E32 * 1000)</f>
+        <f t="shared" si="4"/>
         <v>3.7511186874067751E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -2601,13 +2624,13 @@
         <v>0.16239999999999999</v>
       </c>
       <c r="F33" s="6">
-        <f>C33*D33/(E33 * 1000)</f>
+        <f t="shared" si="4"/>
         <v>1.2401477832512315E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>16</v>
@@ -2623,16 +2646,16 @@
         <v>7.0849999999999996E-2</v>
       </c>
       <c r="F34" s="6">
-        <f>C34*D34/(E34 * 1000)</f>
+        <f t="shared" si="4"/>
         <v>2.8510938602681724E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -2645,7 +2668,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="F35" s="6">
-        <f>C35*D35/(E35 * 1000)</f>
+        <f t="shared" si="4"/>
         <v>5.1118644067796613E-2</v>
       </c>
     </row>
@@ -2667,13 +2690,13 @@
         <v>0.42560999999999999</v>
       </c>
       <c r="F36" s="6">
-        <f>C36*D36/(E36 * 1000)</f>
+        <f t="shared" si="4"/>
         <v>3.7710580108550079E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>9</v>
@@ -2689,13 +2712,13 @@
         <v>1.141</v>
       </c>
       <c r="F37" s="12">
-        <f>C37*D37/(E37 * 1000)</f>
+        <f t="shared" si="4"/>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>22</v>
@@ -2711,13 +2734,13 @@
         <v>0.82490700000000006</v>
       </c>
       <c r="F38" s="6">
-        <f>C38*D38/(E38 * 1000)</f>
+        <f t="shared" si="4"/>
         <v>3.3955342844708553E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
@@ -2732,7 +2755,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1">
@@ -2747,7 +2770,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1">
@@ -2762,16 +2785,16 @@
         <v>7.085</v>
       </c>
       <c r="F41" s="6">
-        <f>C41*D41/(E41 * 1000)</f>
+        <f t="shared" ref="F41:F48" si="5">C41*D41/(E41 * 1000)</f>
         <v>2.851093860268172E-4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -2784,7 +2807,7 @@
         <v>5.5</v>
       </c>
       <c r="F42" s="6">
-        <f>C42*D42/(E42 * 1000)</f>
+        <f t="shared" si="5"/>
         <v>2.9034545454545455E-2</v>
       </c>
     </row>
@@ -2793,7 +2816,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -2807,16 +2830,16 @@
         <v>26</v>
       </c>
       <c r="F43" s="6">
-        <f>C43*D43/(E43 * 1000)</f>
+        <f t="shared" si="5"/>
         <v>4.2957692307692306E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -2830,7 +2853,7 @@
         <v>7.8</v>
       </c>
       <c r="F44" s="6">
-        <f>C44*D44/(E44 * 1000)</f>
+        <f t="shared" si="5"/>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
@@ -2853,7 +2876,7 @@
         <v>7.1699999999999997E-4</v>
       </c>
       <c r="F45" s="6">
-        <f>C45*D45/(E45 * 1000)</f>
+        <f t="shared" si="5"/>
         <v>22.387726638772666</v>
       </c>
     </row>
@@ -2876,13 +2899,13 @@
         <v>2.7</v>
       </c>
       <c r="F46" s="6">
-        <f>C46*D46/(E46 * 1000)</f>
+        <f t="shared" si="5"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
@@ -2896,7 +2919,7 @@
         <v>0.88</v>
       </c>
       <c r="F47" s="6">
-        <f>C47*D47/(E47 * 1000)</f>
+        <f t="shared" si="5"/>
         <v>5.2352272727272726E-2</v>
       </c>
     </row>
@@ -2918,13 +2941,13 @@
         <v>5</v>
       </c>
       <c r="F48" s="6">
-        <f>C48*D48/(E48 * 1000)</f>
+        <f t="shared" si="5"/>
         <v>4.6775999999999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1">
@@ -2939,7 +2962,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>22</v>
@@ -2962,7 +2985,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1">
@@ -2982,7 +3005,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1">
@@ -2996,7 +3019,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1">
@@ -3011,7 +3034,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>9</v>
@@ -3055,7 +3078,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1">
@@ -3073,7 +3096,7 @@
         <v>36</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -3093,7 +3116,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1">
@@ -3108,7 +3131,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1">
@@ -3123,7 +3146,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1">
@@ -3138,7 +3161,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1">
@@ -3156,13 +3179,13 @@
         <v>37</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
       <c r="D62" s="5">
-        <v>28.09</v>
+        <v>76.08</v>
       </c>
       <c r="E62" s="4">
         <f>0.0025*1000</f>
@@ -3170,12 +3193,12 @@
       </c>
       <c r="F62" s="6">
         <f>C62*D62/(E62 * 1000)</f>
-        <v>1.1235999999999999E-2</v>
+        <v>3.0432000000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1">
@@ -3190,489 +3213,499 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
+        <v>186.09</v>
+      </c>
+      <c r="E64" s="4">
+        <f>0.0031*1000</f>
+        <v>3.1</v>
+      </c>
+      <c r="F64" s="6">
+        <f t="shared" ref="F63:F64" si="6">C64*D64/(E64 * 1000)</f>
+        <v>6.0029032258064517E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="4">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5">
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F66" s="6">
-        <f>C66*D66/(E66 * 1000)</f>
+      <c r="F67" s="6">
+        <f>C67*D67/(E67 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
         <v>60.1</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="4">
         <f>0.000791*1000</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="F67" s="6">
-        <f>C67*D67/(E67 * 1000)</f>
+      <c r="F68" s="6">
+        <f>C68*D68/(E68 * 1000)</f>
         <v>7.5979772439949439E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5">
-        <f>SUM(($D$28*0.25)+($D$67*0.75))</f>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <f>SUM(($D$28*0.25)+($D$68*0.75))</f>
         <v>53.086500000000001</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E69" s="4">
         <f>0.000829*1000</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="F68" s="6">
-        <f>C68*D68/(E68 * 1000)</f>
-        <v>6.4036791314837152E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
-        <v>18.02</v>
-      </c>
-      <c r="E69" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F69" s="6">
         <f>C69*D69/(E69 * 1000)</f>
+        <v>6.4036791314837152E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
+        <v>18.02</v>
+      </c>
+      <c r="E70" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F70" s="6">
+        <f>C70*D70/(E70 * 1000)</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" s="32"/>
-      <c r="E72" s="4">
-        <f t="shared" ref="E72:E104" si="4">F72*1000</f>
-        <v>5</v>
-      </c>
-      <c r="F72" s="6">
-        <v>5.0000000000000001E-3</v>
+      <c r="A72" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D73" s="32"/>
       <c r="E73" s="4">
-        <f t="shared" si="4"/>
-        <v>19.3</v>
+        <f t="shared" ref="E73:E105" si="7">F73*1000</f>
+        <v>5</v>
       </c>
       <c r="F73" s="6">
-        <v>1.9300000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="4"/>
-        <v>54.4</v>
+        <f t="shared" si="7"/>
+        <v>19.3</v>
       </c>
       <c r="F74" s="6">
-        <v>5.4399999999999997E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>54.4</v>
       </c>
       <c r="F75" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="F76" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="4"/>
-        <v>0.53399999999999992</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="F77" s="6">
-        <v>5.3399999999999997E-4</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="4"/>
-        <v>6.0000000000000005E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.53399999999999992</v>
       </c>
       <c r="F78" s="6">
-        <v>6.0000000000000002E-5</v>
+        <v>5.3399999999999997E-4</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
+        <f t="shared" si="7"/>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="F79" s="6">
-        <v>2.5000000000000001E-3</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="4"/>
-        <v>5.0108799999999993</v>
+        <f t="shared" si="7"/>
+        <v>2.5</v>
       </c>
       <c r="F80" s="6">
-        <v>5.0108799999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="4"/>
-        <v>4.3499999999999996</v>
+        <f t="shared" si="7"/>
+        <v>5.0108799999999993</v>
       </c>
       <c r="F81" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>5.0108799999999997E-3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="4"/>
-        <v>0.216</v>
+        <f t="shared" si="7"/>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F82" s="6">
-        <v>2.1599999999999999E-4</v>
+        <v>4.3499999999999997E-3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="4"/>
-        <v>23.125</v>
+        <f t="shared" si="7"/>
+        <v>0.216</v>
       </c>
       <c r="F83" s="6">
-        <v>2.3125E-2</v>
+        <v>2.1599999999999999E-4</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="4"/>
-        <v>5.25</v>
+        <f t="shared" si="7"/>
+        <v>23.125</v>
       </c>
       <c r="F84" s="6">
-        <v>5.2500000000000003E-3</v>
+        <v>2.3125E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>5.25</v>
       </c>
       <c r="F85" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>5.2500000000000003E-3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="F86" s="6">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="4"/>
-        <v>12.5</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="F87" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="4"/>
-        <v>2.4</v>
+        <f t="shared" si="7"/>
+        <v>12.5</v>
       </c>
       <c r="F88" s="6">
-        <v>2.3999999999999998E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="4"/>
-        <v>13.5</v>
+        <f t="shared" si="7"/>
+        <v>2.4</v>
       </c>
       <c r="F89" s="6">
-        <v>1.35E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="4"/>
-        <v>8.6</v>
+        <f t="shared" si="7"/>
+        <v>13.5</v>
       </c>
       <c r="F90" s="6">
-        <v>8.6E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="3"/>
+        <v>63</v>
+      </c>
       <c r="E91" s="4">
-        <f t="shared" si="4"/>
-        <v>5.7050000000000001</v>
+        <f t="shared" si="7"/>
+        <v>8.6</v>
       </c>
       <c r="F91" s="6">
-        <v>5.705E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="3"/>
       <c r="E92" s="4">
-        <f t="shared" si="4"/>
-        <v>13.5</v>
+        <f t="shared" si="7"/>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F92" s="6">
-        <v>1.35E-2</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="3"/>
       <c r="E93" s="4">
-        <f t="shared" si="4"/>
-        <v>0.35399999999999998</v>
+        <f t="shared" si="7"/>
+        <v>13.5</v>
       </c>
       <c r="F93" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="3"/>
       <c r="E94" s="4">
-        <f t="shared" si="4"/>
-        <v>2.12805</v>
+        <f t="shared" si="7"/>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F94" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="3"/>
       <c r="E95" s="4">
-        <f t="shared" si="4"/>
-        <v>1.08</v>
+        <f t="shared" si="7"/>
+        <v>2.12805</v>
       </c>
       <c r="F95" s="6">
-        <v>1.08E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="3"/>
       <c r="E96" s="4">
-        <f t="shared" si="4"/>
-        <v>4.1000000000000005</v>
+        <f t="shared" si="7"/>
+        <v>1.08</v>
       </c>
       <c r="F96" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
-        <v>53</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="3"/>
       <c r="E97" s="4">
-        <f t="shared" si="4"/>
-        <v>12.5</v>
+        <f t="shared" si="7"/>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F97" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="4"/>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="7"/>
+        <v>12.5</v>
       </c>
       <c r="F98" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F99" s="6">
-        <v>1E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F100" s="6">
@@ -3681,49 +3714,61 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="4"/>
-        <v>7.5</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="F101" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="4"/>
-        <v>4.3499999999999996</v>
+        <f t="shared" si="7"/>
+        <v>7.5</v>
       </c>
       <c r="F102" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F103" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F104" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F105" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="23250" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="2"/>
+    <workbookView xWindow="24180" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
   <si>
     <t>Resource</t>
   </si>
@@ -561,13 +561,7 @@
     <t>Radical Metasilicate (SiO3)</t>
   </si>
   <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>oxygen</t>
-  </si>
-  <si>
-    <t>carbondioxide</t>
+    <t>Glycerol (C3H8O3)</t>
   </si>
 </sst>
 </file>
@@ -581,7 +575,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="#,##0.000&quot;:1&quot;"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -859,6 +853,7 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,7 +863,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1193,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1203,14 +1197,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -1228,21 +1222,21 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="18">
-        <v>1.5855E-5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -1261,9 +1255,7 @@
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>175</v>
-      </c>
+      <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -1273,9 +1265,9 @@
       <c r="A8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="22" t="str">
         <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$105,5,FALSE),"-")</f>
-        <v>12.5</v>
+        <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
         <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$105,5,FALSE),"-")</f>
@@ -1298,9 +1290,9 @@
       <c r="A9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="25" t="str">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>1.9818749999999999E-4</v>
+        <v>-</v>
       </c>
       <c r="C9" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1325,7 +1317,7 @@
       </c>
       <c r="B10" s="25">
         <f>SUM(B9:F9)</f>
-        <v>1.9818749999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -1333,14 +1325,14 @@
       <c r="F10" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -1350,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="18">
-        <v>8.8429999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="18">
-        <v>4.4421499999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18">
         <v>0</v>
@@ -1367,12 +1359,8 @@
         <v>103</v>
       </c>
       <c r="B14" s="28"/>
-      <c r="C14" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>177</v>
-      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
     </row>
@@ -1384,13 +1372,13 @@
         <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$105,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="22" t="str">
         <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$105,5,FALSE),"-")</f>
-        <v>1.41E-3</v>
-      </c>
-      <c r="D15" s="22">
+        <v>-</v>
+      </c>
+      <c r="D15" s="22" t="str">
         <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$105,5,FALSE),"-")</f>
-        <v>1.951E-3</v>
+        <v>-</v>
       </c>
       <c r="E15" s="22" t="str">
         <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$105,5,FALSE),"-")</f>
@@ -1409,13 +1397,13 @@
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
         <v>-</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="25" t="str">
         <f t="shared" si="1"/>
-        <v>1.2468629999999999E-4</v>
-      </c>
-      <c r="D16" s="25">
+        <v>-</v>
+      </c>
+      <c r="D16" s="25" t="str">
         <f t="shared" si="1"/>
-        <v>8.6666346499999994E-6</v>
+        <v>-</v>
       </c>
       <c r="E16" s="25" t="str">
         <f t="shared" si="1"/>
@@ -1432,7 +1420,7 @@
       </c>
       <c r="B17" s="25">
         <f>SUM(B16:F16)</f>
-        <v>1.3335293464999999E-4</v>
+        <v>0</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -1440,14 +1428,14 @@
       <c r="F17" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -1455,11 +1443,11 @@
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Input excesive</v>
+        <v>Equal</v>
       </c>
       <c r="C20" s="21">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>1.4861877657223346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,7 +1481,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1502,14 +1490,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -1527,14 +1515,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1645,7 +1633,7 @@
       <c r="A11" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="36" t="str">
+      <c r="B11" s="33" t="str">
         <f>IFERROR(B10/(B9*1000),"-")</f>
         <v>-</v>
       </c>
@@ -1676,14 +1664,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1828,14 +1816,14 @@
       <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -1880,9 +1868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B62" sqref="B62"/>
+      <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2438,16 +2426,23 @@
       <c r="A25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <v>92.09</v>
+      </c>
       <c r="E25" s="4">
         <f>0.012*1000</f>
         <v>12</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6">
+        <f t="shared" si="3"/>
+        <v>7.6741666666666668E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -3229,7 +3224,7 @@
         <v>3.1</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" ref="F63:F64" si="6">C64*D64/(E64 * 1000)</f>
+        <f t="shared" ref="F64" si="6">C64*D64/(E64 * 1000)</f>
         <v>6.0029032258064517E-2</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24180" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="25110" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="177">
   <si>
     <t>Resource</t>
   </si>
@@ -465,9 +465,6 @@
     <t>Mulch</t>
   </si>
   <si>
-    <t>Depleted[Fuel/Uranium]</t>
-  </si>
-  <si>
     <t>Supports stock and CRP (only where correlated IRL resources can be found).</t>
   </si>
   <si>
@@ -562,13 +559,19 @@
   </si>
   <si>
     <t>Glycerol (C3H8O3)</t>
+  </si>
+  <si>
+    <t>Depleted [Fuel/Uranium]</t>
+  </si>
+  <si>
+    <t>Deuterium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;kg/mol&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.000\ &quot;kg/unit&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;g/mol&quot;"/>
@@ -576,6 +579,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.000&quot;:1&quot;"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
     <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -787,7 +791,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -863,6 +867,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="172" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1188,7 +1193,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1213,12 +1218,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1236,7 +1241,7 @@
         <v>97</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <v>270.60000000000002</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -1255,7 +1260,9 @@
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="28" t="s">
+        <v>176</v>
+      </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -1265,24 +1272,24 @@
       <c r="A8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$105,5,FALSE),"-")</f>
-        <v>-</v>
+      <c r="B8" s="22">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$106,5,FALSE),"-")</f>
+        <v>1.7999999999999998E-4</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$105,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$106,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$105,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$106,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$105,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$106,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$105,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$106,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1290,9 +1297,9 @@
       <c r="A9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="25" t="str">
+      <c r="B9" s="25">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>-</v>
+        <v>4.8708000000000001E-2</v>
       </c>
       <c r="C9" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1317,7 +1324,7 @@
       </c>
       <c r="B10" s="25">
         <f>SUM(B9:F9)</f>
-        <v>0</v>
+        <v>4.8708000000000001E-2</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -1339,13 +1346,13 @@
         <v>97</v>
       </c>
       <c r="B13" s="18">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C13" s="18">
         <v>0</v>
       </c>
       <c r="D13" s="18">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="E13" s="18">
         <v>0</v>
@@ -1358,7 +1365,9 @@
       <c r="A14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="28" t="s">
+        <v>153</v>
+      </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -1368,24 +1377,24 @@
       <c r="A15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$105,5,FALSE),"-")</f>
-        <v>-</v>
+      <c r="B15" s="22">
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$106,5,FALSE),"-")</f>
+        <v>0.16239999999999999</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$105,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$106,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$105,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$106,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$105,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$106,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$105,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$106,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1393,15 +1402,15 @@
       <c r="A16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="25" t="str">
+      <c r="B16" s="37">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
-        <v>-</v>
+        <v>4.8719999999999992E-2</v>
       </c>
       <c r="C16" s="25" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D16" s="25" t="str">
+      <c r="D16" s="37" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -1420,7 +1429,7 @@
       </c>
       <c r="B17" s="25">
         <f>SUM(B16:F16)</f>
-        <v>0</v>
+        <v>4.8719999999999992E-2</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -1443,11 +1452,11 @@
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Equal</v>
+        <v>Output excessive</v>
       </c>
       <c r="C20" s="21">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>1</v>
+        <v>1.0002463661000245</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1466,7 +1475,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$105</xm:f>
+            <xm:f>Database!$A$2:$A$106</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7 B14:F14</xm:sqref>
         </x14:dataValidation>
@@ -1506,12 +1515,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1559,23 +1568,23 @@
         <v>95</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$70,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$71,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$70,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$71,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$70,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$71,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$70,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$71,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$70,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$71,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1584,23 +1593,23 @@
         <v>100</v>
       </c>
       <c r="B9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$70,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$71,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$70,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$71,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$70,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$71,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$70,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$71,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$70,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$71,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1708,23 +1717,23 @@
         <v>95</v>
       </c>
       <c r="B17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$70,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$71,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$70,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$71,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$70,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$71,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$70,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$71,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$70,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$71,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1733,23 +1742,23 @@
         <v>100</v>
       </c>
       <c r="B18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$70,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$71,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$70,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$71,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$70,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$71,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$70,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$71,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$70,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$71,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1848,15 +1857,20 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A23:F23"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:F7">
+      <formula1>$A$2:$A$106</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$105</xm:f>
+            <xm:f>Database!$A$2:$A$106</xm:f>
           </x14:formula1>
-          <xm:sqref>B16:F16 B7:F7</xm:sqref>
+          <xm:sqref>B16:F16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1866,11 +1880,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F25" sqref="F25"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2196,16 +2210,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="5">
-        <f>SUM(($D$28*0.5)+($D$68*0.5))</f>
+        <f>SUM(($D$29*0.5)+($D$69*0.5))</f>
         <v>46.073</v>
       </c>
       <c r="E13" s="4">
@@ -2257,7 +2271,7 @@
         <v>1.951E-3</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:F28" si="3">C15*D15/(E15 * 1000)</f>
+        <f t="shared" ref="F15:F29" si="3">C15*D15/(E15 * 1000)</f>
         <v>22.557662737057917</v>
       </c>
     </row>
@@ -2293,7 +2307,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -2313,88 +2327,95 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="E19" s="4">
+        <f>0.00000018*1000</f>
+        <v>1.7999999999999998E-4</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="3"/>
+        <v>11.188888888888888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>60.08</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <f t="shared" si="3"/>
         <v>3.755E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
         <v>238.03</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <f>0.01097*1000</f>
         <v>10.97</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <f t="shared" si="3"/>
         <v>2.1698268003646309E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <v>183.88</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="6">
         <f t="shared" si="3"/>
         <v>7.3551999999999992E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
@@ -2409,7 +2430,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
@@ -2417,421 +2438,413 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4">
         <f>0.000216*1000</f>
         <v>0.216</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>92.09</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="4">
         <f>0.012*1000</f>
         <v>12</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <f t="shared" si="3"/>
         <v>7.6741666666666668E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>172.14</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <f t="shared" si="3"/>
         <v>3.1298181818181815E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
         <v>168.69</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="6">
         <f t="shared" si="3"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <f>0.001004*1000</f>
         <v>1.004</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <f t="shared" si="3"/>
         <v>3.1918326693227091E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
         <v>2.02</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F29" s="6">
-        <f t="shared" ref="F29:F38" si="4">C29*D29/(E29 * 1000)</f>
+      <c r="F30" s="6">
+        <f t="shared" ref="F30:F39" si="4">C30*D30/(E30 * 1000)</f>
         <v>22.469410456062288</v>
       </c>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
         <v>6.94</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <f xml:space="preserve"> 0.000534*1000</f>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <f t="shared" si="4"/>
         <v>1.2996254681647943E-2</v>
       </c>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
         <v>17.03</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="6">
         <f t="shared" si="4"/>
         <v>2.4255804016521866E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
         <v>44.01</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F33" s="6">
         <f t="shared" si="4"/>
         <v>3.7511186874067751E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="4">
         <f>0.0001624*1000</f>
         <v>0.16239999999999999</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="6">
         <f t="shared" si="4"/>
         <v>1.2401477832512315E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <v>2.02</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <f t="shared" si="4"/>
         <v>2.8510938602681724E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>3.016</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <f>0.000059*1000</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="6">
         <f t="shared" si="4"/>
         <v>5.1118644067796613E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
         <v>16.05</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F37" s="6">
         <f t="shared" si="4"/>
         <v>3.7710580108550079E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="9">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10">
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10">
         <v>32</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F38" s="12">
         <f t="shared" si="4"/>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
         <v>28.01</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <f t="shared" si="4"/>
         <v>3.3955342844708553E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="5">
-        <f>D34</f>
+      <c r="D41" s="5"/>
+      <c r="E41" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
+        <f>D35</f>
         <v>2.02</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <f>0.007085*1000</f>
         <v>7.085</v>
       </c>
-      <c r="F41" s="6">
-        <f t="shared" ref="F41:F48" si="5">C41*D41/(E41 * 1000)</f>
+      <c r="F42" s="6">
+        <f t="shared" ref="F42:F49" si="5">C42*D42/(E42 * 1000)</f>
         <v>2.851093860268172E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <v>159.69</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F43" s="6">
         <f t="shared" si="5"/>
         <v>2.9034545454545455E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5">
-        <f>55.845*2</f>
-        <v>111.69</v>
-      </c>
-      <c r="E43" s="4">
-        <f>0.026*1000</f>
-        <v>26</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" si="5"/>
-        <v>4.2957692307692306E-3</v>
-      </c>
-    </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>47</v>
@@ -2844,177 +2857,186 @@
         <v>111.69</v>
       </c>
       <c r="E44" s="4">
+        <f>0.026*1000</f>
+        <v>26</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="5"/>
+        <v>4.2957692307692306E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
+        <f>55.845*2</f>
+        <v>111.69</v>
+      </c>
+      <c r="E45" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <f t="shared" si="5"/>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F46" s="6">
         <f t="shared" si="5"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <f t="shared" si="5"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
         <v>46.07</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="4">
         <f>0.00088*1000</f>
         <v>0.88</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="6">
         <f t="shared" si="5"/>
         <v>5.2352272727272726E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
         <v>233.88</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <f t="shared" si="5"/>
         <v>4.6775999999999998E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F49" s="6"/>
-    </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E51" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F50" s="6">
-        <f>C50*D50/(E50 * 1000)</f>
+      <c r="F51" s="6">
+        <f>C51*D51/(E51 * 1000)</f>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
         <v>92.04</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E52" s="4">
         <f>0.00145*1000</f>
         <v>1.45</v>
       </c>
-      <c r="F51" s="6">
-        <f>C51*D51/(E51 * 1000)</f>
+      <c r="F52" s="6">
+        <f>C52*D52/(E52 * 1000)</f>
         <v>6.3475862068965522E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="4">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1">
@@ -3022,694 +3044,696 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
         <v>32</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F54" s="6">
-        <f>C54*D54/(E54 * 1000)</f>
+      <c r="F55" s="6">
+        <f>C55*D55/(E55 * 1000)</f>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5">
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
         <v>30.97</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F55" s="6">
-        <f>C55*D55/(E55 * 1000)</f>
+      <c r="F56" s="6">
+        <f>C56*D56/(E56 * 1000)</f>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="4">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="4">
         <f>0.00104*1000</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F57" s="6">
-        <f>C57*D57/(E57 * 1000)</f>
+      <c r="F58" s="6">
+        <f>C58*D58/(E58 * 1000)</f>
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="4">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="4">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="4">
         <f>0.0052*1000</f>
         <v>5.2</v>
       </c>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="4">
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="4">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="4">
         <f>0.004*1000</f>
         <v>4</v>
       </c>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="B63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
         <v>76.08</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E63" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F62" s="6">
-        <f>C62*D62/(E62 * 1000)</f>
+      <c r="F63" s="6">
+        <f>C63*D63/(E63 * 1000)</f>
         <v>3.0432000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="4">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5">
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
         <v>186.09</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E65" s="4">
         <f>0.0031*1000</f>
         <v>3.1</v>
       </c>
-      <c r="F64" s="6">
-        <f t="shared" ref="F64" si="6">C64*D64/(E64 * 1000)</f>
+      <c r="F65" s="6">
+        <f t="shared" ref="F65" si="6">C65*D65/(E65 * 1000)</f>
         <v>6.0029032258064517E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="4">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F67" s="6">
-        <f>C67*D67/(E67 * 1000)</f>
+      <c r="F68" s="6">
+        <f>C68*D68/(E68 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
         <v>60.1</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E69" s="4">
         <f>0.000791*1000</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="F68" s="6">
-        <f>C68*D68/(E68 * 1000)</f>
+      <c r="F69" s="6">
+        <f>C69*D69/(E69 * 1000)</f>
         <v>7.5979772439949439E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
-        <f>SUM(($D$28*0.25)+($D$68*0.75))</f>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
+        <f>SUM(($D$29*0.25)+($D$69*0.75))</f>
         <v>53.086500000000001</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="4">
         <f>0.000829*1000</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="F69" s="6">
-        <f>C69*D69/(E69 * 1000)</f>
-        <v>6.4036791314837152E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5">
-        <v>18.02</v>
-      </c>
-      <c r="E70" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F70" s="6">
         <f>C70*D70/(E70 * 1000)</f>
+        <v>6.4036791314837152E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
+        <v>18.02</v>
+      </c>
+      <c r="E71" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F71" s="6">
+        <f>C71*D71/(E71 * 1000)</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="4">
-        <f t="shared" ref="E73:E105" si="7">F73*1000</f>
-        <v>5</v>
-      </c>
-      <c r="F73" s="6">
-        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="32"/>
+      <c r="E74" s="4">
+        <f t="shared" ref="E74:E106" si="7">F74*1000</f>
+        <v>5</v>
+      </c>
+      <c r="F74" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E75" s="4">
         <f t="shared" si="7"/>
         <v>19.3</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="6">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E76" s="4">
         <f t="shared" si="7"/>
         <v>54.4</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="6">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E77" s="4">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="4">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F78" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" s="4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="4">
         <f t="shared" si="7"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F79" s="6">
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="4">
         <f t="shared" si="7"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F80" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E81" s="4">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F81" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="4">
         <f t="shared" si="7"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="6">
         <v>5.0108799999999997E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E83" s="4">
         <f t="shared" si="7"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F83" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="4">
         <f t="shared" si="7"/>
         <v>0.216</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F84" s="6">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E85" s="4">
         <f t="shared" si="7"/>
         <v>23.125</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F85" s="6">
         <v>2.3125E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="4">
         <f t="shared" si="7"/>
         <v>5.25</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E87" s="4">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F87" s="6">
         <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E87" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F87" s="6">
-        <v>1E-3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="E88" s="4">
         <f t="shared" si="7"/>
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="F88" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="E89" s="4">
         <f t="shared" si="7"/>
-        <v>2.4</v>
+        <v>12.5</v>
       </c>
       <c r="F89" s="6">
-        <v>2.3999999999999998E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" si="7"/>
-        <v>13.5</v>
+        <v>2.4</v>
       </c>
       <c r="F90" s="6">
-        <v>1.35E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E91" s="4">
         <f t="shared" si="7"/>
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="F91" s="6">
-        <v>8.6E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="3"/>
+        <v>63</v>
+      </c>
       <c r="E92" s="4">
         <f t="shared" si="7"/>
-        <v>5.7050000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="F92" s="6">
-        <v>5.705E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="3"/>
       <c r="E93" s="4">
         <f t="shared" si="7"/>
-        <v>13.5</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F93" s="6">
-        <v>1.35E-2</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="3"/>
       <c r="E94" s="4">
         <f t="shared" si="7"/>
-        <v>0.35399999999999998</v>
+        <v>13.5</v>
       </c>
       <c r="F94" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="3"/>
       <c r="E95" s="4">
         <f t="shared" si="7"/>
-        <v>2.12805</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F95" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="3"/>
       <c r="E96" s="4">
         <f t="shared" si="7"/>
-        <v>1.08</v>
+        <v>2.12805</v>
       </c>
       <c r="F96" s="6">
-        <v>1.08E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="3"/>
       <c r="E97" s="4">
         <f t="shared" si="7"/>
-        <v>4.1000000000000005</v>
+        <v>1.08</v>
       </c>
       <c r="F97" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
-        <v>52</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="4">
         <f t="shared" si="7"/>
-        <v>12.5</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F98" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E99" s="4">
         <f t="shared" si="7"/>
-        <v>4.5999999999999996</v>
+        <v>12.5</v>
       </c>
       <c r="F99" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="E100" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F100" s="6">
-        <v>1E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E101" s="4">
         <f t="shared" si="7"/>
@@ -3721,49 +3745,61 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" si="7"/>
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="F102" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E103" s="4">
         <f t="shared" si="7"/>
-        <v>4.3499999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="F103" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E104" s="4">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F104" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="E105" s="4">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F105" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F106" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25110" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="26040" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="179">
   <si>
     <t>Resource</t>
   </si>
@@ -565,6 +565,12 @@
   </si>
   <si>
     <t>Deuterium</t>
+  </si>
+  <si>
+    <t>NuclearFuel</t>
+  </si>
+  <si>
+    <t>NuclearWaste</t>
   </si>
 </sst>
 </file>
@@ -579,7 +585,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.000&quot;:1&quot;"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
     <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -858,6 +864,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,7 +874,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1193,7 +1199,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1202,14 +1208,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -1227,21 +1233,21 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="18">
-        <v>270.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -1260,9 +1266,7 @@
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>176</v>
-      </c>
+      <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -1272,24 +1276,24 @@
       <c r="A8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="22">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$106,5,FALSE),"-")</f>
-        <v>1.7999999999999998E-4</v>
+      <c r="B8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$108,5,FALSE),"-")</f>
+        <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$106,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$108,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$106,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$108,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$106,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$108,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$106,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$108,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1297,9 +1301,9 @@
       <c r="A9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="25" t="str">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>4.8708000000000001E-2</v>
+        <v>-</v>
       </c>
       <c r="C9" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1324,7 +1328,7 @@
       </c>
       <c r="B10" s="25">
         <f>SUM(B9:F9)</f>
-        <v>4.8708000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -1332,27 +1336,27 @@
       <c r="F10" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="18">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C13" s="18">
         <v>0</v>
       </c>
       <c r="D13" s="18">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="E13" s="18">
         <v>0</v>
@@ -1365,9 +1369,7 @@
       <c r="A14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>153</v>
-      </c>
+      <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -1377,24 +1379,24 @@
       <c r="A15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="22">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$106,5,FALSE),"-")</f>
-        <v>0.16239999999999999</v>
+      <c r="B15" s="22" t="str">
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$108,5,FALSE),"-")</f>
+        <v>-</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$106,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$108,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$106,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$108,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$106,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$108,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$106,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$108,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1402,15 +1404,15 @@
       <c r="A16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="34" t="str">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
-        <v>4.8719999999999992E-2</v>
+        <v>-</v>
       </c>
       <c r="C16" s="25" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D16" s="37" t="str">
+      <c r="D16" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -1429,7 +1431,7 @@
       </c>
       <c r="B17" s="25">
         <f>SUM(B16:F16)</f>
-        <v>4.8719999999999992E-2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -1437,14 +1439,14 @@
       <c r="F17" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -1452,11 +1454,11 @@
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Output excessive</v>
+        <v>Equal</v>
       </c>
       <c r="C20" s="21">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>1.0002463661000245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1475,7 +1477,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$106</xm:f>
+            <xm:f>Database!$A$2:$A$108</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7 B14:F14</xm:sqref>
         </x14:dataValidation>
@@ -1490,7 +1492,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1499,14 +1501,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -1524,14 +1526,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1673,14 +1675,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1825,14 +1827,14 @@
       <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -1857,20 +1859,15 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A23:F23"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:F7">
-      <formula1>$A$2:$A$106</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$106</xm:f>
+            <xm:f>Database!$A$2:$A$108</xm:f>
           </x14:formula1>
-          <xm:sqref>B16:F16</xm:sqref>
+          <xm:sqref>B16:F16 B7:F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1880,11 +1877,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3394,7 +3391,7 @@
       </c>
       <c r="D74" s="32"/>
       <c r="E74" s="4">
-        <f t="shared" ref="E74:E106" si="7">F74*1000</f>
+        <f t="shared" ref="E74:E108" si="7">F74*1000</f>
         <v>5</v>
       </c>
       <c r="F74" s="6">
@@ -3619,187 +3616,211 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="3"/>
+        <v>177</v>
+      </c>
       <c r="E93" s="4">
         <f t="shared" si="7"/>
-        <v>5.7050000000000001</v>
+        <v>19.099999999999998</v>
       </c>
       <c r="F93" s="6">
-        <v>5.705E-3</v>
+        <v>1.9099999999999999E-2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="3"/>
+        <v>178</v>
+      </c>
       <c r="E94" s="4">
         <f t="shared" si="7"/>
-        <v>13.5</v>
+        <v>10.97</v>
       </c>
       <c r="F94" s="6">
-        <v>1.35E-2</v>
+        <v>1.0970000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="3"/>
       <c r="E95" s="4">
         <f t="shared" si="7"/>
-        <v>0.35399999999999998</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F95" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="3"/>
       <c r="E96" s="4">
         <f t="shared" si="7"/>
-        <v>2.12805</v>
+        <v>13.5</v>
       </c>
       <c r="F96" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="3"/>
       <c r="E97" s="4">
         <f t="shared" si="7"/>
-        <v>1.08</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F97" s="6">
-        <v>1.08E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="3"/>
       <c r="E98" s="4">
         <f t="shared" si="7"/>
-        <v>4.1000000000000005</v>
+        <v>2.12805</v>
       </c>
       <c r="F98" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
-        <v>52</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="3"/>
       <c r="E99" s="4">
         <f t="shared" si="7"/>
-        <v>12.5</v>
+        <v>1.08</v>
       </c>
       <c r="F99" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
-        <v>71</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="3"/>
       <c r="E100" s="4">
         <f t="shared" si="7"/>
-        <v>4.5999999999999996</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F100" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="E101" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="F101" s="6">
-        <v>1E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F102" s="6">
-        <v>1E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E103" s="4">
         <f t="shared" si="7"/>
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="F103" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E104" s="4">
         <f t="shared" si="7"/>
-        <v>4.3499999999999996</v>
+        <v>1</v>
       </c>
       <c r="F104" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E105" s="4">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="F105" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="E106" s="4">
         <f t="shared" si="7"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F106" s="6">
+        <v>4.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="4">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F107" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F108" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26040" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="27900" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="191">
   <si>
     <t>Resource</t>
   </si>
@@ -571,6 +571,76 @@
   </si>
   <si>
     <t>NuclearWaste</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Chlorine</t>
+  </si>
+  <si>
+    <t>Fluorine</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Cl2</t>
+  </si>
+  <si>
+    <t>N2O4</t>
+  </si>
+  <si>
+    <r>
+      <t>CH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(NH)NH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>LqdHe</t>
+  </si>
+  <si>
+    <t>Helium-3</t>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>He / 4He</t>
   </si>
 </sst>
 </file>
@@ -584,10 +654,10 @@
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="#,##0.000&quot;:1&quot;"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -686,6 +756,14 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -863,8 +941,8 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1199,7 +1277,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1277,23 +1355,23 @@
         <v>76</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$108,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$114,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$108,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$114,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$108,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$114,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$108,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$114,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$108,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$114,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1326,7 +1404,7 @@
       <c r="A10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="34">
         <f>SUM(B9:F9)</f>
         <v>0</v>
       </c>
@@ -1380,23 +1458,23 @@
         <v>76</v>
       </c>
       <c r="B15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$108,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$114,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$108,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$114,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$108,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$114,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$108,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$114,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$108,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$114,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1404,7 +1482,7 @@
       <c r="A16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="34" t="str">
+      <c r="B16" s="33" t="str">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
         <v>-</v>
       </c>
@@ -1412,7 +1490,7 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D16" s="34" t="str">
+      <c r="D16" s="33" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -1429,7 +1507,7 @@
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="34">
         <f>SUM(B16:F16)</f>
         <v>0</v>
       </c>
@@ -1474,12 +1552,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$108</xm:f>
+            <xm:f>Database!$A$2:$A$114</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:F7 B14:F14</xm:sqref>
+          <xm:sqref>B7:F7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database!$A$2:$A$114</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14:F14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1491,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1570,23 +1654,23 @@
         <v>95</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$71,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$77,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$71,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$77,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$71,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$77,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$71,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$77,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$71,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$77,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1595,23 +1679,23 @@
         <v>100</v>
       </c>
       <c r="B9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$71,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$77,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$71,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$77,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$71,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$77,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$71,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$77,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$71,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$77,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1644,7 +1728,7 @@
       <c r="A11" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="33" t="str">
+      <c r="B11" s="27" t="str">
         <f>IFERROR(B10/(B9*1000),"-")</f>
         <v>-</v>
       </c>
@@ -1719,23 +1803,23 @@
         <v>95</v>
       </c>
       <c r="B17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$71,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$77,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$71,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$77,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$71,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$77,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$71,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$77,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$71,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$77,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1744,23 +1828,23 @@
         <v>100</v>
       </c>
       <c r="B18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$71,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$77,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$71,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$77,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$71,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$77,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$71,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$77,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$71,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$77,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1862,12 +1946,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$108</xm:f>
+            <xm:f>Database!$A$2:$A$114</xm:f>
           </x14:formula1>
-          <xm:sqref>B16:F16 B7:F7</xm:sqref>
+          <xm:sqref>B16:F16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database!$A$2:$A$114</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7:F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1877,11 +1967,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2091,10 +2181,7 @@
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" ref="F7" si="1">C7*D7/(E7 * 1000)</f>
-        <v>0</v>
-      </c>
+      <c r="F7" s="6"/>
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2216,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="5">
-        <f>SUM(($D$29*0.5)+($D$69*0.5))</f>
+        <f>SUM(($D$33*0.5)+($D$75*0.5))</f>
         <v>46.073</v>
       </c>
       <c r="E13" s="4">
@@ -2246,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" ref="F14" si="2">C14*D14/(E14 * 1000)</f>
+        <f t="shared" ref="F14" si="1">C14*D14/(E14 * 1000)</f>
         <v>2.4020000000000001E-3</v>
       </c>
     </row>
@@ -2268,7 +2355,7 @@
         <v>1.951E-3</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:F29" si="3">C15*D15/(E15 * 1000)</f>
+        <f t="shared" ref="F15:F33" si="2">C15*D15/(E15 * 1000)</f>
         <v>22.557662737057917</v>
       </c>
     </row>
@@ -2287,147 +2374,154 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="E17" s="4">
+        <f>0.0032*1000</f>
+        <v>3.2</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1078125000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4">
         <f>0.001556*1000</f>
         <v>1.556</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
         <v>238.03</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <f>0.01097*1000</f>
         <v>10.97</v>
       </c>
-      <c r="F18" s="6">
-        <f t="shared" si="3"/>
+      <c r="F19" s="6">
+        <f t="shared" si="2"/>
         <v>2.1698268003646309E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <f>0.00000018*1000</f>
         <v>1.7999999999999998E-4</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" si="3"/>
+      <c r="F20" s="6">
+        <f t="shared" si="2"/>
         <v>11.188888888888888</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
         <v>60.08</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" si="3"/>
+      <c r="F21" s="6">
+        <f t="shared" si="2"/>
         <v>3.755E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <v>238.03</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <f>0.01097*1000</f>
         <v>10.97</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="3"/>
+      <c r="F22" s="6">
+        <f t="shared" si="2"/>
         <v>2.1698268003646309E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
         <v>183.88</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F22" s="6">
-        <f t="shared" si="3"/>
+      <c r="F23" s="6">
+        <f t="shared" si="2"/>
         <v>7.3551999999999992E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
@@ -2440,9 +2534,9 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
@@ -2450,783 +2544,808 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>19</v>
+      </c>
+      <c r="E26" s="4">
+        <f>0.0032*1000</f>
+        <v>3.2</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="2"/>
+        <v>5.9375000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4">
         <f>0.000216*1000</f>
         <v>0.216</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
         <v>92.09</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E28" s="4">
         <f>0.012*1000</f>
         <v>12</v>
       </c>
-      <c r="F26" s="6">
-        <f t="shared" si="3"/>
+      <c r="F28" s="6">
+        <f t="shared" si="2"/>
         <v>7.6741666666666668E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>172.14</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E29" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F29" s="6">
+        <f t="shared" si="2"/>
+        <v>3.1298181818181815E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3.016</v>
+      </c>
+      <c r="E30" s="4">
+        <f>0.000000125*1000</f>
+        <v>1.25E-4</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" ref="F30:F31" si="3">C30*D30/(E30 * 1000)</f>
+        <v>24.128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>4.0019999999999998</v>
+      </c>
+      <c r="E31" s="4">
+        <f>0.0000001786*1000</f>
+        <v>1.786E-4</v>
+      </c>
+      <c r="F31" s="6">
         <f t="shared" si="3"/>
-        <v>3.1298181818181815E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+        <v>22.407614781634937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
         <v>168.69</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E32" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F28" s="6">
-        <f t="shared" si="3"/>
+      <c r="F32" s="6">
+        <f t="shared" si="2"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E33" s="4">
         <f>0.001004*1000</f>
         <v>1.004</v>
       </c>
-      <c r="F29" s="6">
-        <f t="shared" si="3"/>
+      <c r="F33" s="6">
+        <f t="shared" si="2"/>
         <v>3.1918326693227091E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
         <v>2.02</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E34" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" ref="F30:F39" si="4">C30*D30/(E30 * 1000)</f>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:F44" si="4">C34*D34/(E34 * 1000)</f>
         <v>22.469410456062288</v>
       </c>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <v>6.94</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E35" s="4">
         <f xml:space="preserve"> 0.000534*1000</f>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F35" s="6">
         <f t="shared" si="4"/>
         <v>1.2996254681647943E-2</v>
       </c>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>17.03</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E36" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F36" s="6">
         <f t="shared" si="4"/>
         <v>2.4255804016521866E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
         <v>44.01</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E37" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F37" s="6">
         <f t="shared" si="4"/>
         <v>3.7511186874067751E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E38" s="4">
         <f>0.0001624*1000</f>
         <v>0.16239999999999999</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F38" s="6">
         <f t="shared" si="4"/>
         <v>1.2401477832512315E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3.016</v>
+      </c>
+      <c r="E39" s="4">
+        <f>0.000059*1000</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F39" s="6">
+        <f>C39*D39/(E39 * 1000)</f>
+        <v>5.1118644067796613E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4.0019999999999998</v>
+      </c>
+      <c r="E40" s="4">
+        <f>0.0001786*1000</f>
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" ref="F40" si="5">C40*D40/(E40 * 1000)</f>
+        <v>2.2407614781634933E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <v>2.02</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E41" s="4">
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="4"/>
+      <c r="F41" s="6">
+        <f>C41*D41/(E41 * 1000)</f>
         <v>2.8510938602681724E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
-        <v>3.016</v>
-      </c>
-      <c r="E36" s="4">
-        <f>0.000059*1000</f>
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="F36" s="6">
-        <f t="shared" si="4"/>
-        <v>5.1118644067796613E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
         <v>16.05</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E42" s="4">
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F42" s="6">
         <f t="shared" si="4"/>
         <v>3.7710580108550079E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B43" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="9">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10">
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
         <v>32</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E43" s="11">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F43" s="12">
         <f t="shared" si="4"/>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <v>28.01</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E44" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F44" s="6">
         <f t="shared" si="4"/>
         <v>3.3955342844708553E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
-        <f>D35</f>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
+        <f>D41</f>
         <v>2.02</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E47" s="4">
         <f>0.007085*1000</f>
         <v>7.085</v>
       </c>
-      <c r="F42" s="6">
-        <f t="shared" ref="F42:F49" si="5">C42*D42/(E42 * 1000)</f>
+      <c r="F47" s="6">
+        <f t="shared" ref="F47:F54" si="6">C47*D47/(E47 * 1000)</f>
         <v>2.851093860268172E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
         <v>159.69</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E48" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F43" s="6">
-        <f t="shared" si="5"/>
+      <c r="F48" s="6">
+        <f t="shared" si="6"/>
         <v>2.9034545454545455E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E49" s="4">
         <f>0.026*1000</f>
         <v>26</v>
       </c>
-      <c r="F44" s="6">
-        <f t="shared" si="5"/>
+      <c r="F49" s="6">
+        <f t="shared" si="6"/>
         <v>4.2957692307692306E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E50" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F45" s="6">
-        <f t="shared" si="5"/>
+      <c r="F50" s="6">
+        <f t="shared" si="6"/>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E51" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F46" s="6">
-        <f t="shared" si="5"/>
+      <c r="F51" s="6">
+        <f t="shared" si="6"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E52" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F47" s="6">
-        <f t="shared" si="5"/>
+      <c r="F52" s="6">
+        <f t="shared" si="6"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="B53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
         <v>46.07</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E53" s="4">
         <f>0.00088*1000</f>
         <v>0.88</v>
       </c>
-      <c r="F48" s="6">
-        <f t="shared" si="5"/>
+      <c r="F53" s="6">
+        <f t="shared" si="6"/>
         <v>5.2352272727272726E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
         <v>233.88</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E54" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F49" s="6">
-        <f t="shared" si="5"/>
+      <c r="F54" s="6">
+        <f t="shared" si="6"/>
         <v>4.6775999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="4">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E56" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F51" s="6">
-        <f>C51*D51/(E51 * 1000)</f>
+      <c r="F56" s="6">
+        <f>C56*D56/(E56 * 1000)</f>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="B57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
         <v>92.04</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E57" s="4">
         <f>0.00145*1000</f>
         <v>1.45</v>
       </c>
-      <c r="F52" s="6">
-        <f>C52*D52/(E52 * 1000)</f>
+      <c r="F57" s="6">
+        <f>C57*D57/(E57 * 1000)</f>
         <v>6.3475862068965522E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="4">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="4">
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="4">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5">
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5">
         <v>32</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E60" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F55" s="6">
-        <f>C55*D55/(E55 * 1000)</f>
+      <c r="F60" s="6">
+        <f>C60*D60/(E60 * 1000)</f>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
         <v>30.97</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E61" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F56" s="6">
-        <f>C56*D56/(E56 * 1000)</f>
+      <c r="F61" s="6">
+        <f>C61*D61/(E61 * 1000)</f>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="4">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="4">
         <f>0.00104*1000</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E63" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F58" s="6">
-        <f>C58*D58/(E58 * 1000)</f>
-        <v>2.5010000000000001E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="4">
-        <f>0.00378*1000</f>
-        <v>3.78</v>
-      </c>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="4">
-        <f>0.0052*1000</f>
-        <v>5.2</v>
-      </c>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="4">
-        <f>0.0025*1000</f>
-        <v>2.5</v>
-      </c>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="4">
-        <f>0.004*1000</f>
-        <v>4</v>
-      </c>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5">
-        <v>76.08</v>
-      </c>
-      <c r="E63" s="4">
-        <f>0.0025*1000</f>
-        <v>2.5</v>
-      </c>
       <c r="F63" s="6">
         <f>C63*D63/(E63 * 1000)</f>
-        <v>3.0432000000000001E-2</v>
+        <v>2.5010000000000001E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1">
@@ -3241,586 +3360,690 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="4">
+        <f>0.0052*1000</f>
+        <v>5.2</v>
+      </c>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="4">
+        <f>0.0025*1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="4">
+        <f>0.004*1000</f>
+        <v>4</v>
+      </c>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
+        <v>76.08</v>
+      </c>
+      <c r="E68" s="4">
+        <f>0.0025*1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="F68" s="6">
+        <f>C68*D68/(E68 * 1000)</f>
+        <v>3.0432000000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <v>28.09</v>
+      </c>
+      <c r="E69" s="4">
+        <f>0.002329*1000</f>
+        <v>2.3289999999999997</v>
+      </c>
+      <c r="F69" s="6">
+        <f>C69*D69/(E69 * 1000)</f>
+        <v>1.2060970373550882E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="4">
+        <f>0.00378*1000</f>
+        <v>3.78</v>
+      </c>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5">
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
         <v>186.09</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E71" s="4">
         <f>0.0031*1000</f>
         <v>3.1</v>
       </c>
-      <c r="F65" s="6">
-        <f t="shared" ref="F65" si="6">C65*D65/(E65 * 1000)</f>
+      <c r="F71" s="6">
+        <f t="shared" ref="F71" si="7">C71*D71/(E71 * 1000)</f>
         <v>6.0029032258064517E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="4">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="4">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E74" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F68" s="6">
-        <f>C68*D68/(E68 * 1000)</f>
+      <c r="F74" s="6">
+        <f>C74*D74/(E74 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5">
         <v>60.1</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E75" s="4">
         <f>0.000791*1000</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="F69" s="6">
-        <f>C69*D69/(E69 * 1000)</f>
+      <c r="F75" s="6">
+        <f>C75*D75/(E75 * 1000)</f>
         <v>7.5979772439949439E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5">
-        <f>SUM(($D$29*0.25)+($D$69*0.75))</f>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <f>SUM(($D$33*0.25)+($D$75*0.75))</f>
         <v>53.086500000000001</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E76" s="4">
         <f>0.000829*1000</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="F70" s="6">
-        <f>C70*D70/(E70 * 1000)</f>
+      <c r="F76" s="6">
+        <f>C76*D76/(E76 * 1000)</f>
         <v>6.4036791314837152E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5">
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
         <v>18.02</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E77" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F71" s="6">
-        <f>C71*D71/(E71 * 1000)</f>
+      <c r="F77" s="6">
+        <f>C77*D77/(E77 * 1000)</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="4">
-        <f t="shared" ref="E74:E108" si="7">F74*1000</f>
-        <v>5</v>
-      </c>
-      <c r="F74" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" s="4">
-        <f t="shared" si="7"/>
-        <v>19.3</v>
-      </c>
-      <c r="F75" s="6">
-        <v>1.9300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E76" s="4">
-        <f t="shared" si="7"/>
-        <v>54.4</v>
-      </c>
-      <c r="F76" s="6">
-        <v>5.4399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="F77" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E78" s="4">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="F78" s="6">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E79" s="4">
-        <f t="shared" si="7"/>
-        <v>0.53399999999999992</v>
-      </c>
-      <c r="F79" s="6">
-        <v>5.3399999999999997E-4</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
-        <v>107</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D80" s="32"/>
       <c r="E80" s="4">
-        <f t="shared" si="7"/>
-        <v>6.0000000000000005E-2</v>
+        <f t="shared" ref="E80:E114" si="8">F80*1000</f>
+        <v>5</v>
       </c>
       <c r="F80" s="6">
-        <v>6.0000000000000002E-5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
+        <f t="shared" si="8"/>
+        <v>19.3</v>
       </c>
       <c r="F81" s="6">
-        <v>2.5000000000000001E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="7"/>
-        <v>5.0108799999999993</v>
+        <f t="shared" si="8"/>
+        <v>54.4</v>
       </c>
       <c r="F82" s="6">
-        <v>5.0108799999999997E-3</v>
+        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="7"/>
-        <v>4.3499999999999996</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="F83" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="7"/>
-        <v>0.216</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="F84" s="6">
-        <v>2.1599999999999999E-4</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="7"/>
-        <v>23.125</v>
+        <f t="shared" si="8"/>
+        <v>0.53399999999999992</v>
       </c>
       <c r="F85" s="6">
-        <v>2.3125E-2</v>
+        <v>5.3399999999999997E-4</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="7"/>
-        <v>5.25</v>
+        <f t="shared" si="8"/>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="F86" s="6">
-        <v>5.2500000000000003E-3</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>2.5</v>
       </c>
       <c r="F87" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>5.0108799999999993</v>
       </c>
       <c r="F88" s="6">
-        <v>1E-3</v>
+        <v>5.0108799999999997E-3</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="7"/>
-        <v>12.5</v>
+        <f t="shared" si="8"/>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F89" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>4.3499999999999997E-3</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="7"/>
-        <v>2.4</v>
+        <f t="shared" si="8"/>
+        <v>0.216</v>
       </c>
       <c r="F90" s="6">
-        <v>2.3999999999999998E-3</v>
+        <v>2.1599999999999999E-4</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="7"/>
-        <v>13.5</v>
+        <f t="shared" si="8"/>
+        <v>23.125</v>
       </c>
       <c r="F91" s="6">
-        <v>1.35E-2</v>
+        <v>2.3125E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="7"/>
-        <v>8.6</v>
+        <f t="shared" si="8"/>
+        <v>5.25</v>
       </c>
       <c r="F92" s="6">
-        <v>8.6E-3</v>
+        <v>5.2500000000000003E-3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="7"/>
-        <v>19.099999999999998</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="F93" s="6">
-        <v>1.9099999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="7"/>
-        <v>10.97</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="F94" s="6">
-        <v>1.0970000000000001E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="3"/>
+        <v>61</v>
+      </c>
       <c r="E95" s="4">
-        <f t="shared" si="7"/>
-        <v>5.7050000000000001</v>
+        <f t="shared" si="8"/>
+        <v>12.5</v>
       </c>
       <c r="F95" s="6">
-        <v>5.705E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="3"/>
+        <v>112</v>
+      </c>
       <c r="E96" s="4">
-        <f t="shared" si="7"/>
-        <v>13.5</v>
+        <f t="shared" si="8"/>
+        <v>2.4</v>
       </c>
       <c r="F96" s="6">
-        <v>1.35E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="3"/>
+        <v>62</v>
+      </c>
       <c r="E97" s="4">
-        <f t="shared" si="7"/>
-        <v>0.35399999999999998</v>
+        <f t="shared" si="8"/>
+        <v>13.5</v>
       </c>
       <c r="F97" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="3"/>
+        <v>63</v>
+      </c>
       <c r="E98" s="4">
-        <f t="shared" si="7"/>
-        <v>2.12805</v>
+        <f t="shared" si="8"/>
+        <v>8.6</v>
       </c>
       <c r="F98" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="3"/>
+        <v>177</v>
+      </c>
       <c r="E99" s="4">
-        <f t="shared" si="7"/>
-        <v>1.08</v>
+        <f t="shared" si="8"/>
+        <v>19.099999999999998</v>
       </c>
       <c r="F99" s="6">
-        <v>1.08E-3</v>
+        <v>1.9099999999999999E-2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="3"/>
+        <v>178</v>
+      </c>
       <c r="E100" s="4">
-        <f t="shared" si="7"/>
-        <v>4.1000000000000005</v>
+        <f t="shared" si="8"/>
+        <v>10.97</v>
       </c>
       <c r="F100" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>1.0970000000000001E-2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
-        <v>52</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="3"/>
       <c r="E101" s="4">
-        <f t="shared" si="7"/>
-        <v>12.5</v>
+        <f t="shared" si="8"/>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F101" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
-        <v>71</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="3"/>
       <c r="E102" s="4">
-        <f t="shared" si="7"/>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="8"/>
+        <v>13.5</v>
       </c>
       <c r="F102" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
-        <v>119</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="3"/>
       <c r="E103" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F103" s="6">
-        <v>1E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="3"/>
       <c r="E104" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2.12805</v>
       </c>
       <c r="F104" s="6">
-        <v>1E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
-        <v>114</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="3"/>
       <c r="E105" s="4">
-        <f t="shared" si="7"/>
-        <v>7.5</v>
+        <f t="shared" si="8"/>
+        <v>1.08</v>
       </c>
       <c r="F105" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="3"/>
       <c r="E106" s="4">
-        <f t="shared" si="7"/>
-        <v>4.3499999999999996</v>
+        <f t="shared" si="8"/>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F106" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>12.5</v>
       </c>
       <c r="F107" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" si="8"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F108" s="6">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E109" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F109" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F110" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" s="4">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="F111" s="6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E112" s="4">
+        <f t="shared" si="8"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F112" s="6">
+        <v>4.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E113" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="F113" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E108" s="4">
-        <f t="shared" si="7"/>
+      <c r="E114" s="4">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F114" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27900" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="29760" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="201">
   <si>
     <t>Resource</t>
   </si>
@@ -465,21 +465,12 @@
     <t>Mulch</t>
   </si>
   <si>
-    <t>Supports stock and CRP (only where correlated IRL resources can be found).</t>
-  </si>
-  <si>
     <t>Lithium</t>
   </si>
   <si>
     <t>Li</t>
   </si>
   <si>
-    <t>Does not support most of CRP (KSPI, RealFuels).</t>
-  </si>
-  <si>
-    <t>Supports stock, CRP (the realms of NFT and USI) and WBI.</t>
-  </si>
-  <si>
     <t>Glykerol</t>
   </si>
   <si>
@@ -516,9 +507,6 @@
     <t>MetallicHydrogen</t>
   </si>
   <si>
-    <t>AZ50</t>
-  </si>
-  <si>
     <t>MMH</t>
   </si>
   <si>
@@ -550,9 +538,6 @@
   </si>
   <si>
     <t>LiAl(SiO3)2</t>
-  </si>
-  <si>
-    <t>Does not support most of CRP (KSPI, RealFuels) or any of WBI.</t>
   </si>
   <si>
     <t>Radical Metasilicate (SiO3)</t>
@@ -642,6 +627,51 @@
   <si>
     <t>He / 4He</t>
   </si>
+  <si>
+    <t>Kerosene</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>C2H6O</t>
+  </si>
+  <si>
+    <t>CarbonMonoxide</t>
+  </si>
+  <si>
+    <t>LqdCO</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>H2O2</t>
+  </si>
+  <si>
+    <t>HTP</t>
+  </si>
+  <si>
+    <t>Ethanol75</t>
+  </si>
+  <si>
+    <t>C2H6O[3] + H2O[1]</t>
+  </si>
+  <si>
+    <t>Aerozine50</t>
+  </si>
+  <si>
+    <t>Does not support most of CRP (KSPI-E) or any of WBI.</t>
+  </si>
+  <si>
+    <t>Supports stock, CRP (greater fractions of NFT, USI, RealFuels) and WBI.</t>
+  </si>
+  <si>
+    <t>Does not support most of CRP (KSPI-E)</t>
+  </si>
+  <si>
+    <t>Supports stock and CRP (only popular resources where correlated IRL resources can be found).</t>
+  </si>
 </sst>
 </file>
 
@@ -652,10 +682,10 @@
     <numFmt numFmtId="165" formatCode="#,##0.000\ &quot;kg/unit&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;g/mol&quot;"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000&quot;:1&quot;"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000&quot;:1&quot;"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -929,7 +959,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="7"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -941,8 +970,8 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,6 +981,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="173" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1286,42 +1316,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>147</v>
+      <c r="A3" s="28" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>146</v>
+      <c r="A4" s="28" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="18">
@@ -1344,34 +1374,34 @@
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$114,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$114,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$114,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$114,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$114,5,FALSE),"-")</f>
+      <c r="B8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$120,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1379,23 +1409,23 @@
       <c r="A9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="25" t="str">
+      <c r="B9" s="24" t="str">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
         <v>-</v>
       </c>
-      <c r="C9" s="25" t="str">
+      <c r="C9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D9" s="25" t="str">
+      <c r="D9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="E9" s="25" t="str">
+      <c r="E9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F9" s="25" t="str">
+      <c r="F9" s="24" t="str">
         <f>IFERROR(F6*F8,"-")</f>
         <v>-</v>
       </c>
@@ -1404,27 +1434,27 @@
       <c r="A10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <f>SUM(B9:F9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="18">
@@ -1447,34 +1477,34 @@
       <c r="A14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$114,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$114,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$114,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$114,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F15" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$114,5,FALSE),"-")</f>
+      <c r="B15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$120,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1482,23 +1512,23 @@
       <c r="A16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="33" t="str">
+      <c r="B16" s="32" t="str">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
         <v>-</v>
       </c>
-      <c r="C16" s="25" t="str">
+      <c r="C16" s="24" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="D16" s="33" t="str">
+      <c r="D16" s="32" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E16" s="25" t="str">
+      <c r="E16" s="24" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F16" s="25" t="str">
+      <c r="F16" s="24" t="str">
         <f>IFERROR(F13*F15,"-")</f>
         <v>-</v>
       </c>
@@ -1507,24 +1537,24 @@
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <f>SUM(B16:F16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -1534,7 +1564,7 @@
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
         <v>Equal</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="37">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
         <v>1</v>
       </c>
@@ -1555,13 +1585,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$114</xm:f>
+            <xm:f>Database!$A$2:$A$120</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$114</xm:f>
+            <xm:f>Database!$A$2:$A$120</xm:f>
           </x14:formula1>
           <xm:sqref>B14:F14</xm:sqref>
         </x14:dataValidation>
@@ -1585,39 +1615,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>143</v>
+      <c r="A3" s="28" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>172</v>
+      <c r="A4" s="28" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1643,34 +1673,34 @@
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$77,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$77,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$77,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$77,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F8" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$77,4,FALSE),"-")</f>
+      <c r="B8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$83,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1678,24 +1708,24 @@
       <c r="A9" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$77,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$77,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$77,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$77,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F9" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$77,5,FALSE),"-")</f>
+      <c r="B9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$83,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1725,26 +1755,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="27" t="str">
+      <c r="B11" s="26" t="str">
         <f>IFERROR(B10/(B9*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="26" t="str">
         <f>IFERROR(C10/(C9*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="D11" s="27" t="str">
+      <c r="D11" s="26" t="str">
         <f>IFERROR(D10/(D9*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="E11" s="27" t="str">
+      <c r="E11" s="26" t="str">
         <f>IFERROR(E10/(E9*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="F11" s="27" t="str">
+      <c r="F11" s="26" t="str">
         <f>IFERROR(F10/(F9*1000),"-")</f>
         <v>-</v>
       </c>
@@ -1753,20 +1783,20 @@
       <c r="A12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <f>SUM(B10:F10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1792,34 +1822,34 @@
       <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$77,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$77,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$77,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$77,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F17" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$77,4,FALSE),"-")</f>
+      <c r="B17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$83,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1827,24 +1857,24 @@
       <c r="A18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$77,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$77,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$77,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$77,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F18" s="22" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$77,5,FALSE),"-")</f>
+      <c r="B18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$83,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1874,26 +1904,26 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="27" t="str">
+      <c r="B20" s="26" t="str">
         <f>IFERROR(B19/(B18*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="26" t="str">
         <f>IFERROR(C19/(C18*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="D20" s="27" t="str">
+      <c r="D20" s="26" t="str">
         <f>IFERROR(D19/(D18*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="E20" s="27" t="str">
+      <c r="E20" s="26" t="str">
         <f>IFERROR(E19/(E18*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="F20" s="27" t="str">
+      <c r="F20" s="26" t="str">
         <f>IFERROR(F19/(F18*1000),"-")</f>
         <v>-</v>
       </c>
@@ -1902,7 +1932,7 @@
       <c r="A21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <f>SUM(B19:F19)</f>
         <v>0</v>
       </c>
@@ -1911,14 +1941,14 @@
       <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -1928,7 +1958,7 @@
         <f>IF($B$12&gt;$B$21,"Input excesive",IF($B$12&lt;$B$21,"Output excessive","Equal"))</f>
         <v>Equal</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="37">
         <f>IF($B$12&gt;$B$21,B12/B21,IF($B$12&lt;$B$21,B21/B12,1))</f>
         <v>1</v>
       </c>
@@ -1949,13 +1979,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$114</xm:f>
+            <xm:f>Database!$A$2:$A$120</xm:f>
           </x14:formula1>
           <xm:sqref>B16:F16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$114</xm:f>
+            <xm:f>Database!$A$2:$A$120</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7</xm:sqref>
         </x14:dataValidation>
@@ -1967,7 +1997,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2070,7 +2100,7 @@
       <c r="K3">
         <v>117.49</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <v>0.69599999999999995</v>
       </c>
     </row>
@@ -2105,7 +2135,7 @@
       <c r="K4">
         <v>26.98</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="23">
         <v>0.16</v>
       </c>
     </row>
@@ -2140,7 +2170,7 @@
       <c r="K5">
         <v>71.84</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>0.4</v>
       </c>
     </row>
@@ -2166,7 +2196,7 @@
         <f t="shared" si="0"/>
         <v>1.3129</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2182,7 +2212,7 @@
         <v>7.5</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
@@ -2191,128 +2221,128 @@
       <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="23">
         <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <f>SUM(($D$37*0.5)+($D$81*0.5))</f>
+        <v>46.073</v>
+      </c>
+      <c r="E9" s="4">
+        <f>0.0009*1000</f>
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="6">
+        <f>C9*D9/(E9 * 1000)</f>
+        <v>5.1192222222222222E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="22">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>101.96</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <f>0.00398*1000</f>
         <v>3.98</v>
       </c>
-      <c r="F9" s="6">
-        <f>C9*D9/(E9 * 1000)</f>
+      <c r="F10" s="6">
+        <f>C10*D10/(E10 * 1000)</f>
         <v>2.5618090452261304E-2</v>
       </c>
-      <c r="I9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="23">
-        <v>1.9599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>26.98</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <f>0.00277*1000</f>
         <v>2.77</v>
       </c>
-      <c r="F10" s="6">
-        <f>C10*D10/(E10 * 1000)</f>
+      <c r="F11" s="6">
+        <f>C11*D11/(E11 * 1000)</f>
         <v>9.7400722021660658E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
         <v>17.03</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <f>0.000000769*1000</f>
         <v>7.6899999999999994E-4</v>
       </c>
-      <c r="F11" s="6">
-        <f>C11*D11/(E11 * 1000)</f>
+      <c r="F12" s="6">
+        <f>C12*D12/(E12 * 1000)</f>
         <v>22.145643693107935</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
         <v>39.950000000000003</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <f>0.000001784*1000</f>
         <v>1.784E-3</v>
       </c>
-      <c r="F12" s="6">
-        <f>C12*D12/(E12 * 1000)</f>
-        <v>22.393497757847534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <f>SUM(($D$33*0.5)+($D$75*0.5))</f>
-        <v>46.073</v>
-      </c>
-      <c r="E13" s="4">
-        <f>0.0009*1000</f>
-        <v>0.9</v>
-      </c>
       <c r="F13" s="6">
         <f>C13*D13/(E13 * 1000)</f>
-        <v>5.1192222222222222E-2</v>
+        <v>22.393497757847534</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2328,13 +2358,13 @@
       <c r="D14" s="5">
         <v>12.01</v>
       </c>
-      <c r="E14" s="17">
-        <f>$E$3</f>
-        <v>5</v>
+      <c r="E14" s="4">
+        <f>0.0021*1000</f>
+        <v>2.1</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ref="F14" si="1">C14*D14/(E14 * 1000)</f>
-        <v>2.4020000000000001E-3</v>
+        <v>5.7190476190476193E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2355,1101 +2385,1132 @@
         <v>1.951E-3</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:F33" si="2">C15*D15/(E15 * 1000)</f>
+        <f t="shared" ref="F15:F37" si="2">C15*D15/(E15 * 1000)</f>
         <v>22.557662737057917</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>28.01</v>
+      </c>
+      <c r="E16" s="4">
+        <f>0.00000125*1000</f>
+        <v>1.25E-3</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="2"/>
+        <v>22.408000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
         <v>35.450000000000003</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <f>0.0032*1000</f>
         <v>3.2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <f t="shared" si="2"/>
         <v>1.1078125000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4">
         <f>0.001556*1000</f>
         <v>1.556</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>238.03</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <f>0.01097*1000</f>
         <v>10.97</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
         <v>2.1698268003646309E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <f>0.00000018*1000</f>
         <v>1.7999999999999998E-4</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <f t="shared" si="2"/>
         <v>11.188888888888888</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <v>60.08</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="6">
         <f t="shared" si="2"/>
         <v>3.755E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
         <v>238.03</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <f>0.01097*1000</f>
         <v>10.97</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <f t="shared" si="2"/>
         <v>2.1698268003646309E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>46.07</v>
+      </c>
+      <c r="E24" s="4">
+        <f>0.000789*1000</f>
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="3">C24*D24/(E24 * 1000)</f>
+        <v>5.8390367553865653E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>61.206800000000001</v>
+      </c>
+      <c r="E25" s="4">
+        <f>0.00084175*1000</f>
+        <v>0.84175</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="3"/>
+        <v>7.2713751113751113E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>183.88</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E26" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F26" s="6">
         <f t="shared" si="2"/>
         <v>7.3551999999999992E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>19</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E29" s="4">
         <f>0.0032*1000</f>
         <v>3.2</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F29" s="6">
         <f t="shared" si="2"/>
         <v>5.9375000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4">
         <f>0.000216*1000</f>
         <v>0.216</v>
       </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
         <v>92.09</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E31" s="4">
         <f>0.012*1000</f>
         <v>12</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F31" s="6">
         <f t="shared" si="2"/>
         <v>7.6741666666666668E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
         <v>172.14</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E32" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F32" s="6">
         <f t="shared" si="2"/>
         <v>3.1298181818181815E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
         <v>3.016</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E33" s="4">
         <f>0.000000125*1000</f>
         <v>1.25E-4</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" ref="F30:F31" si="3">C30*D30/(E30 * 1000)</f>
+      <c r="F33" s="6">
+        <f t="shared" ref="F33:F35" si="4">C33*D33/(E33 * 1000)</f>
         <v>24.128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E34" s="4">
         <f>0.0000001786*1000</f>
         <v>1.786E-4</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" si="3"/>
+      <c r="F34" s="6">
+        <f t="shared" si="4"/>
         <v>22.407614781634937</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>34.01</v>
+      </c>
+      <c r="E35" s="4">
+        <f>0.001431*1000</f>
+        <v>1.431</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="4"/>
+        <v>2.3766596785464708E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>168.69</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E36" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F36" s="6">
         <f t="shared" si="2"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E37" s="4">
         <f>0.001004*1000</f>
         <v>1.004</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F37" s="6">
         <f t="shared" si="2"/>
         <v>3.1918326693227091E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <v>2.02</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E38" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F34" s="6">
-        <f t="shared" ref="F34:F44" si="4">C34*D34/(E34 * 1000)</f>
+      <c r="F38" s="6">
+        <f t="shared" ref="F38:F50" si="5">C38*D38/(E38 * 1000)</f>
         <v>22.469410456062288</v>
       </c>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <v>170.34</v>
+      </c>
+      <c r="E39" s="4">
+        <f>0.00082*1000</f>
+        <v>0.82</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" ref="F39" si="6">C39*D39/(E39 * 1000)</f>
+        <v>0.20773170731707319</v>
+      </c>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
         <v>6.94</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E40" s="4">
         <f xml:space="preserve"> 0.000534*1000</f>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="4"/>
+      <c r="F40" s="6">
+        <f t="shared" si="5"/>
         <v>1.2996254681647943E-2</v>
       </c>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <v>17.03</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E41" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="4"/>
+      <c r="F41" s="6">
+        <f t="shared" si="5"/>
         <v>2.4255804016521866E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
+        <v>28.01</v>
+      </c>
+      <c r="E42" s="4">
+        <f>0.00079*1000</f>
+        <v>0.79</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" ref="F42" si="7">C42*D42/(E42 * 1000)</f>
+        <v>3.5455696202531646E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <v>44.01</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E43" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" si="4"/>
+      <c r="F43" s="6">
+        <f t="shared" si="5"/>
         <v>3.7511186874067751E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E44" s="4">
         <f>0.0001624*1000</f>
         <v>0.16239999999999999</v>
       </c>
-      <c r="F38" s="6">
-        <f t="shared" si="4"/>
+      <c r="F44" s="6">
+        <f t="shared" si="5"/>
         <v>1.2401477832512315E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
         <v>3.016</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E45" s="4">
         <f>0.000059*1000</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F39" s="6">
-        <f>C39*D39/(E39 * 1000)</f>
+      <c r="F45" s="6">
+        <f>C45*D45/(E45 * 1000)</f>
         <v>5.1118644067796613E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E46" s="4">
         <f>0.0001786*1000</f>
         <v>0.17860000000000001</v>
       </c>
-      <c r="F40" s="6">
-        <f t="shared" ref="F40" si="5">C40*D40/(E40 * 1000)</f>
+      <c r="F46" s="6">
+        <f t="shared" ref="F46" si="8">C46*D46/(E46 * 1000)</f>
         <v>2.2407614781634933E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
         <v>2.02</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E47" s="4">
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F41" s="6">
-        <f>C41*D41/(E41 * 1000)</f>
+      <c r="F47" s="6">
+        <f>C47*D47/(E47 * 1000)</f>
         <v>2.8510938602681724E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
         <v>16.05</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E48" s="4">
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F42" s="6">
-        <f t="shared" si="4"/>
+      <c r="F48" s="6">
+        <f t="shared" si="5"/>
         <v>3.7710580108550079E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="9">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10">
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10">
         <v>32</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E49" s="11">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F43" s="12">
-        <f t="shared" si="4"/>
+      <c r="F49" s="12">
+        <f t="shared" si="5"/>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
         <v>28.01</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E50" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F44" s="6">
-        <f t="shared" si="4"/>
+      <c r="F50" s="6">
+        <f t="shared" si="5"/>
         <v>3.3955342844708553E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="4">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
-        <f>D41</f>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
+        <f>D47</f>
         <v>2.02</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E53" s="4">
         <f>0.007085*1000</f>
         <v>7.085</v>
       </c>
-      <c r="F47" s="6">
-        <f t="shared" ref="F47:F54" si="6">C47*D47/(E47 * 1000)</f>
+      <c r="F53" s="6">
+        <f t="shared" ref="F53:F60" si="9">C53*D53/(E53 * 1000)</f>
         <v>2.851093860268172E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
         <v>159.69</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E54" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F48" s="6">
-        <f t="shared" si="6"/>
+      <c r="F54" s="6">
+        <f t="shared" si="9"/>
         <v>2.9034545454545455E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E55" s="4">
         <f>0.026*1000</f>
         <v>26</v>
       </c>
-      <c r="F49" s="6">
-        <f t="shared" si="6"/>
+      <c r="F55" s="6">
+        <f t="shared" si="9"/>
         <v>4.2957692307692306E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E56" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F50" s="6">
-        <f t="shared" si="6"/>
+      <c r="F56" s="6">
+        <f t="shared" si="9"/>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E57" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F51" s="6">
-        <f t="shared" si="6"/>
+      <c r="F57" s="6">
+        <f t="shared" si="9"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E58" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F52" s="6">
-        <f t="shared" si="6"/>
+      <c r="F58" s="6">
+        <f t="shared" si="9"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="5">
+    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
         <v>46.07</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E59" s="4">
         <f>0.00088*1000</f>
         <v>0.88</v>
       </c>
-      <c r="F53" s="6">
-        <f t="shared" si="6"/>
+      <c r="F59" s="6">
+        <f t="shared" si="9"/>
         <v>5.2352272727272726E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5">
         <v>233.88</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E60" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F54" s="6">
-        <f t="shared" si="6"/>
+      <c r="F60" s="6">
+        <f t="shared" si="9"/>
         <v>4.6775999999999998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="4">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E62" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F56" s="6">
-        <f>C56*D56/(E56 * 1000)</f>
+      <c r="F62" s="6">
+        <f>C62*D62/(E62 * 1000)</f>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
         <v>92.04</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E63" s="4">
         <f>0.00145*1000</f>
         <v>1.45</v>
       </c>
-      <c r="F57" s="6">
-        <f>C57*D57/(E57 * 1000)</f>
+      <c r="F63" s="6">
+        <f>C63*D63/(E63 * 1000)</f>
         <v>6.3475862068965522E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="4">
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="4">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
         <v>32</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E66" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F60" s="6">
-        <f>C60*D60/(E60 * 1000)</f>
+      <c r="F66" s="6">
+        <f>C66*D66/(E66 * 1000)</f>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
         <v>30.97</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E67" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F61" s="6">
-        <f>C61*D61/(E61 * 1000)</f>
+      <c r="F67" s="6">
+        <f>C67*D67/(E67 * 1000)</f>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="4">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="4">
         <f>0.00104*1000</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5">
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E69" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F63" s="6">
-        <f>C63*D63/(E63 * 1000)</f>
-        <v>2.5010000000000001E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="4">
-        <f>0.00378*1000</f>
-        <v>3.78</v>
-      </c>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="4">
-        <f>0.0052*1000</f>
-        <v>5.2</v>
-      </c>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="4">
-        <f>0.0025*1000</f>
-        <v>2.5</v>
-      </c>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="4">
-        <f>0.004*1000</f>
-        <v>4</v>
-      </c>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5">
-        <v>76.08</v>
-      </c>
-      <c r="E68" s="4">
-        <f>0.0025*1000</f>
-        <v>2.5</v>
-      </c>
-      <c r="F68" s="6">
-        <f>C68*D68/(E68 * 1000)</f>
-        <v>3.0432000000000001E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
-        <v>28.09</v>
-      </c>
-      <c r="E69" s="4">
-        <f>0.002329*1000</f>
-        <v>2.3289999999999997</v>
-      </c>
       <c r="F69" s="6">
         <f>C69*D69/(E69 * 1000)</f>
-        <v>1.2060970373550882E-2</v>
+        <v>2.5010000000000001E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1">
@@ -3464,586 +3525,690 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B71" s="1"/>
       <c r="C71" s="1">
         <v>1</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="5"/>
+      <c r="E71" s="4">
+        <f>0.0052*1000</f>
+        <v>5.2</v>
+      </c>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="4">
+        <f>0.0025*1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="4">
+        <f>0.004*1000</f>
+        <v>4</v>
+      </c>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5">
+        <v>76.08</v>
+      </c>
+      <c r="E74" s="4">
+        <f>0.0025*1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="F74" s="6">
+        <f>C74*D74/(E74 * 1000)</f>
+        <v>3.0432000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5">
+        <v>28.09</v>
+      </c>
+      <c r="E75" s="4">
+        <f>0.002329*1000</f>
+        <v>2.3289999999999997</v>
+      </c>
+      <c r="F75" s="6">
+        <f>C75*D75/(E75 * 1000)</f>
+        <v>1.2060970373550882E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="4">
+        <f>0.00378*1000</f>
+        <v>3.78</v>
+      </c>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
         <v>186.09</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E77" s="4">
         <f>0.0031*1000</f>
         <v>3.1</v>
       </c>
-      <c r="F71" s="6">
-        <f t="shared" ref="F71" si="7">C71*D71/(E71 * 1000)</f>
+      <c r="F77" s="6">
+        <f t="shared" ref="F77" si="10">C77*D77/(E77 * 1000)</f>
         <v>6.0029032258064517E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="4">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="4">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5">
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E80" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F74" s="6">
-        <f>C74*D74/(E74 * 1000)</f>
+      <c r="F80" s="6">
+        <f>C80*D80/(E80 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5">
         <v>60.1</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E81" s="4">
         <f>0.000791*1000</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="F75" s="6">
-        <f>C75*D75/(E75 * 1000)</f>
+      <c r="F81" s="6">
+        <f>C81*D81/(E81 * 1000)</f>
         <v>7.5979772439949439E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
-        <f>SUM(($D$33*0.25)+($D$75*0.75))</f>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5">
+        <f>SUM(($D$37*0.25)+($D$81*0.75))</f>
         <v>53.086500000000001</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E82" s="4">
         <f>0.000829*1000</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="F76" s="6">
-        <f>C76*D76/(E76 * 1000)</f>
+      <c r="F82" s="6">
+        <f>C82*D82/(E82 * 1000)</f>
         <v>6.4036791314837152E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5">
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
         <v>18.02</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E83" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F77" s="6">
-        <f>C77*D77/(E77 * 1000)</f>
+      <c r="F83" s="6">
+        <f>C83*D83/(E83 * 1000)</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="4">
-        <f t="shared" ref="E80:E114" si="8">F80*1000</f>
+      <c r="D86" s="31"/>
+      <c r="E86" s="4">
+        <f t="shared" ref="E86:E120" si="11">F86*1000</f>
         <v>5</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F86" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="E81" s="4">
-        <f t="shared" si="8"/>
+      <c r="E87" s="4">
+        <f t="shared" si="11"/>
         <v>19.3</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F87" s="6">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="4">
-        <f t="shared" si="8"/>
+      <c r="E88" s="4">
+        <f t="shared" si="11"/>
         <v>54.4</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F88" s="6">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E83" s="4">
-        <f t="shared" si="8"/>
+      <c r="E89" s="4">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F89" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E84" s="4">
-        <f t="shared" si="8"/>
+      <c r="E90" s="4">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F90" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E85" s="4">
-        <f t="shared" si="8"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" s="4">
+        <f t="shared" si="11"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F91" s="6">
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E86" s="4">
-        <f t="shared" si="8"/>
+      <c r="E92" s="4">
+        <f t="shared" si="11"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F92" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E87" s="4">
-        <f t="shared" si="8"/>
+      <c r="E93" s="4">
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F93" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E88" s="4">
-        <f t="shared" si="8"/>
+      <c r="E94" s="4">
+        <f t="shared" si="11"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F94" s="6">
         <v>5.0108799999999997E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="E89" s="4">
-        <f t="shared" si="8"/>
+      <c r="E95" s="4">
+        <f t="shared" si="11"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F95" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E90" s="4">
-        <f t="shared" si="8"/>
+      <c r="E96" s="4">
+        <f t="shared" si="11"/>
         <v>0.216</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F96" s="6">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E91" s="4">
-        <f t="shared" si="8"/>
+      <c r="E97" s="4">
+        <f t="shared" si="11"/>
         <v>23.125</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F97" s="6">
         <v>2.3125E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E92" s="4">
-        <f t="shared" si="8"/>
+      <c r="E98" s="4">
+        <f t="shared" si="11"/>
         <v>5.25</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F98" s="6">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E93" s="4">
-        <f t="shared" si="8"/>
+      <c r="E99" s="4">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F99" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="E94" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="F94" s="6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F100" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="31" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E95" s="4">
-        <f t="shared" si="8"/>
+      <c r="E101" s="4">
+        <f t="shared" si="11"/>
         <v>12.5</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F101" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="31" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E96" s="4">
-        <f t="shared" si="8"/>
+      <c r="E102" s="4">
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F102" s="6">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E97" s="4">
-        <f t="shared" si="8"/>
+      <c r="E103" s="4">
+        <f t="shared" si="11"/>
         <v>13.5</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F103" s="6">
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E98" s="4">
-        <f t="shared" si="8"/>
+      <c r="E104" s="4">
+        <f t="shared" si="11"/>
         <v>8.6</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F104" s="6">
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E99" s="4">
-        <f t="shared" si="8"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="11"/>
         <v>19.099999999999998</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F105" s="6">
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E100" s="4">
-        <f t="shared" si="8"/>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="11"/>
         <v>10.97</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F106" s="6">
         <v>1.0970000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="4">
-        <f t="shared" si="8"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="4">
+        <f t="shared" si="11"/>
         <v>5.7050000000000001</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F107" s="6">
         <v>5.705E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="4">
-        <f t="shared" si="8"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="4">
+        <f t="shared" si="11"/>
         <v>13.5</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F108" s="6">
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="4">
-        <f t="shared" si="8"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="4">
+        <f t="shared" si="11"/>
         <v>0.35399999999999998</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F109" s="6">
         <v>3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="4">
-        <f t="shared" si="8"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="4">
+        <f t="shared" si="11"/>
         <v>2.12805</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F110" s="6">
         <v>2.1280499999999998E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="4">
-        <f t="shared" si="8"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="4">
+        <f t="shared" si="11"/>
         <v>1.08</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F111" s="6">
         <v>1.08E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="4">
-        <f t="shared" si="8"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="4">
+        <f t="shared" si="11"/>
         <v>4.1000000000000005</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F112" s="6">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="31" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="4">
-        <f t="shared" si="8"/>
+      <c r="E113" s="4">
+        <f t="shared" si="11"/>
         <v>12.5</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F113" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="31" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E108" s="4">
-        <f t="shared" si="8"/>
+      <c r="E114" s="4">
+        <f t="shared" si="11"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F114" s="6">
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E109" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="F109" s="6">
+      <c r="E115" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F115" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="31" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E110" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="F110" s="6">
+      <c r="E116" s="4">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F116" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="31" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="E111" s="4">
-        <f t="shared" si="8"/>
+      <c r="E117" s="4">
+        <f t="shared" si="11"/>
         <v>7.5</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F117" s="6">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="31" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E112" s="4">
-        <f t="shared" si="8"/>
+      <c r="E118" s="4">
+        <f t="shared" si="11"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F118" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="31" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="E113" s="4">
-        <f t="shared" si="8"/>
+      <c r="E119" s="4">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F119" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="31" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E114" s="4">
-        <f t="shared" si="8"/>
+      <c r="E120" s="4">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F120" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="30690" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="204">
   <si>
     <t>Resource</t>
   </si>
@@ -672,6 +672,15 @@
   <si>
     <t>Supports stock and CRP (only popular resources where correlated IRL resources can be found).</t>
   </si>
+  <si>
+    <t>Food (TAC)</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>WasteWater</t>
+  </si>
 </sst>
 </file>
 
@@ -682,10 +691,10 @@
     <numFmt numFmtId="165" formatCode="#,##0.000\ &quot;kg/unit&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;g/mol&quot;"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000&quot;:1&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000&quot;:1&quot;"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -962,16 +971,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="7"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,7 +991,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1306,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1316,14 +1325,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -1341,14 +1350,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
@@ -1385,23 +1394,23 @@
         <v>76</v>
       </c>
       <c r="B8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$123,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$123,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$123,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$123,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$123,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1444,14 +1453,14 @@
       <c r="F10" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
@@ -1488,23 +1497,23 @@
         <v>76</v>
       </c>
       <c r="B15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$123,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$123,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$123,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$123,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$120,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$123,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1547,14 +1556,14 @@
       <c r="F17" s="29"/>
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -1564,7 +1573,7 @@
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
         <v>Equal</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="34">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
         <v>1</v>
       </c>
@@ -1585,13 +1594,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$120</xm:f>
+            <xm:f>Database!$A$2:$A$123</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$120</xm:f>
+            <xm:f>Database!$A$2:$A$123</xm:f>
           </x14:formula1>
           <xm:sqref>B14:F14</xm:sqref>
         </x14:dataValidation>
@@ -1615,14 +1624,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -1640,14 +1649,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1684,23 +1693,23 @@
         <v>95</v>
       </c>
       <c r="B8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$86,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$86,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$86,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$86,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$86,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1709,23 +1718,23 @@
         <v>100</v>
       </c>
       <c r="B9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$86,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$86,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$86,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$86,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$86,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1789,14 +1798,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1833,23 +1842,23 @@
         <v>95</v>
       </c>
       <c r="B17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$86,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$86,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$86,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$86,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$83,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$86,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1858,23 +1867,23 @@
         <v>100</v>
       </c>
       <c r="B18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$86,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$86,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$86,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$86,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$83,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$86,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1941,14 +1950,14 @@
       <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -1958,7 +1967,7 @@
         <f>IF($B$12&gt;$B$21,"Input excesive",IF($B$12&lt;$B$21,"Output excessive","Equal"))</f>
         <v>Equal</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="34">
         <f>IF($B$12&gt;$B$21,B12/B21,IF($B$12&lt;$B$21,B21/B12,1))</f>
         <v>1</v>
       </c>
@@ -1979,13 +1988,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$120</xm:f>
+            <xm:f>Database!$A$2:$A$123</xm:f>
           </x14:formula1>
           <xm:sqref>B16:F16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$120</xm:f>
+            <xm:f>Database!$A$2:$A$123</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7</xm:sqref>
         </x14:dataValidation>
@@ -1997,11 +2006,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2236,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <f>SUM(($D$37*0.5)+($D$81*0.5))</f>
+        <f>SUM(($D$38*0.5)+($D$82*0.5))</f>
         <v>46.073</v>
       </c>
       <c r="E9" s="4">
@@ -2385,7 +2394,7 @@
         <v>1.951E-3</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:F37" si="2">C15*D15/(E15 * 1000)</f>
+        <f t="shared" ref="F15:F38" si="2">C15*D15/(E15 * 1000)</f>
         <v>22.557662737057917</v>
       </c>
     </row>
@@ -2671,562 +2680,552 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4">
+        <f xml:space="preserve"> 0.00028102905982906*1000</f>
+        <v>0.28102905982906001</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4">
         <f>0.000216*1000</f>
         <v>0.216</v>
       </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
         <v>92.09</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="4">
         <f>0.012*1000</f>
         <v>12</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="6">
         <f t="shared" si="2"/>
         <v>7.6741666666666668E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
         <v>172.14</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F33" s="6">
         <f t="shared" si="2"/>
         <v>3.1298181818181815E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
         <v>3.016</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="4">
         <f>0.000000125*1000</f>
         <v>1.25E-4</v>
       </c>
-      <c r="F33" s="6">
-        <f t="shared" ref="F33:F35" si="4">C33*D33/(E33 * 1000)</f>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:F36" si="4">C34*D34/(E34 * 1000)</f>
         <v>24.128</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <f>0.0000001786*1000</f>
         <v>1.786E-4</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <f t="shared" si="4"/>
         <v>22.407614781634937</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>34.01</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <f>0.001431*1000</f>
         <v>1.431</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="6">
         <f t="shared" si="4"/>
         <v>2.3766596785464708E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
         <v>168.69</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F37" s="6">
         <f t="shared" si="2"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="4">
         <f>0.001004*1000</f>
         <v>1.004</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <f t="shared" si="2"/>
         <v>3.1918326693227091E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
         <v>2.02</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F38" s="6">
-        <f t="shared" ref="F38:F50" si="5">C38*D38/(E38 * 1000)</f>
+      <c r="F39" s="6">
+        <f t="shared" ref="F39:F51" si="5">C39*D39/(E39 * 1000)</f>
         <v>22.469410456062288</v>
       </c>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
         <v>170.34</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <f>0.00082*1000</f>
         <v>0.82</v>
       </c>
-      <c r="F39" s="6">
-        <f t="shared" ref="F39" si="6">C39*D39/(E39 * 1000)</f>
+      <c r="F40" s="6">
+        <f t="shared" ref="F40" si="6">C40*D40/(E40 * 1000)</f>
         <v>0.20773170731707319</v>
       </c>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <v>6.94</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E41" s="4">
         <f xml:space="preserve"> 0.000534*1000</f>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="6">
         <f t="shared" si="5"/>
         <v>1.2996254681647943E-2</v>
       </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
         <v>17.03</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="6">
         <f t="shared" si="5"/>
         <v>2.4255804016521866E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <v>28.01</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <f>0.00079*1000</f>
         <v>0.79</v>
       </c>
-      <c r="F42" s="6">
-        <f t="shared" ref="F42" si="7">C42*D42/(E42 * 1000)</f>
+      <c r="F43" s="6">
+        <f t="shared" ref="F43" si="7">C43*D43/(E43 * 1000)</f>
         <v>3.5455696202531646E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <v>44.01</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="6">
         <f t="shared" si="5"/>
         <v>3.7511186874067751E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E45" s="4">
         <f>0.0001624*1000</f>
         <v>0.16239999999999999</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <f t="shared" si="5"/>
         <v>1.2401477832512315E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
         <v>3.016</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="4">
         <f>0.000059*1000</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F45" s="6">
-        <f>C45*D45/(E45 * 1000)</f>
+      <c r="F46" s="6">
+        <f>C46*D46/(E46 * 1000)</f>
         <v>5.1118644067796613E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <f>0.0001786*1000</f>
         <v>0.17860000000000001</v>
       </c>
-      <c r="F46" s="6">
-        <f t="shared" ref="F46" si="8">C46*D46/(E46 * 1000)</f>
+      <c r="F47" s="6">
+        <f t="shared" ref="F47" si="8">C47*D47/(E47 * 1000)</f>
         <v>2.2407614781634933E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
         <v>2.02</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="4">
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F47" s="6">
-        <f>C47*D47/(E47 * 1000)</f>
+      <c r="F48" s="6">
+        <f>C48*D48/(E48 * 1000)</f>
         <v>2.8510938602681724E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
         <v>16.05</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <f t="shared" si="5"/>
         <v>3.7710580108550079E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="9">
-        <v>1</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="C50" s="9">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10">
         <v>32</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F50" s="12">
         <f t="shared" si="5"/>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
         <v>28.01</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E51" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <f t="shared" si="5"/>
         <v>3.3955342844708553E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="4">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1">
         <v>1</v>
       </c>
-      <c r="D53" s="5">
-        <f>D47</f>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
+        <f>D48</f>
         <v>2.02</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="4">
         <f>0.007085*1000</f>
         <v>7.085</v>
       </c>
-      <c r="F53" s="6">
-        <f t="shared" ref="F53:F60" si="9">C53*D53/(E53 * 1000)</f>
+      <c r="F54" s="6">
+        <f t="shared" ref="F54:F61" si="9">C54*D54/(E54 * 1000)</f>
         <v>2.851093860268172E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
         <v>159.69</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F55" s="6">
         <f t="shared" si="9"/>
         <v>2.9034545454545455E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5">
-        <f>55.845*2</f>
-        <v>111.69</v>
-      </c>
-      <c r="E55" s="4">
-        <f>0.026*1000</f>
-        <v>26</v>
-      </c>
-      <c r="F55" s="6">
-        <f t="shared" si="9"/>
-        <v>4.2957692307692306E-3</v>
-      </c>
-    </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>47</v>
@@ -3239,181 +3238,190 @@
         <v>111.69</v>
       </c>
       <c r="E56" s="4">
+        <f>0.026*1000</f>
+        <v>26</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="9"/>
+        <v>4.2957692307692306E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <f>55.845*2</f>
+        <v>111.69</v>
+      </c>
+      <c r="E57" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <f t="shared" si="9"/>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="6">
         <f t="shared" si="9"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E59" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="6">
         <f t="shared" si="9"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5">
         <v>46.07</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="4">
         <f>0.00088*1000</f>
         <v>0.88</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F60" s="6">
         <f t="shared" si="9"/>
         <v>5.2352272727272726E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
         <v>233.88</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E61" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F61" s="6">
         <f t="shared" si="9"/>
         <v>4.6775999999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F61" s="6"/>
-    </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E63" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F62" s="6">
-        <f>C62*D62/(E62 * 1000)</f>
+      <c r="F63" s="6">
+        <f>C63*D63/(E63 * 1000)</f>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5">
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
         <v>92.04</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E64" s="4">
         <f>0.00145*1000</f>
         <v>1.45</v>
       </c>
-      <c r="F63" s="6">
-        <f>C63*D63/(E63 * 1000)</f>
+      <c r="F64" s="6">
+        <f>C64*D64/(E64 * 1000)</f>
         <v>6.3475862068965522E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="4">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1">
@@ -3421,794 +3429,838 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5">
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
         <v>32</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F66" s="6">
-        <f>C66*D66/(E66 * 1000)</f>
+      <c r="F67" s="6">
+        <f>C67*D67/(E67 * 1000)</f>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
         <v>30.97</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F67" s="6">
-        <f>C67*D67/(E67 * 1000)</f>
+      <c r="F68" s="6">
+        <f>C68*D68/(E68 * 1000)</f>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="4">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="4">
         <f>0.00104*1000</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F69" s="6">
-        <f>C69*D69/(E69 * 1000)</f>
+      <c r="F70" s="6">
+        <f>C70*D70/(E70 * 1000)</f>
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="4">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="4">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="4">
         <f>0.0052*1000</f>
         <v>5.2</v>
       </c>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="4">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="4">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="4">
         <f>0.004*1000</f>
         <v>4</v>
       </c>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5">
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5">
         <v>76.08</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E75" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F74" s="6">
-        <f>C74*D74/(E74 * 1000)</f>
+      <c r="F75" s="6">
+        <f>C75*D75/(E75 * 1000)</f>
         <v>3.0432000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5">
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
         <v>28.09</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E76" s="4">
         <f>0.002329*1000</f>
         <v>2.3289999999999997</v>
       </c>
-      <c r="F75" s="6">
-        <f>C75*D75/(E75 * 1000)</f>
+      <c r="F76" s="6">
+        <f>C76*D76/(E76 * 1000)</f>
         <v>1.2060970373550882E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="4">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5">
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
         <v>186.09</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="4">
         <f>0.0031*1000</f>
         <v>3.1</v>
       </c>
-      <c r="F77" s="6">
-        <f t="shared" ref="F77" si="10">C77*D77/(E77 * 1000)</f>
+      <c r="F78" s="6">
+        <f t="shared" ref="F78" si="10">C78*D78/(E78 * 1000)</f>
         <v>6.0029032258064517E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="4">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5">
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E81" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F80" s="6">
-        <f>C80*D80/(E80 * 1000)</f>
+      <c r="F81" s="6">
+        <f>C81*D81/(E81 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5">
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5">
         <v>60.1</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="4">
         <f>0.000791*1000</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="F81" s="6">
-        <f>C81*D81/(E81 * 1000)</f>
+      <c r="F82" s="6">
+        <f>C82*D82/(E82 * 1000)</f>
         <v>7.5979772439949439E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5">
-        <f>SUM(($D$37*0.25)+($D$81*0.75))</f>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
+        <f>SUM(($D$38*0.25)+($D$82*0.75))</f>
         <v>53.086500000000001</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E83" s="4">
         <f>0.000829*1000</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="F82" s="6">
-        <f>C82*D82/(E82 * 1000)</f>
-        <v>6.4036791314837152E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5">
-        <v>18.02</v>
-      </c>
-      <c r="E83" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F83" s="6">
         <f>C83*D83/(E83 * 1000)</f>
-        <v>1.8020000000000001E-2</v>
-      </c>
+        <v>6.4036791314837152E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="4">
+        <f>0.00075*1000</f>
+        <v>0.75</v>
+      </c>
+      <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4">
+        <f>0.001005*1000</f>
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5">
+        <v>18.02</v>
+      </c>
+      <c r="E86" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F86" s="6">
+        <f>C86*D86/(E86 * 1000)</f>
+        <v>1.8020000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="30" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D86" s="31"/>
-      <c r="E86" s="4">
-        <f t="shared" ref="E86:E120" si="11">F86*1000</f>
+      <c r="D89" s="31"/>
+      <c r="E89" s="4">
+        <f t="shared" ref="E89:E123" si="11">F89*1000</f>
         <v>5</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F89" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="30" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E90" s="4">
         <f t="shared" si="11"/>
         <v>19.3</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F90" s="6">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E91" s="4">
         <f t="shared" si="11"/>
         <v>54.4</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F91" s="6">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E92" s="4">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F92" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E93" s="4">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F93" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E94" s="4">
         <f t="shared" si="11"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F94" s="6">
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E95" s="4">
         <f t="shared" si="11"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F95" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E96" s="4">
         <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F96" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="30" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E97" s="4">
         <f t="shared" si="11"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F97" s="6">
         <v>5.0108799999999997E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="30" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E98" s="4">
         <f t="shared" si="11"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F98" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="30" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E99" s="4">
         <f t="shared" si="11"/>
         <v>0.216</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F99" s="6">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E100" s="4">
         <f t="shared" si="11"/>
         <v>23.125</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F100" s="6">
         <v>2.3125E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E101" s="4">
         <f t="shared" si="11"/>
         <v>5.25</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F101" s="6">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="30" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E102" s="4">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F102" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="30" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E103" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F103" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E104" s="4">
         <f t="shared" si="11"/>
         <v>12.5</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F104" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E105" s="4">
         <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F105" s="6">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E106" s="4">
         <f t="shared" si="11"/>
         <v>13.5</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F106" s="6">
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="30" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E107" s="4">
         <f t="shared" si="11"/>
         <v>8.6</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F107" s="6">
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E108" s="4">
         <f t="shared" si="11"/>
         <v>19.099999999999998</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F108" s="6">
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="30" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E109" s="4">
         <f t="shared" si="11"/>
         <v>10.97</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F109" s="6">
         <v>1.0970000000000001E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="4">
-        <f t="shared" si="11"/>
-        <v>5.7050000000000001</v>
-      </c>
-      <c r="F107" s="6">
-        <v>5.705E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="4">
-        <f t="shared" si="11"/>
-        <v>13.5</v>
-      </c>
-      <c r="F108" s="6">
-        <v>1.35E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="4">
-        <f t="shared" si="11"/>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="F109" s="6">
-        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="3"/>
       <c r="E110" s="4">
         <f t="shared" si="11"/>
-        <v>2.12805</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F110" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="3"/>
       <c r="E111" s="4">
         <f t="shared" si="11"/>
-        <v>1.08</v>
+        <v>13.5</v>
       </c>
       <c r="F111" s="6">
-        <v>1.08E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="3"/>
       <c r="E112" s="4">
         <f t="shared" si="11"/>
-        <v>4.1000000000000005</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F112" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>52</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="3"/>
       <c r="E113" s="4">
         <f t="shared" si="11"/>
-        <v>12.5</v>
+        <v>2.12805</v>
       </c>
       <c r="F113" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>71</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="3"/>
       <c r="E114" s="4">
         <f t="shared" si="11"/>
-        <v>4.5999999999999996</v>
+        <v>1.08</v>
       </c>
       <c r="F114" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="3"/>
       <c r="E115" s="4">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F115" s="6">
-        <v>1E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="F116" s="6">
-        <v>1E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="11"/>
-        <v>7.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F117" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="11"/>
-        <v>4.3499999999999996</v>
+        <v>1</v>
       </c>
       <c r="F118" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F119" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="F120" s="6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E121" s="4">
+        <f t="shared" si="11"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F121" s="6">
+        <v>4.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E122" s="4">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F122" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E123" s="4">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="F123" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="2"/>
+    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="205">
   <si>
     <t>Resource</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>WasteWater</t>
+  </si>
+  <si>
+    <t>D+He3</t>
   </si>
 </sst>
 </file>
@@ -1315,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1614,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2008,9 +2011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B84" sqref="B84"/>
+      <selection pane="topRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2695,16 +2698,24 @@
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5">
+        <f>5.03</f>
+        <v>5.03</v>
+      </c>
       <c r="E31" s="4">
         <f>0.000216*1000</f>
         <v>0.216</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3287037037037037E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -3184,7 +3195,9 @@
       <c r="A54" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C54" s="1">
         <v>1</v>
       </c>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="205">
   <si>
     <t>Resource</t>
   </si>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1367,10 +1367,10 @@
         <v>97</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C6" s="18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
@@ -1386,8 +1386,12 @@
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -1396,13 +1400,13 @@
       <c r="A8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="21" t="str">
+      <c r="B8" s="21">
         <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$123,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C8" s="21" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="21">
         <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$123,5,FALSE),"-")</f>
-        <v>-</v>
+        <v>2.5</v>
       </c>
       <c r="D8" s="21" t="str">
         <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$123,5,FALSE),"-")</f>
@@ -1421,13 +1425,13 @@
       <c r="A9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="24" t="str">
+      <c r="B9" s="24">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C9" s="24" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1448,7 +1452,7 @@
       </c>
       <c r="B10" s="33">
         <f>SUM(B9:F9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -1470,7 +1474,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="18">
-        <v>0</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C13" s="18">
         <v>0</v>
@@ -1489,7 +1493,9 @@
       <c r="A14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="27" t="s">
+        <v>125</v>
+      </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
@@ -1499,9 +1505,9 @@
       <c r="A15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="21">
         <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$123,5,FALSE),"-")</f>
-        <v>-</v>
+        <v>3.78</v>
       </c>
       <c r="C15" s="21" t="str">
         <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$123,5,FALSE),"-")</f>
@@ -1524,9 +1530,9 @@
       <c r="A16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="32" t="str">
+      <c r="B16" s="32">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
-        <v>-</v>
+        <v>0.24948000000000001</v>
       </c>
       <c r="C16" s="24" t="str">
         <f t="shared" si="1"/>
@@ -1551,7 +1557,7 @@
       </c>
       <c r="B17" s="33">
         <f>SUM(B16:F16)</f>
-        <v>0</v>
+        <v>0.24948000000000001</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -1574,11 +1580,11 @@
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Equal</v>
+        <v>Input excesive</v>
       </c>
       <c r="C20" s="34">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>1</v>
+        <v>4.0083373416706749</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="205">
   <si>
     <t>Resource</t>
   </si>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1367,7 @@
         <v>97</v>
       </c>
       <c r="B6" s="18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="18">
         <v>0.2</v>
@@ -1387,10 +1387,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -1402,11 +1402,11 @@
       </c>
       <c r="B8" s="21">
         <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$123,5,FALSE),"-")</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="21">
         <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$123,5,FALSE),"-")</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D8" s="21" t="str">
         <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$123,5,FALSE),"-")</f>
@@ -1427,11 +1427,11 @@
       </c>
       <c r="B9" s="24">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9" s="24">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D9" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1474,10 +1474,10 @@
         <v>97</v>
       </c>
       <c r="B13" s="18">
-        <v>6.6000000000000003E-2</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="C13" s="18">
-        <v>0</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D13" s="18">
         <v>0</v>
@@ -1494,9 +1494,11 @@
         <v>103</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -1507,11 +1509,11 @@
       </c>
       <c r="B15" s="21">
         <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$123,5,FALSE),"-")</f>
-        <v>3.78</v>
-      </c>
-      <c r="C15" s="21" t="str">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C15" s="21">
         <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$123,5,FALSE),"-")</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D15" s="21" t="str">
         <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$123,5,FALSE),"-")</f>
@@ -1532,11 +1534,11 @@
       </c>
       <c r="B16" s="32">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
-        <v>0.24948000000000001</v>
-      </c>
-      <c r="C16" s="24" t="str">
+        <v>0.51507000000000003</v>
+      </c>
+      <c r="C16" s="24">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="D16" s="32" t="str">
         <f t="shared" si="1"/>
@@ -1557,7 +1559,7 @@
       </c>
       <c r="B17" s="33">
         <f>SUM(B16:F16)</f>
-        <v>0.24948000000000001</v>
+        <v>1.00007</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -1580,11 +1582,11 @@
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Input excesive</v>
+        <v>Output excessive</v>
       </c>
       <c r="C20" s="34">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>4.0083373416706749</v>
+        <v>1.00007</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1623,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2017,9 +2019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B31" sqref="B31"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="206">
   <si>
     <t>Resource</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Xenotime (YPO4)</t>
   </si>
   <si>
-    <t>MetalOre</t>
-  </si>
-  <si>
     <t>RareMetals</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>Platinum (Pt)</t>
   </si>
   <si>
-    <t>Iron (Fe)</t>
-  </si>
-  <si>
     <t>Carbon</t>
   </si>
   <si>
@@ -283,9 +277,6 @@
   </si>
   <si>
     <t>SolidFuel</t>
-  </si>
-  <si>
-    <t>Metal(s)</t>
   </si>
   <si>
     <t>Amonium Perchlorate</t>
@@ -683,6 +674,18 @@
   </si>
   <si>
     <t>D+He3</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Metal (EL)</t>
+  </si>
+  <si>
+    <t>MetalOre (EL)</t>
+  </si>
+  <si>
+    <t>Iron (Fe2)</t>
   </si>
 </sst>
 </file>
@@ -1319,17 +1322,18 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="18.625" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -1339,22 +1343,22 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1364,13 +1368,13 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
       </c>
       <c r="C6" s="18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
@@ -1384,54 +1388,50 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>122</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="21">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$123,5,FALSE),"-")</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="21">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$123,5,FALSE),"-")</f>
-        <v>5</v>
+        <v>74</v>
+      </c>
+      <c r="B8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$124,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$124,5,FALSE),"-")</f>
+        <v>-</v>
       </c>
       <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$123,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$124,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$123,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$124,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$123,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$124,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="24">
+        <v>73</v>
+      </c>
+      <c r="B9" s="24" t="str">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="24">
+        <v>-</v>
+      </c>
+      <c r="C9" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="D9" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1448,11 +1448,11 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="33">
         <f>SUM(B9:F9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B13" s="18">
-        <v>1.4550000000000001</v>
+        <v>0</v>
       </c>
       <c r="C13" s="18">
-        <v>9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="18">
         <v>0</v>
@@ -1491,54 +1491,50 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>8</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="21">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$123,5,FALSE),"-")</f>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="C15" s="21">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$123,5,FALSE),"-")</f>
-        <v>5</v>
+        <v>74</v>
+      </c>
+      <c r="B15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$124,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$124,5,FALSE),"-")</f>
+        <v>-</v>
       </c>
       <c r="D15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$123,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$124,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$123,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$124,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$123,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$124,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="32">
+        <v>73</v>
+      </c>
+      <c r="B16" s="32" t="str">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
-        <v>0.51507000000000003</v>
-      </c>
-      <c r="C16" s="24">
+        <v>-</v>
+      </c>
+      <c r="C16" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>0.48499999999999999</v>
+        <v>-</v>
       </c>
       <c r="D16" s="32" t="str">
         <f t="shared" si="1"/>
@@ -1555,11 +1551,11 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="33">
         <f>SUM(B16:F16)</f>
-        <v>1.00007</v>
+        <v>0</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -1568,7 +1564,7 @@
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -1578,15 +1574,15 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Output excessive</v>
+        <v>Equal</v>
       </c>
       <c r="C20" s="34">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>1.00007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1602,18 +1598,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$123</xm:f>
+            <xm:f>Database!$A$2:$A$124</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:F7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Database!$A$2:$A$123</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14:F14</xm:sqref>
+          <xm:sqref>B7:F7 B14:F14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1626,7 +1616,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1626,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -1646,22 +1636,22 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1671,7 +1661,7 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -1691,7 +1681,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -1701,57 +1691,57 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$86,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$87,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$86,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$87,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$86,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$87,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$86,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$87,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$86,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$87,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$86,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$87,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$86,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$87,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$86,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$87,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$86,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$87,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$86,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$87,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" s="19">
         <f>IFERROR(B6*B8,0)</f>
@@ -1776,7 +1766,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" s="26" t="str">
         <f>IFERROR(B10/(B9*1000),"-")</f>
@@ -1801,7 +1791,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B12" s="24">
         <f>SUM(B10:F10)</f>
@@ -1810,7 +1800,7 @@
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -1820,7 +1810,7 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B15" s="18">
         <v>0</v>
@@ -1840,7 +1830,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -1850,57 +1840,57 @@
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$86,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$87,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$86,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$87,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$86,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$87,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$86,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$87,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$86,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$87,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$86,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$87,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$86,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$87,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$86,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$87,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$86,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$87,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$86,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$87,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B19" s="19">
         <f>IFERROR(B15*B17,0)</f>
@@ -1925,7 +1915,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B20" s="26" t="str">
         <f>IFERROR(B19/(B18*1000),"-")</f>
@@ -1950,7 +1940,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" s="24">
         <f>SUM(B19:F19)</f>
@@ -1962,7 +1952,7 @@
     </row>
     <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -1972,7 +1962,7 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="20" t="str">
         <f>IF($B$12&gt;$B$21,"Input excesive",IF($B$12&lt;$B$21,"Output excessive","Equal"))</f>
@@ -1999,13 +1989,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$123</xm:f>
+            <xm:f>Database!$A$2:$A$124</xm:f>
           </x14:formula1>
           <xm:sqref>B16:F16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$123</xm:f>
+            <xm:f>Database!$A$2:$A$124</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7</xm:sqref>
         </x14:dataValidation>
@@ -2017,16 +2007,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -2057,10 +2047,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2081,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2112,10 +2102,10 @@
         <v>3.4068000000000001E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <v>117.49</v>
@@ -2147,10 +2137,10 @@
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>26.98</v>
@@ -2182,10 +2172,10 @@
         <v>8.0114999999999995E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K5">
         <v>71.84</v>
@@ -2220,7 +2210,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -2236,10 +2226,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="23">
         <v>0.12</v>
@@ -2247,16 +2237,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <f>SUM(($D$38*0.5)+($D$82*0.5))</f>
+        <f>SUM(($D$38*0.5)+($D$83*0.5))</f>
         <v>46.073</v>
       </c>
       <c r="E9" s="4">
@@ -2268,10 +2258,10 @@
         <v>5.1192222222222222E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="22">
         <v>1.9599999999999999E-2</v>
@@ -2279,10 +2269,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -2301,10 +2291,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -2367,10 +2357,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -2389,7 +2379,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -2411,10 +2401,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -2433,7 +2423,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
@@ -2448,10 +2438,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -2470,7 +2460,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
@@ -2485,10 +2475,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2507,10 +2497,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2529,10 +2519,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -2551,10 +2541,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -2573,10 +2563,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -2595,10 +2585,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -2639,7 +2629,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1">
@@ -2654,7 +2644,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1">
@@ -2669,10 +2659,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2691,7 +2681,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2704,10 +2694,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -2727,10 +2717,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2771,10 +2761,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -2793,10 +2783,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -2815,10 +2805,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -2859,10 +2849,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -2882,7 +2872,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>16</v>
@@ -2905,7 +2895,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
@@ -2928,10 +2918,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -2973,10 +2963,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -3017,10 +3007,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -3039,10 +3029,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -3061,10 +3051,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -3083,7 +3073,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>16</v>
@@ -3127,7 +3117,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>9</v>
@@ -3149,7 +3139,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>22</v>
@@ -3171,7 +3161,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1">
@@ -3186,7 +3176,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1">
@@ -3201,7 +3191,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>16</v>
@@ -3218,16 +3208,16 @@
         <v>7.085</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" ref="F54:F61" si="9">C54*D54/(E54 * 1000)</f>
+        <f t="shared" ref="F54:F62" si="9">C54*D54/(E54 * 1000)</f>
         <v>2.851093860268172E-4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -3246,17 +3236,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="5">
-        <f>55.845*2</f>
-        <v>111.69</v>
+        <v>159.69</v>
       </c>
       <c r="E56" s="4">
         <f>0.026*1000</f>
@@ -3264,15 +3253,15 @@
       </c>
       <c r="F56" s="6">
         <f t="shared" si="9"/>
-        <v>4.2957692307692306E-3</v>
+        <v>6.1419230769230769E-3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -3282,181 +3271,190 @@
         <v>111.69</v>
       </c>
       <c r="E57" s="4">
+        <f>0.039*1000</f>
+        <v>39</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="9"/>
+        <v>2.8638461538461539E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
+        <f>55.845*2</f>
+        <v>111.69</v>
+      </c>
+      <c r="E58" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="6">
         <f t="shared" si="9"/>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E59" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="6">
         <f t="shared" si="9"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F60" s="6">
         <f t="shared" si="9"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5">
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
         <v>46.07</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E61" s="4">
         <f>0.00088*1000</f>
         <v>0.88</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F61" s="6">
         <f t="shared" si="9"/>
         <v>5.2352272727272726E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
         <v>233.88</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="6">
         <f t="shared" si="9"/>
         <v>4.6775999999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F62" s="6"/>
-    </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5">
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E64" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F63" s="6">
-        <f>C63*D63/(E63 * 1000)</f>
+      <c r="F64" s="6">
+        <f>C64*D64/(E64 * 1000)</f>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
         <v>92.04</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E65" s="4">
         <f>0.00145*1000</f>
         <v>1.45</v>
       </c>
-      <c r="F64" s="6">
-        <f>C64*D64/(E64 * 1000)</f>
+      <c r="F65" s="6">
+        <f>C65*D65/(E65 * 1000)</f>
         <v>6.3475862068965522E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="4">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1">
@@ -3464,261 +3462,260 @@
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
         <v>32</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F67" s="6">
-        <f>C67*D67/(E67 * 1000)</f>
+      <c r="F68" s="6">
+        <f>C68*D68/(E68 * 1000)</f>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
         <v>30.97</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F68" s="6">
-        <f>C68*D68/(E68 * 1000)</f>
+      <c r="F69" s="6">
+        <f>C69*D69/(E69 * 1000)</f>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="4">
         <f>0.00104*1000</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5">
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E71" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F70" s="6">
-        <f>C70*D70/(E70 * 1000)</f>
+      <c r="F71" s="6">
+        <f>C71*D71/(E71 * 1000)</f>
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="4">
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="4">
         <f>0.0052*1000</f>
         <v>5.2</v>
       </c>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="4">
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="4">
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="4">
         <f>0.004*1000</f>
         <v>4</v>
       </c>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5">
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
         <v>76.08</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E76" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F75" s="6">
-        <f>C75*D75/(E75 * 1000)</f>
+      <c r="F76" s="6">
+        <f>C76*D76/(E76 * 1000)</f>
         <v>3.0432000000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
         <v>28.09</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E77" s="4">
         <f>0.002329*1000</f>
         <v>2.3289999999999997</v>
       </c>
-      <c r="F76" s="6">
-        <f>C76*D76/(E76 * 1000)</f>
+      <c r="F77" s="6">
+        <f>C77*D77/(E77 * 1000)</f>
         <v>1.2060970373550882E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5">
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5">
         <v>186.09</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E79" s="4">
         <f>0.0031*1000</f>
         <v>3.1</v>
       </c>
-      <c r="F78" s="6">
-        <f t="shared" ref="F78" si="10">C78*D78/(E78 * 1000)</f>
+      <c r="F79" s="6">
+        <f t="shared" ref="F79" si="10">C79*D79/(E79 * 1000)</f>
         <v>6.0029032258064517E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
-      </c>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
       </c>
       <c r="F80" s="6"/>
     </row>
@@ -3726,508 +3723,511 @@
       <c r="A81" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="B81" s="1"/>
       <c r="C81" s="1">
         <v>1</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="5"/>
+      <c r="E81" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F81" s="6">
-        <f>C81*D81/(E81 * 1000)</f>
+      <c r="F82" s="6">
+        <f>C82*D82/(E82 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
         <v>60.1</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E83" s="4">
         <f>0.000791*1000</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="F82" s="6">
-        <f>C82*D82/(E82 * 1000)</f>
+      <c r="F83" s="6">
+        <f>C83*D83/(E83 * 1000)</f>
         <v>7.5979772439949439E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5">
-        <f>SUM(($D$38*0.25)+($D$82*0.75))</f>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
+        <f>SUM(($D$38*0.25)+($D$83*0.75))</f>
         <v>53.086500000000001</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="4">
         <f>0.000829*1000</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="F83" s="6">
-        <f>C83*D83/(E83 * 1000)</f>
+      <c r="F84" s="6">
+        <f>C84*D84/(E84 * 1000)</f>
         <v>6.4036791314837152E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4">
         <f>0.00075*1000</f>
         <v>0.75</v>
       </c>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="4">
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4">
         <f>0.001005*1000</f>
         <v>1.0050000000000001</v>
       </c>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="5">
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5">
         <v>18.02</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E87" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F86" s="6">
-        <f>C86*D86/(E86 * 1000)</f>
+      <c r="F87" s="6">
+        <f>C87*D87/(E87 * 1000)</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D89" s="31"/>
-      <c r="E89" s="4">
-        <f t="shared" ref="E89:E123" si="11">F89*1000</f>
-        <v>5</v>
-      </c>
-      <c r="F89" s="6">
-        <v>5.0000000000000001E-3</v>
+      <c r="A89" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D90" s="31"/>
       <c r="E90" s="4">
+        <f t="shared" ref="E90:E124" si="11">F90*1000</f>
+        <v>5</v>
+      </c>
+      <c r="F90" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" s="4">
         <f t="shared" si="11"/>
         <v>19.3</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F91" s="6">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E91" s="4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" s="4">
         <f t="shared" si="11"/>
         <v>54.4</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F92" s="6">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E92" s="4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93" s="4">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F93" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E93" s="4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" s="4">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F94" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E94" s="4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="4">
         <f t="shared" si="11"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F95" s="6">
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E95" s="4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E96" s="4">
         <f t="shared" si="11"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F96" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E96" s="4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" s="4">
         <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F97" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E97" s="4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E98" s="4">
         <f t="shared" si="11"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F98" s="6">
         <v>5.0108799999999997E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E98" s="4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" s="4">
         <f t="shared" si="11"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F99" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E99" s="4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E100" s="4">
         <f t="shared" si="11"/>
         <v>0.216</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F100" s="6">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E100" s="4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" s="4">
         <f t="shared" si="11"/>
         <v>23.125</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F101" s="6">
         <v>2.3125E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E102" s="4">
         <f t="shared" si="11"/>
         <v>5.25</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F102" s="6">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E102" s="4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" s="4">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F103" s="6">
         <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E103" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="F103" s="6">
-        <v>1E-3</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="E104" s="4">
         <f t="shared" si="11"/>
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="F104" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="E105" s="4">
         <f t="shared" si="11"/>
-        <v>2.4</v>
+        <v>12.5</v>
       </c>
       <c r="F105" s="6">
-        <v>2.3999999999999998E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E106" s="4">
         <f t="shared" si="11"/>
-        <v>13.5</v>
+        <v>2.4</v>
       </c>
       <c r="F106" s="6">
-        <v>1.35E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E107" s="4">
         <f t="shared" si="11"/>
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="F107" s="6">
-        <v>8.6E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="E108" s="4">
         <f t="shared" si="11"/>
-        <v>19.099999999999998</v>
+        <v>8.6</v>
       </c>
       <c r="F108" s="6">
-        <v>1.9099999999999999E-2</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E109" s="4">
         <f t="shared" si="11"/>
-        <v>10.97</v>
+        <v>19.099999999999998</v>
       </c>
       <c r="F109" s="6">
-        <v>1.0970000000000001E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="3"/>
+        <v>170</v>
+      </c>
       <c r="E110" s="4">
         <f t="shared" si="11"/>
-        <v>5.7050000000000001</v>
+        <v>10.97</v>
       </c>
       <c r="F110" s="6">
-        <v>5.705E-3</v>
+        <v>1.0970000000000001E-2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="3"/>
       <c r="E111" s="4">
         <f t="shared" si="11"/>
-        <v>13.5</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F111" s="6">
-        <v>1.35E-2</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="3"/>
       <c r="E112" s="4">
         <f t="shared" si="11"/>
-        <v>0.35399999999999998</v>
+        <v>13.5</v>
       </c>
       <c r="F112" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="3"/>
       <c r="E113" s="4">
         <f t="shared" si="11"/>
-        <v>2.12805</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F113" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="3"/>
       <c r="E114" s="4">
         <f t="shared" si="11"/>
-        <v>1.08</v>
+        <v>2.12805</v>
       </c>
       <c r="F114" s="6">
-        <v>1.08E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="3"/>
       <c r="E115" s="4">
         <f t="shared" si="11"/>
-        <v>4.1000000000000005</v>
+        <v>1.08</v>
       </c>
       <c r="F115" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>52</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="3"/>
       <c r="E116" s="4">
         <f t="shared" si="11"/>
-        <v>12.5</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F116" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="11"/>
-        <v>4.5999999999999996</v>
+        <v>12.5</v>
       </c>
       <c r="F117" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F118" s="6">
-        <v>1E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="11"/>
@@ -4239,49 +4239,61 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="11"/>
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="F120" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E121" s="4">
         <f t="shared" si="11"/>
-        <v>4.3499999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="F121" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E122" s="4">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F122" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="E123" s="4">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="F123" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="4">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="F124" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -529,9 +529,6 @@
   </si>
   <si>
     <t>LiAl(SiO3)2</t>
-  </si>
-  <si>
-    <t>Radical Metasilicate (SiO3)</t>
   </si>
   <si>
     <t>Glycerol (C3H8O3)</t>
@@ -686,6 +683,9 @@
   </si>
   <si>
     <t>Iron (Fe2)</t>
+  </si>
+  <si>
+    <t>Orthosilicate (SiO4)</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1348,12 +1348,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1615,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1641,12 +1641,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2009,9 +2009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B52" sqref="B52"/>
+      <selection pane="topRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>160</v>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>137</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>150</v>
@@ -2563,10 +2563,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2697,7 +2697,7 @@
         <v>107</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -2720,7 +2720,7 @@
         <v>142</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>149</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
@@ -2963,10 +2963,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -3051,10 +3051,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>138</v>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -3281,10 +3281,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -3353,7 +3353,7 @@
         <v>154</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -3435,7 +3435,7 @@
         <v>155</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -3628,13 +3628,13 @@
         <v>36</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
       <c r="D76" s="5">
-        <v>76.08</v>
+        <v>92.08</v>
       </c>
       <c r="E76" s="4">
         <f>0.0025*1000</f>
@@ -3642,15 +3642,15 @@
       </c>
       <c r="F76" s="6">
         <f>C76*D76/(E76 * 1000)</f>
-        <v>3.0432000000000001E-2</v>
+        <v>3.6831999999999997E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1">
@@ -3818,7 +3818,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1">
@@ -4089,7 +4089,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E109" s="4">
         <f t="shared" si="11"/>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E110" s="4">
         <f t="shared" si="11"/>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="1"/>
+    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="208">
   <si>
     <t>Resource</t>
   </si>
@@ -685,7 +685,13 @@
     <t>Iron (Fe2)</t>
   </si>
   <si>
-    <t>Orthosilicate (SiO4)</t>
+    <t>Metasilicate (SiO3)</t>
+  </si>
+  <si>
+    <t>Molten Quartz</t>
+  </si>
+  <si>
+    <t>SiO2</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
     <numFmt numFmtId="170" formatCode="0.00000"/>
     <numFmt numFmtId="171" formatCode="#,##0.0000&quot;:1&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -813,6 +819,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -843,7 +856,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -908,6 +921,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -920,7 +942,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -979,7 +1001,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -996,6 +1017,20 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1319,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1331,49 +1366,51 @@
     <col min="10" max="10" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <f>H6*H8</f>
+        <v>3.7510000000000002E-2</v>
       </c>
       <c r="C6" s="18">
+        <f>I6*H8</f>
         <v>0</v>
       </c>
       <c r="D6" s="18">
@@ -1385,53 +1422,66 @@
       <c r="F6" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="37">
+        <v>3.7510000000000002E-2</v>
+      </c>
+      <c r="I6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$124,5,FALSE),"-")</f>
+      <c r="B8" s="21">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$125,5,FALSE),"-")</f>
+        <v>1.1732500000000001</v>
+      </c>
+      <c r="C8" s="21">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$125,5,FALSE),"-")</f>
+        <v>1.141</v>
+      </c>
+      <c r="D8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$125,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$124,5,FALSE),"-")</f>
+      <c r="E8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$125,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$124,5,FALSE),"-")</f>
+      <c r="F8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$125,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$124,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$124,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="24" t="str">
+      <c r="B9" s="24">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C9" s="24" t="str">
+        <v>4.4008607500000005E-2</v>
+      </c>
+      <c r="C9" s="24">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="D9" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1446,37 +1496,39 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <f>SUM(B9:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+        <v>4.4008607500000005E-2</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B13" s="18">
-        <v>0</v>
+        <f>H13*H8</f>
+        <v>22.577660000000002</v>
       </c>
       <c r="C13" s="18">
+        <f>C6*0.22818</f>
         <v>0</v>
       </c>
       <c r="D13" s="18">
@@ -1488,55 +1540,62 @@
       <c r="F13" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="37">
+        <v>22.577660000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$124,5,FALSE),"-")</f>
+      <c r="B15" s="21">
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$125,5,FALSE),"-")</f>
+        <v>1.951E-3</v>
+      </c>
+      <c r="C15" s="21">
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$125,5,FALSE),"-")</f>
+        <v>1.141</v>
+      </c>
+      <c r="D15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$125,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$124,5,FALSE),"-")</f>
+      <c r="E15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$125,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$124,5,FALSE),"-")</f>
+      <c r="F15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$125,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$124,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$124,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="32" t="str">
+      <c r="B16" s="31">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C16" s="24" t="str">
+        <v>4.4049014660000003E-2</v>
+      </c>
+      <c r="C16" s="24">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="D16" s="32" t="str">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -1553,24 +1612,24 @@
       <c r="A17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <f>SUM(B16:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+        <v>4.4049014660000003E-2</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -1578,11 +1637,11 @@
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Equal</v>
-      </c>
-      <c r="C20" s="34">
+        <v>Output excessive</v>
+      </c>
+      <c r="C20" s="33">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>1</v>
+        <v>1.0009181649294403</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,7 +1660,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$124</xm:f>
+            <xm:f>Database!$A$2:$A$125</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7 B14:F14</xm:sqref>
         </x14:dataValidation>
@@ -1613,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1624,49 +1683,51 @@
     <col min="1" max="6" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <f>H6*H7</f>
+        <v>1</v>
       </c>
       <c r="C6" s="18">
+        <f>I6*H7</f>
         <v>0</v>
       </c>
       <c r="D6" s="18">
@@ -1678,74 +1739,85 @@
       <c r="F6" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="37">
+        <v>1</v>
+      </c>
+      <c r="I6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$87,4,FALSE),"-")</f>
+      <c r="B8" s="21">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$88,4,FALSE),"-")</f>
+        <v>76.08</v>
+      </c>
+      <c r="C8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$88,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$87,4,FALSE),"-")</f>
+      <c r="D8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$88,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$87,4,FALSE),"-")</f>
+      <c r="E8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$88,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$87,4,FALSE),"-")</f>
+      <c r="F8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$88,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$87,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+      <c r="B9" s="21">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$88,5,FALSE),"-")</f>
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$88,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+      <c r="D9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$88,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+      <c r="E9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$88,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$87,5,FALSE),"-")</f>
+      <c r="F9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$88,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="F9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$87,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="19">
         <f>IFERROR(B6*B8,0)</f>
-        <v>0</v>
+        <v>76.08</v>
       </c>
       <c r="C10" s="19" t="str">
         <f>IFERROR(C6*C8,"-")</f>
@@ -1764,58 +1836,59 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="26" t="str">
+      <c r="B11" s="38">
         <f>IFERROR(B10/(B9*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C11" s="26" t="str">
+        <v>3.0432000000000001E-2</v>
+      </c>
+      <c r="C11" s="38" t="str">
         <f>IFERROR(C10/(C9*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="D11" s="26" t="str">
+      <c r="D11" s="38" t="str">
         <f>IFERROR(D10/(D9*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="E11" s="26" t="str">
+      <c r="E11" s="38" t="str">
         <f>IFERROR(E10/(E9*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="F11" s="26" t="str">
+      <c r="F11" s="38" t="str">
         <f>IFERROR(F10/(F9*1000),"-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B12" s="24">
         <f>SUM(B10:F10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36" t="s">
+        <v>76.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="18">
+        <f>I15*H7</f>
         <v>0</v>
       </c>
       <c r="D15" s="18">
@@ -1827,39 +1900,47 @@
       <c r="F15" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="37">
+        <v>1</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="B16" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$87,4,FALSE),"-")</f>
+      <c r="B17" s="21">
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$88,4,FALSE),"-")</f>
+        <v>60.08</v>
+      </c>
+      <c r="C17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$88,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$87,4,FALSE),"-")</f>
+      <c r="D17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$88,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$87,4,FALSE),"-")</f>
+      <c r="E17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$88,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$87,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
       <c r="F17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$87,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$88,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1867,24 +1948,24 @@
       <c r="A18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$87,5,FALSE),"-")</f>
+      <c r="B18" s="21">
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$88,5,FALSE),"-")</f>
+        <v>2.5</v>
+      </c>
+      <c r="C18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$88,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="C18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$87,5,FALSE),"-")</f>
+      <c r="D18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$88,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$87,5,FALSE),"-")</f>
+      <c r="E18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$88,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$87,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
       <c r="F18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$87,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$88,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1894,7 +1975,7 @@
       </c>
       <c r="B19" s="19">
         <f>IFERROR(B15*B17,0)</f>
-        <v>0</v>
+        <v>60.08</v>
       </c>
       <c r="C19" s="19" t="str">
         <f>IFERROR(C15*C17,"-")</f>
@@ -1917,23 +1998,23 @@
       <c r="A20" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="26" t="str">
+      <c r="B20" s="38">
         <f>IFERROR(B19/(B18*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C20" s="26" t="str">
+        <v>2.4031999999999998E-2</v>
+      </c>
+      <c r="C20" s="38" t="str">
         <f>IFERROR(C19/(C18*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="D20" s="26" t="str">
+      <c r="D20" s="38" t="str">
         <f>IFERROR(D19/(D18*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="E20" s="26" t="str">
+      <c r="E20" s="38" t="str">
         <f>IFERROR(E19/(E18*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="F20" s="26" t="str">
+      <c r="F20" s="38" t="str">
         <f>IFERROR(F19/(F18*1000),"-")</f>
         <v>-</v>
       </c>
@@ -1944,21 +2025,21 @@
       </c>
       <c r="B21" s="24">
         <f>SUM(B19:F19)</f>
-        <v>0</v>
+        <v>60.08</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -1966,11 +2047,11 @@
       </c>
       <c r="B24" s="20" t="str">
         <f>IF($B$12&gt;$B$21,"Input excesive",IF($B$12&lt;$B$21,"Output excessive","Equal"))</f>
-        <v>Equal</v>
-      </c>
-      <c r="C24" s="34">
+        <v>Input excesive</v>
+      </c>
+      <c r="C24" s="33">
         <f>IF($B$12&gt;$B$21,B12/B21,IF($B$12&lt;$B$21,B21/B12,1))</f>
-        <v>1</v>
+        <v>1.2663115845539281</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1989,13 +2070,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$124</xm:f>
+            <xm:f>Database!$A$2:$A$125</xm:f>
           </x14:formula1>
           <xm:sqref>B16:F16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$124</xm:f>
+            <xm:f>Database!$A$2:$A$125</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7</xm:sqref>
         </x14:dataValidation>
@@ -2007,11 +2088,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B76" sqref="B76"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <f>SUM(($D$38*0.5)+($D$83*0.5))</f>
+        <f>SUM(($D$38*0.5)+($D$84*0.5))</f>
         <v>46.073</v>
       </c>
       <c r="E9" s="4">
@@ -3208,7 +3289,7 @@
         <v>7.085</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" ref="F54:F62" si="9">C54*D54/(E54 * 1000)</f>
+        <f t="shared" ref="F54:F63" si="9">C54*D54/(E54 * 1000)</f>
         <v>2.851093860268172E-4</v>
       </c>
     </row>
@@ -3371,104 +3452,112 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="39">
+        <v>1</v>
+      </c>
+      <c r="D62" s="40">
+        <v>60.08</v>
+      </c>
+      <c r="E62" s="41">
+        <f>0.0025*1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="F62" s="42">
+        <f>C62*D62/(E62 * 1000)</f>
+        <v>2.4031999999999998E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
         <v>233.88</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E63" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="6">
         <f t="shared" si="9"/>
         <v>4.6775999999999998E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F63" s="6"/>
-    </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5">
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E65" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F64" s="6">
-        <f>C64*D64/(E64 * 1000)</f>
+      <c r="F65" s="6">
+        <f>C65*D65/(E65 * 1000)</f>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5">
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
         <v>92.04</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="4">
         <f>0.00145*1000</f>
         <v>1.45</v>
       </c>
-      <c r="F65" s="6">
-        <f>C65*D65/(E65 * 1000)</f>
+      <c r="F66" s="6">
+        <f>C66*D66/(E66 * 1000)</f>
         <v>6.3475862068965522E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="4">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1">
@@ -3476,770 +3565,772 @@
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
         <v>32</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E69" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F68" s="6">
-        <f>C68*D68/(E68 * 1000)</f>
+      <c r="F69" s="6">
+        <f>C69*D69/(E69 * 1000)</f>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
         <v>30.97</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F69" s="6">
-        <f>C69*D69/(E69 * 1000)</f>
+      <c r="F70" s="6">
+        <f>C70*D70/(E70 * 1000)</f>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="4">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="4">
         <f>0.00104*1000</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5">
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F71" s="6">
-        <f>C71*D71/(E71 * 1000)</f>
+      <c r="F72" s="6">
+        <f>C72*D72/(E72 * 1000)</f>
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="4">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="4">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="4">
         <f>0.0052*1000</f>
         <v>5.2</v>
       </c>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="4">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="4">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="4">
         <f>0.004*1000</f>
         <v>4</v>
       </c>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
-        <v>92.08</v>
-      </c>
-      <c r="E76" s="4">
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
+        <v>76.08</v>
+      </c>
+      <c r="E77" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F76" s="6">
-        <f>C76*D76/(E76 * 1000)</f>
-        <v>3.6831999999999997E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="F77" s="6">
+        <f>C77*D77/(E77 * 1000)</f>
+        <v>3.0432000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5">
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
         <v>28.09</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="4">
         <f>0.002329*1000</f>
         <v>2.3289999999999997</v>
       </c>
-      <c r="F77" s="6">
-        <f>C77*D77/(E77 * 1000)</f>
+      <c r="F78" s="6">
+        <f>C78*D78/(E78 * 1000)</f>
         <v>1.2060970373550882E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="4">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5">
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5">
         <v>186.09</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="4">
         <f>0.0031*1000</f>
         <v>3.1</v>
       </c>
-      <c r="F79" s="6">
-        <f t="shared" ref="F79" si="10">C79*D79/(E79 * 1000)</f>
+      <c r="F80" s="6">
+        <f t="shared" ref="F80" si="10">C80*D80/(E80 * 1000)</f>
         <v>6.0029032258064517E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="4">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5">
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E83" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F82" s="6">
-        <f>C82*D82/(E82 * 1000)</f>
+      <c r="F83" s="6">
+        <f>C83*D83/(E83 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5">
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
         <v>60.1</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="4">
         <f>0.000791*1000</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="F83" s="6">
-        <f>C83*D83/(E83 * 1000)</f>
+      <c r="F84" s="6">
+        <f>C84*D84/(E84 * 1000)</f>
         <v>7.5979772439949439E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5">
-        <f>SUM(($D$38*0.25)+($D$83*0.75))</f>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5">
+        <f>SUM(($D$38*0.25)+($D$84*0.75))</f>
         <v>53.086500000000001</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E85" s="4">
         <f>0.000829*1000</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="F84" s="6">
-        <f>C84*D84/(E84 * 1000)</f>
+      <c r="F85" s="6">
+        <f>C85*D85/(E85 * 1000)</f>
         <v>6.4036791314837152E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="4">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4">
         <f>0.00075*1000</f>
         <v>0.75</v>
       </c>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="4">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="4">
         <f>0.001005*1000</f>
         <v>1.0050000000000001</v>
       </c>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="5">
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5">
         <v>18.02</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E88" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F87" s="6">
-        <f>C87*D87/(E87 * 1000)</f>
+      <c r="F88" s="6">
+        <f>C88*D88/(E88 * 1000)</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="31"/>
-      <c r="E90" s="4">
-        <f t="shared" ref="E90:E124" si="11">F90*1000</f>
+      <c r="D91" s="30"/>
+      <c r="E91" s="4">
+        <f t="shared" ref="E91:E125" si="11">F91*1000</f>
         <v>5</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F91" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E92" s="4">
         <f t="shared" si="11"/>
         <v>19.3</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F92" s="6">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E93" s="4">
         <f t="shared" si="11"/>
         <v>54.4</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F93" s="6">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E94" s="4">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F94" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="30" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E95" s="4">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F95" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="30" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E96" s="4">
         <f t="shared" si="11"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F96" s="6">
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="30" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E97" s="4">
         <f t="shared" si="11"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F97" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E98" s="4">
         <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F98" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E99" s="4">
         <f t="shared" si="11"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F99" s="6">
         <v>5.0108799999999997E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="30" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E100" s="4">
         <f t="shared" si="11"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F100" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="30" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E101" s="4">
         <f t="shared" si="11"/>
         <v>0.216</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F101" s="6">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E102" s="4">
         <f t="shared" si="11"/>
         <v>23.125</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F102" s="6">
         <v>2.3125E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E103" s="4">
         <f t="shared" si="11"/>
         <v>5.25</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F103" s="6">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E104" s="4">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F104" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="30" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="29" t="s">
         <v>145</v>
-      </c>
-      <c r="E104" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="F104" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
-        <v>59</v>
       </c>
       <c r="E105" s="4">
         <f t="shared" si="11"/>
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="F105" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="30" t="s">
-        <v>109</v>
+      <c r="A106" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="E106" s="4">
         <f t="shared" si="11"/>
-        <v>2.4</v>
+        <v>12.5</v>
       </c>
       <c r="F106" s="6">
-        <v>2.3999999999999998E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
-        <v>60</v>
+      <c r="A107" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="E107" s="4">
         <f t="shared" si="11"/>
-        <v>13.5</v>
+        <v>2.4</v>
       </c>
       <c r="F107" s="6">
-        <v>1.35E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
-        <v>61</v>
+      <c r="A108" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="E108" s="4">
         <f t="shared" si="11"/>
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="F108" s="6">
-        <v>8.6E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
-        <v>168</v>
+      <c r="A109" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="E109" s="4">
         <f t="shared" si="11"/>
-        <v>19.099999999999998</v>
+        <v>8.6</v>
       </c>
       <c r="F109" s="6">
-        <v>1.9099999999999999E-2</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
-        <v>169</v>
+      <c r="A110" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="E110" s="4">
         <f t="shared" si="11"/>
-        <v>10.97</v>
+        <v>19.099999999999998</v>
       </c>
       <c r="F110" s="6">
-        <v>1.0970000000000001E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="3"/>
+      <c r="A111" s="29" t="s">
+        <v>169</v>
+      </c>
       <c r="E111" s="4">
         <f t="shared" si="11"/>
-        <v>5.7050000000000001</v>
+        <v>10.97</v>
       </c>
       <c r="F111" s="6">
-        <v>5.705E-3</v>
+        <v>1.0970000000000001E-2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
-        <v>63</v>
+      <c r="A112" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="3"/>
       <c r="E112" s="4">
         <f t="shared" si="11"/>
-        <v>13.5</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F112" s="6">
-        <v>1.35E-2</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="30" t="s">
-        <v>67</v>
+      <c r="A113" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="3"/>
       <c r="E113" s="4">
         <f t="shared" si="11"/>
-        <v>0.35399999999999998</v>
+        <v>13.5</v>
       </c>
       <c r="F113" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="30" t="s">
-        <v>105</v>
+      <c r="A114" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="3"/>
       <c r="E114" s="4">
         <f t="shared" si="11"/>
-        <v>2.12805</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F114" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
-        <v>115</v>
+      <c r="A115" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="3"/>
       <c r="E115" s="4">
         <f t="shared" si="11"/>
-        <v>1.08</v>
+        <v>2.12805</v>
       </c>
       <c r="F115" s="6">
-        <v>1.08E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="30" t="s">
-        <v>106</v>
+      <c r="A116" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="3"/>
       <c r="E116" s="4">
         <f t="shared" si="11"/>
-        <v>4.1000000000000005</v>
+        <v>1.08</v>
       </c>
       <c r="F116" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="30" t="s">
-        <v>50</v>
-      </c>
+      <c r="A117" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="3"/>
       <c r="E117" s="4">
         <f t="shared" si="11"/>
-        <v>12.5</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F117" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="30" t="s">
-        <v>69</v>
+      <c r="A118" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="11"/>
-        <v>4.5999999999999996</v>
+        <v>12.5</v>
       </c>
       <c r="F118" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="30" t="s">
-        <v>116</v>
+      <c r="A119" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F119" s="6">
-        <v>1E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
-        <v>117</v>
+      <c r="A120" s="29" t="s">
+        <v>116</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="11"/>
@@ -4250,50 +4341,62 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
-        <v>111</v>
+      <c r="A121" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="E121" s="4">
         <f t="shared" si="11"/>
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="F121" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="30" t="s">
-        <v>114</v>
+      <c r="A122" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="E122" s="4">
         <f t="shared" si="11"/>
-        <v>4.3499999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="F122" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="30" t="s">
-        <v>119</v>
+      <c r="A123" s="29" t="s">
+        <v>114</v>
       </c>
       <c r="E123" s="4">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F123" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="30" t="s">
-        <v>64</v>
+      <c r="A124" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="E124" s="4">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="F124" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="4">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="F125" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="2"/>
+    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="216">
   <si>
     <t>Resource</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>unit mass (from configs)</t>
-  </si>
-  <si>
-    <t>Units</t>
   </si>
   <si>
     <t>LiquidFuel</t>
@@ -692,6 +689,33 @@
   </si>
   <si>
     <t>SiO2</t>
+  </si>
+  <si>
+    <t>Beryllium</t>
+  </si>
+  <si>
+    <t>Be</t>
+  </si>
+  <si>
+    <t>Beryl Oxide</t>
+  </si>
+  <si>
+    <t>Be2O3</t>
+  </si>
+  <si>
+    <t>Boron</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Plutonium</t>
+  </si>
+  <si>
+    <t>Pu</t>
+  </si>
+  <si>
+    <t>mole/gram scalar</t>
   </si>
 </sst>
 </file>
@@ -1009,15 +1033,6 @@
     <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1031,6 +1046,15 @@
     </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1354,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1366,51 +1390,49 @@
     <col min="10" max="10" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="18">
-        <f>H6*H8</f>
-        <v>3.7510000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="18">
-        <f>I6*H8</f>
         <v>0</v>
       </c>
       <c r="D6" s="18">
@@ -1422,70 +1444,78 @@
       <c r="F6" s="18">
         <v>0</v>
       </c>
-      <c r="H6" s="37">
-        <v>3.7510000000000002E-2</v>
-      </c>
-      <c r="I6" s="37">
+      <c r="H6" s="34">
+        <f>B6/B9</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I6" s="34">
+        <f>C6/B9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="34">
+        <f>(C6*0.2282)/B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="26"/>
+        <v>76</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="21">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$125,5,FALSE),"-")</f>
-        <v>1.1732500000000001</v>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$129,5,FALSE),"-")</f>
+        <v>7.5</v>
       </c>
       <c r="C8" s="21">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$125,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$129,5,FALSE),"-")</f>
         <v>1.141</v>
       </c>
-      <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$125,5,FALSE),"-")</f>
+      <c r="D8" s="21">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$129,5,FALSE),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$129,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$125,5,FALSE),"-")</f>
+      <c r="F8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$129,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$125,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="24">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>4.4008607500000005E-2</v>
+        <v>7.5</v>
       </c>
       <c r="C9" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="24" t="str">
+      <c r="D9" s="24">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="E9" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1496,39 +1526,37 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="32">
         <f>SUM(B9:F9)</f>
-        <v>4.4008607500000005E-2</v>
+        <v>7.5</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
     </row>
-    <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="18">
-        <f>H13*H8</f>
-        <v>22.577660000000002</v>
+        <v>0.68359999999999999</v>
       </c>
       <c r="C13" s="18">
-        <f>C6*0.22818</f>
         <v>0</v>
       </c>
       <c r="D13" s="18">
@@ -1540,56 +1568,57 @@
       <c r="F13" s="18">
         <v>0</v>
       </c>
-      <c r="H13" s="37">
-        <v>22.577660000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="34">
+        <f>B13/B9</f>
+        <v>9.1146666666666668E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="21">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$125,5,FALSE),"-")</f>
-        <v>1.951E-3</v>
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$129,5,FALSE),"-")</f>
+        <v>10.97</v>
       </c>
       <c r="C15" s="21">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$125,5,FALSE),"-")</f>
-        <v>1.141</v>
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$129,5,FALSE),"-")</f>
+        <v>5</v>
       </c>
       <c r="D15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$125,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$129,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$125,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$129,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$125,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$129,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="31">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
-        <v>4.4049014660000003E-2</v>
+        <v>7.4990920000000001</v>
       </c>
       <c r="C16" s="24">
         <f t="shared" si="1"/>
@@ -1610,11 +1639,11 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="32">
         <f>SUM(B16:F16)</f>
-        <v>4.4049014660000003E-2</v>
+        <v>7.4990920000000001</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -1622,26 +1651,26 @@
       <c r="F17" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="A19" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Output excessive</v>
+        <v>Input excesive</v>
       </c>
       <c r="C20" s="33">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>1.0009181649294403</v>
+        <v>1.0001210813255792</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1660,7 +1689,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$125</xm:f>
+            <xm:f>Database!$A$2:$A$129</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7 B14:F14</xm:sqref>
         </x14:dataValidation>
@@ -1674,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1684,50 +1713,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="A1" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="A5" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="18">
-        <f>H6*H7</f>
         <v>1</v>
       </c>
       <c r="C6" s="18">
-        <f>I6*H7</f>
         <v>0</v>
       </c>
       <c r="D6" s="18">
@@ -1739,21 +1766,25 @@
       <c r="F6" s="18">
         <v>0</v>
       </c>
-      <c r="H6" s="37">
-        <v>1</v>
-      </c>
-      <c r="I6" s="37">
+      <c r="H6" s="34">
+        <f>B6/B9</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I6" s="34">
+        <f>C6/B9</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="26"/>
+        <v>131</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>76</v>
+      </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -1763,65 +1794,65 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="21">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$88,4,FALSE),"-")</f>
-        <v>76.08</v>
-      </c>
-      <c r="C8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$88,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$92,4,FALSE),"-")</f>
+        <v>270.02999999999997</v>
+      </c>
+      <c r="C8" s="21">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$92,4,FALSE),"-")</f>
+        <v>32</v>
+      </c>
+      <c r="D8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$92,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$88,4,FALSE),"-")</f>
+      <c r="E8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$92,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$88,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
       <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$88,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$92,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="21">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$88,5,FALSE),"-")</f>
-        <v>2.5</v>
-      </c>
-      <c r="C9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$88,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$92,5,FALSE),"-")</f>
+        <v>7.5</v>
+      </c>
+      <c r="C9" s="21">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$92,5,FALSE),"-")</f>
+        <v>1.141</v>
+      </c>
+      <c r="D9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$92,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$88,5,FALSE),"-")</f>
+      <c r="E9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$92,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$88,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
       <c r="F9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$88,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$92,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="19">
         <f>IFERROR(B6*B8,0)</f>
-        <v>76.08</v>
-      </c>
-      <c r="C10" s="19" t="str">
+        <v>270.02999999999997</v>
+      </c>
+      <c r="C10" s="19">
         <f>IFERROR(C6*C8,"-")</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="D10" s="19" t="str">
         <f>IFERROR(D6*D8,"-")</f>
@@ -1838,58 +1869,57 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="38">
+        <v>93</v>
+      </c>
+      <c r="B11" s="35">
         <f>IFERROR(B10/(B9*1000),"-")</f>
-        <v>3.0432000000000001E-2</v>
-      </c>
-      <c r="C11" s="38" t="str">
+        <v>3.6003999999999994E-2</v>
+      </c>
+      <c r="C11" s="35">
         <f>IFERROR(C10/(C9*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D11" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="D11" s="35" t="str">
         <f>IFERROR(D10/(D9*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="E11" s="38" t="str">
+      <c r="E11" s="35" t="str">
         <f>IFERROR(E10/(E9*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="F11" s="38" t="str">
+      <c r="F11" s="35" t="str">
         <f>IFERROR(F10/(F9*1000),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="24">
         <f>SUM(B10:F10)</f>
-        <v>76.08</v>
+        <v>270.02999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="18">
         <v>1</v>
       </c>
       <c r="C15" s="18">
-        <f>I15*H7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="18">
         <v>0</v>
@@ -1900,86 +1930,89 @@
       <c r="F15" s="18">
         <v>0</v>
       </c>
-      <c r="H15" s="37">
-        <v>1</v>
-      </c>
-      <c r="I15" s="37">
+      <c r="H15" s="34">
+        <f>B15/B9</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I15" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="26"/>
+        <v>126</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="21">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$88,4,FALSE),"-")</f>
-        <v>60.08</v>
-      </c>
-      <c r="C17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$88,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$92,4,FALSE),"-")</f>
+        <v>238.03</v>
+      </c>
+      <c r="C17" s="21">
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$92,4,FALSE),"-")</f>
+        <v>32</v>
+      </c>
+      <c r="D17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$92,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$88,4,FALSE),"-")</f>
+      <c r="E17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$92,4,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$88,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
       <c r="F17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$88,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$92,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="21">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$88,5,FALSE),"-")</f>
-        <v>2.5</v>
-      </c>
-      <c r="C18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$88,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$92,5,FALSE),"-")</f>
+        <v>10.97</v>
+      </c>
+      <c r="C18" s="21">
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$92,5,FALSE),"-")</f>
+        <v>1.41E-3</v>
+      </c>
+      <c r="D18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$92,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="D18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$88,5,FALSE),"-")</f>
+      <c r="E18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$92,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$88,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
       <c r="F18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$88,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$92,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="19">
         <f>IFERROR(B15*B17,0)</f>
-        <v>60.08</v>
-      </c>
-      <c r="C19" s="19" t="str">
+        <v>238.03</v>
+      </c>
+      <c r="C19" s="19">
         <f>IFERROR(C15*C17,"-")</f>
-        <v>-</v>
+        <v>32</v>
       </c>
       <c r="D19" s="19" t="str">
         <f t="shared" ref="D19:F19" si="0">IFERROR(D15*D17,"-")</f>
@@ -1996,62 +2029,62 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="38">
+        <v>93</v>
+      </c>
+      <c r="B20" s="35">
         <f>IFERROR(B19/(B18*1000),"-")</f>
-        <v>2.4031999999999998E-2</v>
-      </c>
-      <c r="C20" s="38" t="str">
+        <v>2.1698268003646309E-2</v>
+      </c>
+      <c r="C20" s="35">
         <f>IFERROR(C19/(C18*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D20" s="38" t="str">
+        <v>22.695035460992909</v>
+      </c>
+      <c r="D20" s="35" t="str">
         <f>IFERROR(D19/(D18*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="E20" s="38" t="str">
+      <c r="E20" s="35" t="str">
         <f>IFERROR(E19/(E18*1000),"-")</f>
         <v>-</v>
       </c>
-      <c r="F20" s="38" t="str">
+      <c r="F20" s="35" t="str">
         <f>IFERROR(F19/(F18*1000),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="24">
         <f>SUM(B19:F19)</f>
-        <v>60.08</v>
+        <v>270.02999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="A23" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="20" t="str">
         <f>IF($B$12&gt;$B$21,"Input excesive",IF($B$12&lt;$B$21,"Output excessive","Equal"))</f>
-        <v>Input excesive</v>
+        <v>Equal</v>
       </c>
       <c r="C24" s="33">
         <f>IF($B$12&gt;$B$21,B12/B21,IF($B$12&lt;$B$21,B21/B12,1))</f>
-        <v>1.2663115845539281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2070,13 +2103,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$125</xm:f>
+            <xm:f>Database!$A$2:$A$129</xm:f>
           </x14:formula1>
           <xm:sqref>B16:F16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$125</xm:f>
+            <xm:f>Database!$A$2:$A$129</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7</xm:sqref>
         </x14:dataValidation>
@@ -2088,11 +2121,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2123,15 +2156,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2152,21 +2185,21 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
         <v>87</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>88</v>
-      </c>
-      <c r="L2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -2183,10 +2216,10 @@
         <v>3.4068000000000001E-2</v>
       </c>
       <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
         <v>81</v>
-      </c>
-      <c r="J3" t="s">
-        <v>82</v>
       </c>
       <c r="K3">
         <v>117.49</v>
@@ -2197,10 +2230,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -2218,10 +2251,10 @@
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>26.98</v>
@@ -2232,10 +2265,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2253,10 +2286,10 @@
         <v>8.0114999999999995E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5">
         <v>71.84</v>
@@ -2267,10 +2300,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -2291,7 +2324,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -2307,10 +2340,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" s="23">
         <v>0.12</v>
@@ -2318,16 +2351,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <f>SUM(($D$38*0.5)+($D$84*0.5))</f>
+        <f>SUM(($D$41*0.5)+($D$88*0.5))</f>
         <v>46.073</v>
       </c>
       <c r="E9" s="4">
@@ -2339,10 +2372,10 @@
         <v>5.1192222222222222E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="22">
         <v>1.9599999999999999E-2</v>
@@ -2350,10 +2383,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -2372,10 +2405,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -2394,10 +2427,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -2416,10 +2449,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -2437,195 +2470,204 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="36">
+        <v>1</v>
+      </c>
+      <c r="D14" s="37">
+        <v>9.01</v>
+      </c>
+      <c r="E14" s="38">
+        <f>0.0007508*1000</f>
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="F14" s="39">
+        <f t="shared" ref="F14:F16" si="1">C14*D14/(E14 * 1000)</f>
+        <v>1.2000532765050611E-2</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="36">
+        <v>1</v>
+      </c>
+      <c r="D15" s="37">
+        <v>66.02</v>
+      </c>
+      <c r="E15" s="38">
+        <f>0.00244518*1000</f>
+        <v>2.4451800000000001</v>
+      </c>
+      <c r="F15" s="39">
+        <f t="shared" si="1"/>
+        <v>2.7000057255498568E-2</v>
+      </c>
+      <c r="H15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="36">
+        <v>1</v>
+      </c>
+      <c r="D16" s="37">
+        <v>10.81</v>
+      </c>
+      <c r="E16" s="38">
+        <f t="shared" ref="E16" si="2">D16/H16</f>
+        <v>0.90083333333333337</v>
+      </c>
+      <c r="F16" s="39">
+        <f t="shared" si="1"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
         <v>12.01</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E17" s="4">
         <f>0.0021*1000</f>
         <v>2.1</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" ref="F14" si="1">C14*D14/(E14 * 1000)</f>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17" si="3">C17*D17/(E17 * 1000)</f>
         <v>5.7190476190476193E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
         <v>44.01</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E18" s="4">
         <f>0.000001951*1000</f>
         <v>1.951E-3</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" ref="F15:F38" si="2">C15*D15/(E15 * 1000)</f>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F41" si="4">C18*D18/(E18 * 1000)</f>
         <v>22.557662737057917</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
         <v>28.01</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E19" s="4">
         <f>0.00000125*1000</f>
         <v>1.25E-3</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="2"/>
+      <c r="F19" s="6">
+        <f t="shared" si="4"/>
         <v>22.408000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
         <v>35.450000000000003</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E21" s="4">
         <f>0.0032*1000</f>
         <v>3.2</v>
       </c>
-      <c r="F18" s="6">
-        <f t="shared" si="2"/>
+      <c r="F21" s="6">
+        <f t="shared" si="4"/>
         <v>1.1078125000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4">
         <f>0.001556*1000</f>
         <v>1.556</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
-        <v>238.03</v>
-      </c>
-      <c r="E20" s="4">
-        <f>0.01097*1000</f>
-        <v>10.97</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="2"/>
-        <v>2.1698268003646309E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2.0139999999999998</v>
-      </c>
-      <c r="E21" s="4">
-        <f>0.00000018*1000</f>
-        <v>1.7999999999999998E-4</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="2"/>
-        <v>11.188888888888888</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
-        <v>60.08</v>
-      </c>
-      <c r="E22" s="4">
-        <f>0.0016*1000</f>
-        <v>1.6</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="2"/>
-        <v>3.755E-2</v>
-      </c>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -2638,584 +2680,584 @@
         <v>10.97</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1698268003646309E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="E24" s="4">
+        <f>0.00000018*1000</f>
+        <v>1.7999999999999998E-4</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="4"/>
+        <v>11.188888888888888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>60.08</v>
+      </c>
+      <c r="E25" s="4">
+        <f>0.0016*1000</f>
+        <v>1.6</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="4"/>
+        <v>3.755E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>238.03</v>
+      </c>
+      <c r="E26" s="4">
+        <f>0.01097*1000</f>
+        <v>10.97</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1698268003646309E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>46.07</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E27" s="4">
         <f>0.000789*1000</f>
         <v>0.78900000000000003</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" ref="F24:F25" si="3">C24*D24/(E24 * 1000)</f>
+      <c r="F27" s="6">
+        <f t="shared" ref="F27:F28" si="5">C27*D27/(E27 * 1000)</f>
         <v>5.8390367553865653E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
         <v>61.206800000000001</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E28" s="4">
         <f>0.00084175*1000</f>
         <v>0.84175</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="3"/>
+      <c r="F28" s="6">
+        <f t="shared" si="5"/>
         <v>7.2713751113751113E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>183.88</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E29" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F26" s="6">
-        <f t="shared" si="2"/>
+      <c r="F29" s="6">
+        <f t="shared" si="4"/>
         <v>7.3551999999999992E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
         <v>19</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E32" s="4">
         <f>0.0032*1000</f>
         <v>3.2</v>
       </c>
-      <c r="F29" s="6">
-        <f t="shared" si="2"/>
+      <c r="F32" s="6">
+        <f t="shared" si="4"/>
         <v>5.9375000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4">
         <f xml:space="preserve"> 0.00028102905982906*1000</f>
         <v>0.28102905982906001</v>
       </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
         <f>5.03</f>
         <v>5.03</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E34" s="4">
         <f>0.000216*1000</f>
         <v>0.216</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" si="2"/>
+      <c r="F34" s="6">
+        <f t="shared" si="4"/>
         <v>2.3287037037037037E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <v>92.09</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E35" s="4">
         <f>0.012*1000</f>
         <v>12</v>
       </c>
-      <c r="F32" s="6">
-        <f t="shared" si="2"/>
+      <c r="F35" s="6">
+        <f t="shared" si="4"/>
         <v>7.6741666666666668E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>172.14</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E36" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F33" s="6">
-        <f t="shared" si="2"/>
+      <c r="F36" s="6">
+        <f t="shared" si="4"/>
         <v>3.1298181818181815E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
         <v>3.016</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E37" s="4">
         <f>0.000000125*1000</f>
         <v>1.25E-4</v>
       </c>
-      <c r="F34" s="6">
-        <f t="shared" ref="F34:F36" si="4">C34*D34/(E34 * 1000)</f>
+      <c r="F37" s="6">
+        <f t="shared" ref="F37:F39" si="6">C37*D37/(E37 * 1000)</f>
         <v>24.128</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E38" s="4">
         <f>0.0000001786*1000</f>
         <v>1.786E-4</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="4"/>
+      <c r="F38" s="6">
+        <f t="shared" si="6"/>
         <v>22.407614781634937</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="B39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
         <v>34.01</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E39" s="4">
         <f>0.001431*1000</f>
         <v>1.431</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="4"/>
+      <c r="F39" s="6">
+        <f t="shared" si="6"/>
         <v>2.3766596785464708E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
         <v>168.69</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E40" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" si="2"/>
+      <c r="F40" s="6">
+        <f t="shared" si="4"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E41" s="4">
         <f>0.001004*1000</f>
         <v>1.004</v>
       </c>
-      <c r="F38" s="6">
-        <f t="shared" si="2"/>
+      <c r="F41" s="6">
+        <f t="shared" si="4"/>
         <v>3.1918326693227091E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
         <v>2.02</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E42" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F39" s="6">
-        <f t="shared" ref="F39:F51" si="5">C39*D39/(E39 * 1000)</f>
+      <c r="F42" s="6">
+        <f t="shared" ref="F42:F54" si="7">C42*D42/(E42 * 1000)</f>
         <v>22.469410456062288</v>
       </c>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <v>170.34</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E43" s="4">
         <f>0.00082*1000</f>
         <v>0.82</v>
       </c>
-      <c r="F40" s="6">
-        <f t="shared" ref="F40" si="6">C40*D40/(E40 * 1000)</f>
+      <c r="F43" s="6">
+        <f t="shared" ref="F43" si="8">C43*D43/(E43 * 1000)</f>
         <v>0.20773170731707319</v>
       </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <v>6.94</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E44" s="4">
         <f xml:space="preserve"> 0.000534*1000</f>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F41" s="6">
-        <f t="shared" si="5"/>
+      <c r="F44" s="6">
+        <f t="shared" si="7"/>
         <v>1.2996254681647943E-2</v>
       </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
         <v>17.03</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E45" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F42" s="6">
-        <f t="shared" si="5"/>
+      <c r="F45" s="6">
+        <f t="shared" si="7"/>
         <v>2.4255804016521866E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
         <v>28.01</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E46" s="4">
         <f>0.00079*1000</f>
         <v>0.79</v>
       </c>
-      <c r="F43" s="6">
-        <f t="shared" ref="F43" si="7">C43*D43/(E43 * 1000)</f>
+      <c r="F46" s="6">
+        <f t="shared" ref="F46" si="9">C46*D46/(E46 * 1000)</f>
         <v>3.5455696202531646E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
         <v>44.01</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E47" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F44" s="6">
-        <f t="shared" si="5"/>
+      <c r="F47" s="6">
+        <f t="shared" si="7"/>
         <v>3.7511186874067751E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E48" s="4">
         <f>0.0001624*1000</f>
         <v>0.16239999999999999</v>
       </c>
-      <c r="F45" s="6">
-        <f t="shared" si="5"/>
+      <c r="F48" s="6">
+        <f t="shared" si="7"/>
         <v>1.2401477832512315E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
         <v>3.016</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E49" s="4">
         <f>0.000059*1000</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F46" s="6">
-        <f>C46*D46/(E46 * 1000)</f>
+      <c r="F49" s="6">
+        <f>C49*D49/(E49 * 1000)</f>
         <v>5.1118644067796613E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E50" s="4">
         <f>0.0001786*1000</f>
         <v>0.17860000000000001</v>
       </c>
-      <c r="F47" s="6">
-        <f t="shared" ref="F47" si="8">C47*D47/(E47 * 1000)</f>
+      <c r="F50" s="6">
+        <f t="shared" ref="F50" si="10">C50*D50/(E50 * 1000)</f>
         <v>2.2407614781634933E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5">
-        <v>2.02</v>
-      </c>
-      <c r="E48" s="4">
-        <f>0.00007085*1000</f>
-        <v>7.0849999999999996E-2</v>
-      </c>
-      <c r="F48" s="6">
-        <f>C48*D48/(E48 * 1000)</f>
-        <v>2.8510938602681724E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5">
-        <v>16.05</v>
-      </c>
-      <c r="E49" s="4">
-        <f>0.00042561*1000</f>
-        <v>0.42560999999999999</v>
-      </c>
-      <c r="F49" s="6">
-        <f t="shared" si="5"/>
-        <v>3.7710580108550079E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="9">
-        <v>1</v>
-      </c>
-      <c r="D50" s="10">
-        <v>32</v>
-      </c>
-      <c r="E50" s="11">
-        <f>0.001141*1000</f>
-        <v>1.141</v>
-      </c>
-      <c r="F50" s="12">
-        <f t="shared" si="5"/>
-        <v>2.8045574057843997E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,1180 +3265,1268 @@
         <v>78</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="E51" s="4">
+        <f>0.00007085*1000</f>
+        <v>7.0849999999999996E-2</v>
+      </c>
+      <c r="F51" s="6">
+        <f>C51*D51/(E51 * 1000)</f>
+        <v>2.8510938602681724E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
+        <v>16.05</v>
+      </c>
+      <c r="E52" s="4">
+        <f>0.00042561*1000</f>
+        <v>0.42560999999999999</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="7"/>
+        <v>3.7710580108550079E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10">
+        <v>32</v>
+      </c>
+      <c r="E53" s="11">
+        <f>0.001141*1000</f>
+        <v>1.141</v>
+      </c>
+      <c r="F53" s="12">
+        <f t="shared" si="7"/>
+        <v>2.8045574057843997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
         <v>28.01</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E54" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F51" s="6">
-        <f t="shared" si="5"/>
+      <c r="F54" s="6">
+        <f t="shared" si="7"/>
         <v>3.3955342844708553E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="4">
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
-        <f>D48</f>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <f>D51</f>
         <v>2.02</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E57" s="4">
         <f>0.007085*1000</f>
         <v>7.085</v>
       </c>
-      <c r="F54" s="6">
-        <f t="shared" ref="F54:F63" si="9">C54*D54/(E54 * 1000)</f>
+      <c r="F57" s="6">
+        <f t="shared" ref="F57:F66" si="11">C57*D57/(E57 * 1000)</f>
         <v>2.851093860268172E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
         <v>159.69</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E58" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F55" s="6">
-        <f t="shared" si="9"/>
+      <c r="F58" s="6">
+        <f t="shared" si="11"/>
         <v>2.9034545454545455E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
         <v>159.69</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E59" s="4">
         <f>0.026*1000</f>
         <v>26</v>
       </c>
-      <c r="F56" s="6">
-        <f t="shared" si="9"/>
+      <c r="F59" s="6">
+        <f t="shared" si="11"/>
         <v>6.1419230769230769E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E60" s="4">
         <f>0.039*1000</f>
         <v>39</v>
       </c>
-      <c r="F57" s="6">
-        <f t="shared" si="9"/>
+      <c r="F60" s="6">
+        <f t="shared" si="11"/>
         <v>2.8638461538461539E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E61" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F58" s="6">
-        <f t="shared" si="9"/>
+      <c r="F61" s="6">
+        <f t="shared" si="11"/>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E62" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F59" s="6">
-        <f t="shared" si="9"/>
+      <c r="F62" s="6">
+        <f t="shared" si="11"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E63" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F60" s="6">
-        <f t="shared" si="9"/>
+      <c r="F63" s="6">
+        <f t="shared" si="11"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5">
+    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
         <v>46.07</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E64" s="4">
         <f>0.00088*1000</f>
         <v>0.88</v>
       </c>
-      <c r="F61" s="6">
-        <f t="shared" si="9"/>
+      <c r="F64" s="6">
+        <f t="shared" si="11"/>
         <v>5.2352272727272726E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="B62" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62" s="39">
-        <v>1</v>
-      </c>
-      <c r="D62" s="40">
+      <c r="C65" s="36">
+        <v>1</v>
+      </c>
+      <c r="D65" s="37">
         <v>60.08</v>
       </c>
-      <c r="E62" s="41">
+      <c r="E65" s="38">
+        <f>0.00347*1000</f>
+        <v>3.47</v>
+      </c>
+      <c r="F65" s="39">
+        <f>C65*D65/(E65 * 1000)</f>
+        <v>1.7314121037463978E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
+        <v>233.88</v>
+      </c>
+      <c r="E66" s="4">
+        <f>0.005*1000</f>
+        <v>5</v>
+      </c>
+      <c r="F66" s="6">
+        <f t="shared" si="11"/>
+        <v>4.6775999999999998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
+        <f>14.007*2</f>
+        <v>28.013999999999999</v>
+      </c>
+      <c r="E68" s="4">
+        <f>0.000001251*1000</f>
+        <v>1.2509999999999999E-3</v>
+      </c>
+      <c r="F68" s="6">
+        <f>C68*D68/(E68 * 1000)</f>
+        <v>22.393285371702639</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <v>92.04</v>
+      </c>
+      <c r="E69" s="4">
+        <f>0.00145*1000</f>
+        <v>1.45</v>
+      </c>
+      <c r="F69" s="6">
+        <f>C69*D69/(E69 * 1000)</f>
+        <v>6.3475862068965522E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="4">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5">
+        <v>32</v>
+      </c>
+      <c r="E72" s="4">
+        <f>0.00000141*1000</f>
+        <v>1.41E-3</v>
+      </c>
+      <c r="F72" s="6">
+        <f>C72*D72/(E72 * 1000)</f>
+        <v>22.695035460992909</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5">
+        <v>30.97</v>
+      </c>
+      <c r="E73" s="17">
+        <f>$E$3</f>
+        <v>5</v>
+      </c>
+      <c r="F73" s="6">
+        <f>C73*D73/(E73 * 1000)</f>
+        <v>6.1939999999999999E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5">
+        <v>244</v>
+      </c>
+      <c r="E74" s="4">
+        <f>0.019816*1000</f>
+        <v>19.815999999999999</v>
+      </c>
+      <c r="F74" s="6">
+        <f>C74*D74/(E74 * 1000)</f>
+        <v>1.2313282196205087E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="4">
+        <f>0.00104*1000</f>
+        <v>1.0399999999999998</v>
+      </c>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <f>195.078</f>
+        <v>195.078</v>
+      </c>
+      <c r="E76" s="4">
+        <f>0.0078*1000</f>
+        <v>7.8</v>
+      </c>
+      <c r="F76" s="6">
+        <f>C76*D76/(E76 * 1000)</f>
+        <v>2.5010000000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="4">
+        <f>0.00378*1000</f>
+        <v>3.78</v>
+      </c>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="4">
+        <f>0.0052*1000</f>
+        <v>5.2</v>
+      </c>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F62" s="42">
-        <f>C62*D62/(E62 * 1000)</f>
-        <v>2.4031999999999998E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5">
-        <v>233.88</v>
-      </c>
-      <c r="E63" s="4">
-        <f>0.005*1000</f>
-        <v>5</v>
-      </c>
-      <c r="F63" s="6">
-        <f t="shared" si="9"/>
-        <v>4.6775999999999998E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5">
-        <f>14.007*2</f>
-        <v>28.013999999999999</v>
-      </c>
-      <c r="E65" s="4">
-        <f>0.000001251*1000</f>
-        <v>1.2509999999999999E-3</v>
-      </c>
-      <c r="F65" s="6">
-        <f>C65*D65/(E65 * 1000)</f>
-        <v>22.393285371702639</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5">
-        <v>92.04</v>
-      </c>
-      <c r="E66" s="4">
-        <f>0.00145*1000</f>
-        <v>1.45</v>
-      </c>
-      <c r="F66" s="6">
-        <f>C66*D66/(E66 * 1000)</f>
-        <v>6.3475862068965522E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="4">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
-        <v>32</v>
-      </c>
-      <c r="E69" s="4">
-        <f>0.00000141*1000</f>
-        <v>1.41E-3</v>
-      </c>
-      <c r="F69" s="6">
-        <f>C69*D69/(E69 * 1000)</f>
-        <v>22.695035460992909</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5">
-        <v>30.97</v>
-      </c>
-      <c r="E70" s="17">
-        <f>$E$3</f>
-        <v>5</v>
-      </c>
-      <c r="F70" s="6">
-        <f>C70*D70/(E70 * 1000)</f>
-        <v>6.1939999999999999E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="4">
-        <f>0.00104*1000</f>
-        <v>1.0399999999999998</v>
-      </c>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="4">
+        <f>0.004*1000</f>
+        <v>4</v>
+      </c>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5">
-        <f>195.078</f>
-        <v>195.078</v>
-      </c>
-      <c r="E72" s="4">
-        <f>0.0078*1000</f>
-        <v>7.8</v>
-      </c>
-      <c r="F72" s="6">
-        <f>C72*D72/(E72 * 1000)</f>
-        <v>2.5010000000000001E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="4">
+      <c r="B81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5">
+        <v>76.08</v>
+      </c>
+      <c r="E81" s="4">
+        <f>0.0025*1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="F81" s="6">
+        <f>C81*D81/(E81 * 1000)</f>
+        <v>3.0432000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5">
+        <v>28.09</v>
+      </c>
+      <c r="E82" s="4">
+        <f>0.002329*1000</f>
+        <v>2.3289999999999997</v>
+      </c>
+      <c r="F82" s="6">
+        <f>C82*D82/(E82 * 1000)</f>
+        <v>1.2060970373550882E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="4">
-        <f>0.0052*1000</f>
-        <v>5.2</v>
-      </c>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="4">
-        <f>0.0025*1000</f>
-        <v>2.5</v>
-      </c>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="4">
-        <f>0.004*1000</f>
-        <v>4</v>
-      </c>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5">
-        <v>76.08</v>
-      </c>
-      <c r="E77" s="4">
-        <f>0.0025*1000</f>
-        <v>2.5</v>
-      </c>
-      <c r="F77" s="6">
-        <f>C77*D77/(E77 * 1000)</f>
-        <v>3.0432000000000001E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5">
-        <v>28.09</v>
-      </c>
-      <c r="E78" s="4">
-        <f>0.002329*1000</f>
-        <v>2.3289999999999997</v>
-      </c>
-      <c r="F78" s="6">
-        <f>C78*D78/(E78 * 1000)</f>
-        <v>1.2060970373550882E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="4">
-        <f>0.00378*1000</f>
-        <v>3.78</v>
-      </c>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5">
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
         <v>186.09</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E84" s="4">
         <f>0.0031*1000</f>
         <v>3.1</v>
       </c>
-      <c r="F80" s="6">
-        <f t="shared" ref="F80" si="10">C80*D80/(E80 * 1000)</f>
+      <c r="F84" s="6">
+        <f t="shared" ref="F84" si="12">C84*D84/(E84 * 1000)</f>
         <v>6.0029032258064517E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="4">
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5">
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E87" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F83" s="6">
-        <f>C83*D83/(E83 * 1000)</f>
+      <c r="F87" s="6">
+        <f>C87*D87/(E87 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5">
         <v>60.1</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E88" s="4">
         <f>0.000791*1000</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="F84" s="6">
-        <f>C84*D84/(E84 * 1000)</f>
+      <c r="F88" s="6">
+        <f>C88*D88/(E88 * 1000)</f>
         <v>7.5979772439949439E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5">
-        <f>SUM(($D$38*0.25)+($D$84*0.75))</f>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5">
+        <f>SUM(($D$41*0.25)+($D$88*0.75))</f>
         <v>53.086500000000001</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E89" s="4">
         <f>0.000829*1000</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="F85" s="6">
-        <f>C85*D85/(E85 * 1000)</f>
+      <c r="F89" s="6">
+        <f>C89*D89/(E89 * 1000)</f>
         <v>6.4036791314837152E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="4">
         <f>0.00075*1000</f>
         <v>0.75</v>
       </c>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="4">
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="4">
         <f>0.001005*1000</f>
         <v>1.0050000000000001</v>
       </c>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5">
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5">
         <v>18.02</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E92" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F88" s="6">
-        <f>C88*D88/(E88 * 1000)</f>
+      <c r="F92" s="6">
+        <f>C92*D92/(E92 * 1000)</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D91" s="30"/>
-      <c r="E91" s="4">
-        <f t="shared" ref="E91:E125" si="11">F91*1000</f>
-        <v>5</v>
-      </c>
-      <c r="F91" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E92" s="4">
-        <f t="shared" si="11"/>
-        <v>19.3</v>
-      </c>
-      <c r="F92" s="6">
-        <v>1.9300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E93" s="4">
-        <f t="shared" si="11"/>
-        <v>54.4</v>
-      </c>
-      <c r="F93" s="6">
-        <v>5.4399999999999997E-2</v>
-      </c>
-    </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E94" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="F94" s="6">
-        <v>5.0000000000000001E-3</v>
+      <c r="A94" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
-        <v>112</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D95" s="30"/>
       <c r="E95" s="4">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" ref="E95:E129" si="13">F95*1000</f>
+        <v>5</v>
       </c>
       <c r="F95" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="11"/>
-        <v>0.53399999999999992</v>
+        <f t="shared" si="13"/>
+        <v>19.3</v>
       </c>
       <c r="F96" s="6">
-        <v>5.3399999999999997E-4</v>
+        <v>1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="29" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="11"/>
-        <v>6.0000000000000005E-2</v>
+        <f t="shared" si="13"/>
+        <v>54.4</v>
       </c>
       <c r="F97" s="6">
-        <v>6.0000000000000002E-5</v>
+        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="11"/>
-        <v>2.5</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="F98" s="6">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="11"/>
-        <v>5.0108799999999993</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="F99" s="6">
-        <v>5.0108799999999997E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="11"/>
-        <v>4.3499999999999996</v>
+        <f t="shared" si="13"/>
+        <v>0.53399999999999992</v>
       </c>
       <c r="F100" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>5.3399999999999997E-4</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="11"/>
-        <v>0.216</v>
+        <f t="shared" si="13"/>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="F101" s="6">
-        <v>2.1599999999999999E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="11"/>
-        <v>23.125</v>
+        <f t="shared" si="13"/>
+        <v>2.5</v>
       </c>
       <c r="F102" s="6">
-        <v>2.3125E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="11"/>
-        <v>5.25</v>
+        <f t="shared" si="13"/>
+        <v>5.0108799999999993</v>
       </c>
       <c r="F103" s="6">
-        <v>5.2500000000000003E-3</v>
+        <v>5.0108799999999997E-3</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F104" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0.216</v>
       </c>
       <c r="F105" s="6">
-        <v>1E-3</v>
+        <v>2.1599999999999999E-4</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="11"/>
-        <v>12.5</v>
+        <f t="shared" si="13"/>
+        <v>23.125</v>
       </c>
       <c r="F106" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>2.3125E-2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="11"/>
-        <v>2.4</v>
+        <f t="shared" si="13"/>
+        <v>5.25</v>
       </c>
       <c r="F107" s="6">
-        <v>2.3999999999999998E-3</v>
+        <v>5.2500000000000003E-3</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="11"/>
-        <v>13.5</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="F108" s="6">
-        <v>1.35E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="11"/>
-        <v>8.6</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F109" s="6">
-        <v>8.6E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="11"/>
-        <v>19.099999999999998</v>
+        <f t="shared" si="13"/>
+        <v>12.5</v>
       </c>
       <c r="F110" s="6">
-        <v>1.9099999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" si="11"/>
-        <v>10.97</v>
+        <f t="shared" si="13"/>
+        <v>2.4</v>
       </c>
       <c r="F111" s="6">
-        <v>1.0970000000000001E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="3"/>
+        <v>59</v>
+      </c>
       <c r="E112" s="4">
-        <f t="shared" si="11"/>
-        <v>5.7050000000000001</v>
+        <f t="shared" si="13"/>
+        <v>13.5</v>
       </c>
       <c r="F112" s="6">
-        <v>5.705E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="3"/>
+        <v>60</v>
+      </c>
       <c r="E113" s="4">
-        <f t="shared" si="11"/>
-        <v>13.5</v>
+        <f t="shared" si="13"/>
+        <v>8.6</v>
       </c>
       <c r="F113" s="6">
-        <v>1.35E-2</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="3"/>
+        <v>167</v>
+      </c>
       <c r="E114" s="4">
-        <f t="shared" si="11"/>
-        <v>0.35399999999999998</v>
+        <f t="shared" si="13"/>
+        <v>19.099999999999998</v>
       </c>
       <c r="F114" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>1.9099999999999999E-2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="3"/>
+        <v>168</v>
+      </c>
       <c r="E115" s="4">
-        <f t="shared" si="11"/>
-        <v>2.12805</v>
+        <f t="shared" si="13"/>
+        <v>10.97</v>
       </c>
       <c r="F115" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>1.0970000000000001E-2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="29" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="3"/>
       <c r="E116" s="4">
-        <f t="shared" si="11"/>
-        <v>1.08</v>
+        <f t="shared" si="13"/>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F116" s="6">
-        <v>1.08E-3</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="29" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="3"/>
       <c r="E117" s="4">
-        <f t="shared" si="11"/>
-        <v>4.1000000000000005</v>
+        <f t="shared" si="13"/>
+        <v>13.5</v>
       </c>
       <c r="F117" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="29" t="s">
-        <v>50</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="3"/>
       <c r="E118" s="4">
-        <f t="shared" si="11"/>
-        <v>12.5</v>
+        <f t="shared" si="13"/>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F118" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="29" t="s">
-        <v>69</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="3"/>
       <c r="E119" s="4">
-        <f t="shared" si="11"/>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="13"/>
+        <v>2.12805</v>
       </c>
       <c r="F119" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="29" t="s">
-        <v>116</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="3"/>
       <c r="E120" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>1.08</v>
       </c>
       <c r="F120" s="6">
-        <v>1E-3</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="29" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="3"/>
       <c r="E121" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F121" s="6">
-        <v>1E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="E122" s="4">
-        <f t="shared" si="11"/>
-        <v>7.5</v>
+        <f t="shared" si="13"/>
+        <v>12.5</v>
       </c>
       <c r="F122" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E123" s="4">
-        <f t="shared" si="11"/>
-        <v>4.3499999999999996</v>
+        <f t="shared" si="13"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F123" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E124" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="F124" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="E125" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F125" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E126" s="4">
+        <f t="shared" si="13"/>
+        <v>7.5</v>
+      </c>
+      <c r="F126" s="6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E127" s="4">
+        <f t="shared" si="13"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F127" s="6">
+        <v>4.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E128" s="4">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F128" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E129" s="4">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="F129" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="220">
   <si>
     <t>Resource</t>
   </si>
@@ -716,6 +716,18 @@
   </si>
   <si>
     <t>mole/gram scalar</t>
+  </si>
+  <si>
+    <t>FissileFuel</t>
+  </si>
+  <si>
+    <t>FissilePebbles</t>
+  </si>
+  <si>
+    <t>UF4 + 2LiF + BeF2</t>
+  </si>
+  <si>
+    <t>U + SiC</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1393,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1442,7 @@
         <v>93</v>
       </c>
       <c r="B6" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -1444,32 +1456,26 @@
       <c r="F6" s="18">
         <v>0</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="34" t="e">
         <f>B6/B9</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="I6" s="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" s="34" t="e">
         <f>C6/B9</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J6" s="34" t="e">
         <f>(C6*0.2282)/B9</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
     </row>
@@ -1477,24 +1483,24 @@
       <c r="A8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="21">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$129,5,FALSE),"-")</f>
-        <v>7.5</v>
-      </c>
-      <c r="C8" s="21">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$129,5,FALSE),"-")</f>
-        <v>1.141</v>
-      </c>
-      <c r="D8" s="21">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$129,5,FALSE),"-")</f>
-        <v>5</v>
+      <c r="B8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <v>-</v>
       </c>
       <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$129,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$131,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$129,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$131,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="H8">
@@ -1505,17 +1511,17 @@
       <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="24" t="str">
         <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>7.5</v>
-      </c>
-      <c r="C9" s="24">
+        <v>-</v>
+      </c>
+      <c r="C9" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="24">
+        <v>-</v>
+      </c>
+      <c r="D9" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="E9" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1532,7 +1538,7 @@
       </c>
       <c r="B10" s="32">
         <f>SUM(B9:F9)</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -1554,7 +1560,7 @@
         <v>93</v>
       </c>
       <c r="B13" s="18">
-        <v>0.68359999999999999</v>
+        <v>0</v>
       </c>
       <c r="C13" s="18">
         <v>0</v>
@@ -1568,21 +1574,17 @@
       <c r="F13" s="18">
         <v>0</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="34" t="e">
         <f>B13/B9</f>
-        <v>9.1146666666666668E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>7</v>
-      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -1591,24 +1593,24 @@
       <c r="A15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="21">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$129,5,FALSE),"-")</f>
-        <v>10.97</v>
-      </c>
-      <c r="C15" s="21">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$129,5,FALSE),"-")</f>
-        <v>5</v>
+      <c r="B15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <v>-</v>
       </c>
       <c r="D15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$129,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$131,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$129,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$131,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$129,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$131,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1616,13 +1618,13 @@
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="31" t="str">
         <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
-        <v>7.4990920000000001</v>
-      </c>
-      <c r="C16" s="24">
+        <v>-</v>
+      </c>
+      <c r="C16" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="D16" s="31" t="str">
         <f t="shared" si="1"/>
@@ -1643,7 +1645,7 @@
       </c>
       <c r="B17" s="32">
         <f>SUM(B16:F16)</f>
-        <v>7.4990920000000001</v>
+        <v>0</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -1666,11 +1668,11 @@
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Input excesive</v>
+        <v>Equal</v>
       </c>
       <c r="C20" s="33">
         <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>1.0001210813255792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1689,7 +1691,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$129</xm:f>
+            <xm:f>Database!$A$2:$A$131</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7 B14:F14</xm:sqref>
         </x14:dataValidation>
@@ -1704,7 +1706,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1752,7 +1754,7 @@
         <v>90</v>
       </c>
       <c r="B6" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -1766,25 +1768,21 @@
       <c r="F6" s="18">
         <v>0</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="34" t="e">
         <f>B6/B9</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="I6" s="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" s="34" t="e">
         <f>C6/B9</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>76</v>
-      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -1796,24 +1794,24 @@
       <c r="A8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="21">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$92,4,FALSE),"-")</f>
-        <v>270.02999999999997</v>
-      </c>
-      <c r="C8" s="21">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$92,4,FALSE),"-")</f>
-        <v>32</v>
+      <c r="B8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$94,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$94,4,FALSE),"-")</f>
+        <v>-</v>
       </c>
       <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$92,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$94,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$92,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$94,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$92,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$94,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1821,24 +1819,24 @@
       <c r="A9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="21">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$92,5,FALSE),"-")</f>
-        <v>7.5</v>
-      </c>
-      <c r="C9" s="21">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$92,5,FALSE),"-")</f>
-        <v>1.141</v>
+      <c r="B9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$94,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$94,5,FALSE),"-")</f>
+        <v>-</v>
       </c>
       <c r="D9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$92,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$94,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$92,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$94,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$92,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$94,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1848,11 +1846,11 @@
       </c>
       <c r="B10" s="19">
         <f>IFERROR(B6*B8,0)</f>
-        <v>270.02999999999997</v>
-      </c>
-      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="str">
         <f>IFERROR(C6*C8,"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="D10" s="19" t="str">
         <f>IFERROR(D6*D8,"-")</f>
@@ -1871,13 +1869,13 @@
       <c r="A11" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="35" t="str">
         <f>IFERROR(B10/(B9*1000),"-")</f>
-        <v>3.6003999999999994E-2</v>
-      </c>
-      <c r="C11" s="35">
+        <v>-</v>
+      </c>
+      <c r="C11" s="35" t="str">
         <f>IFERROR(C10/(C9*1000),"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="D11" s="35" t="str">
         <f>IFERROR(D10/(D9*1000),"-")</f>
@@ -1898,7 +1896,7 @@
       </c>
       <c r="B12" s="24">
         <f>SUM(B10:F10)</f>
-        <v>270.02999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1916,10 +1914,10 @@
         <v>90</v>
       </c>
       <c r="B15" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="18">
         <v>0</v>
@@ -1930,9 +1928,9 @@
       <c r="F15" s="18">
         <v>0</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="34" t="e">
         <f>B15/B9</f>
-        <v>0.13333333333333333</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I15" s="34">
         <v>0</v>
@@ -1942,12 +1940,8 @@
       <c r="A16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>53</v>
-      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -1956,24 +1950,24 @@
       <c r="A17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="21">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$92,4,FALSE),"-")</f>
-        <v>238.03</v>
-      </c>
-      <c r="C17" s="21">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$92,4,FALSE),"-")</f>
-        <v>32</v>
+      <c r="B17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$94,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$94,4,FALSE),"-")</f>
+        <v>-</v>
       </c>
       <c r="D17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$92,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$94,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$92,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$94,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$92,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$94,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1981,24 +1975,24 @@
       <c r="A18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="21">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$92,5,FALSE),"-")</f>
-        <v>10.97</v>
-      </c>
-      <c r="C18" s="21">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$92,5,FALSE),"-")</f>
-        <v>1.41E-3</v>
+      <c r="B18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$94,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$94,5,FALSE),"-")</f>
+        <v>-</v>
       </c>
       <c r="D18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$92,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$94,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$92,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$94,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$92,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$94,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -2008,11 +2002,11 @@
       </c>
       <c r="B19" s="19">
         <f>IFERROR(B15*B17,0)</f>
-        <v>238.03</v>
-      </c>
-      <c r="C19" s="19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19" t="str">
         <f>IFERROR(C15*C17,"-")</f>
-        <v>32</v>
+        <v>-</v>
       </c>
       <c r="D19" s="19" t="str">
         <f t="shared" ref="D19:F19" si="0">IFERROR(D15*D17,"-")</f>
@@ -2031,13 +2025,13 @@
       <c r="A20" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="35" t="str">
         <f>IFERROR(B19/(B18*1000),"-")</f>
-        <v>2.1698268003646309E-2</v>
-      </c>
-      <c r="C20" s="35">
+        <v>-</v>
+      </c>
+      <c r="C20" s="35" t="str">
         <f>IFERROR(C19/(C18*1000),"-")</f>
-        <v>22.695035460992909</v>
+        <v>-</v>
       </c>
       <c r="D20" s="35" t="str">
         <f>IFERROR(D19/(D18*1000),"-")</f>
@@ -2058,7 +2052,7 @@
       </c>
       <c r="B21" s="24">
         <f>SUM(B19:F19)</f>
-        <v>270.02999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2103,13 +2097,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$129</xm:f>
+            <xm:f>Database!$A$2:$A$131</xm:f>
           </x14:formula1>
           <xm:sqref>B16:F16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$129</xm:f>
+            <xm:f>Database!$A$2:$A$131</xm:f>
           </x14:formula1>
           <xm:sqref>B7:F7</xm:sqref>
         </x14:dataValidation>
@@ -2121,11 +2115,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+      <selection pane="topRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <f>SUM(($D$41*0.5)+($D$88*0.5))</f>
+        <f>SUM(($D$43*0.5)+($D$90*0.5))</f>
         <v>46.073</v>
       </c>
       <c r="E9" s="4">
@@ -2584,7 +2578,7 @@
         <v>1.951E-3</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" ref="F18:F41" si="4">C18*D18/(E18 * 1000)</f>
+        <f t="shared" ref="F18:F43" si="4">C18*D18/(E18 * 1000)</f>
         <v>22.557662737057917</v>
       </c>
     </row>
@@ -2829,1704 +2823,1751 @@
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="36">
+        <v>1</v>
+      </c>
+      <c r="D31" s="37">
+        <v>412.91</v>
+      </c>
+      <c r="E31" s="38">
+        <f>0.001556*1000</f>
+        <v>1.556</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="4"/>
+        <v>0.26536632390745502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="36">
+        <v>1</v>
+      </c>
+      <c r="D32" s="37">
+        <v>278.13</v>
+      </c>
+      <c r="E32" s="38">
+        <f>0.00321*1000</f>
+        <v>3.21</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="4"/>
+        <v>8.6644859813084105E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
         <v>19</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E34" s="4">
         <f>0.0032*1000</f>
         <v>3.2</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F34" s="6">
         <f t="shared" si="4"/>
         <v>5.9375000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4">
         <f xml:space="preserve"> 0.00028102905982906*1000</f>
         <v>0.28102905982906001</v>
       </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <f>5.03</f>
         <v>5.03</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E36" s="4">
         <f>0.000216*1000</f>
         <v>0.216</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F36" s="6">
         <f t="shared" si="4"/>
         <v>2.3287037037037037E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
         <v>92.09</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E37" s="4">
         <f>0.012*1000</f>
         <v>12</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F37" s="6">
         <f t="shared" si="4"/>
         <v>7.6741666666666668E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <v>172.14</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E38" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F38" s="6">
         <f t="shared" si="4"/>
         <v>3.1298181818181815E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
         <v>3.016</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E39" s="4">
         <f>0.000000125*1000</f>
         <v>1.25E-4</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" ref="F37:F39" si="6">C37*D37/(E37 * 1000)</f>
+      <c r="F39" s="6">
+        <f t="shared" ref="F39:F41" si="6">C39*D39/(E39 * 1000)</f>
         <v>24.128</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E40" s="4">
         <f>0.0000001786*1000</f>
         <v>1.786E-4</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F40" s="6">
         <f t="shared" si="6"/>
         <v>22.407614781634937</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <v>34.01</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E41" s="4">
         <f>0.001431*1000</f>
         <v>1.431</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F41" s="6">
         <f t="shared" si="6"/>
         <v>2.3766596785464708E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
         <v>168.69</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E42" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F42" s="6">
         <f t="shared" si="4"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E43" s="4">
         <f>0.001004*1000</f>
         <v>1.004</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F43" s="6">
         <f t="shared" si="4"/>
         <v>3.1918326693227091E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <v>2.02</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E44" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F42" s="6">
-        <f t="shared" ref="F42:F54" si="7">C42*D42/(E42 * 1000)</f>
+      <c r="F44" s="6">
+        <f t="shared" ref="F44:F56" si="7">C44*D44/(E44 * 1000)</f>
         <v>22.469410456062288</v>
       </c>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
         <v>170.34</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E45" s="4">
         <f>0.00082*1000</f>
         <v>0.82</v>
       </c>
-      <c r="F43" s="6">
-        <f t="shared" ref="F43" si="8">C43*D43/(E43 * 1000)</f>
+      <c r="F45" s="6">
+        <f t="shared" ref="F45" si="8">C45*D45/(E45 * 1000)</f>
         <v>0.20773170731707319</v>
       </c>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
         <v>6.94</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E46" s="4">
         <f xml:space="preserve"> 0.000534*1000</f>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F46" s="6">
         <f t="shared" si="7"/>
         <v>1.2996254681647943E-2</v>
       </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
         <v>17.03</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E47" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F47" s="6">
         <f t="shared" si="7"/>
         <v>2.4255804016521866E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
         <v>28.01</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E48" s="4">
         <f>0.00079*1000</f>
         <v>0.79</v>
       </c>
-      <c r="F46" s="6">
-        <f t="shared" ref="F46" si="9">C46*D46/(E46 * 1000)</f>
+      <c r="F48" s="6">
+        <f t="shared" ref="F48" si="9">C48*D48/(E48 * 1000)</f>
         <v>3.5455696202531646E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
         <v>44.01</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E49" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F49" s="6">
         <f t="shared" si="7"/>
         <v>3.7511186874067751E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E50" s="4">
         <f>0.0001624*1000</f>
         <v>0.16239999999999999</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F50" s="6">
         <f t="shared" si="7"/>
         <v>1.2401477832512315E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
         <v>3.016</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E51" s="4">
         <f>0.000059*1000</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F49" s="6">
-        <f>C49*D49/(E49 * 1000)</f>
+      <c r="F51" s="6">
+        <f>C51*D51/(E51 * 1000)</f>
         <v>5.1118644067796613E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E52" s="4">
         <f>0.0001786*1000</f>
         <v>0.17860000000000001</v>
       </c>
-      <c r="F50" s="6">
-        <f t="shared" ref="F50" si="10">C50*D50/(E50 * 1000)</f>
+      <c r="F52" s="6">
+        <f t="shared" ref="F52" si="10">C52*D52/(E52 * 1000)</f>
         <v>2.2407614781634933E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
         <v>2.02</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E53" s="4">
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F51" s="6">
-        <f>C51*D51/(E51 * 1000)</f>
+      <c r="F53" s="6">
+        <f>C53*D53/(E53 * 1000)</f>
         <v>2.8510938602681724E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
         <v>16.05</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E54" s="4">
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F54" s="6">
         <f t="shared" si="7"/>
         <v>3.7710580108550079E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="9">
-        <v>1</v>
-      </c>
-      <c r="D53" s="10">
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10">
         <v>32</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E55" s="11">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F55" s="12">
         <f t="shared" si="7"/>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
         <v>28.01</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E56" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F56" s="6">
         <f t="shared" si="7"/>
         <v>3.3955342844708553E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="4">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="4">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5">
-        <f>D51</f>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <f>D53</f>
         <v>2.02</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E59" s="4">
         <f>0.007085*1000</f>
         <v>7.085</v>
       </c>
-      <c r="F57" s="6">
-        <f t="shared" ref="F57:F66" si="11">C57*D57/(E57 * 1000)</f>
+      <c r="F59" s="6">
+        <f t="shared" ref="F59:F68" si="11">C59*D59/(E59 * 1000)</f>
         <v>2.851093860268172E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5">
         <v>159.69</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E60" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F60" s="6">
         <f t="shared" si="11"/>
         <v>2.9034545454545455E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
         <v>159.69</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E61" s="4">
         <f>0.026*1000</f>
         <v>26</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F61" s="6">
         <f t="shared" si="11"/>
         <v>6.1419230769230769E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E62" s="4">
         <f>0.039*1000</f>
         <v>39</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F62" s="6">
         <f t="shared" si="11"/>
         <v>2.8638461538461539E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E63" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F63" s="6">
         <f t="shared" si="11"/>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E64" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F64" s="6">
         <f t="shared" si="11"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5">
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E65" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F65" s="6">
         <f t="shared" si="11"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5">
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
         <v>46.07</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E66" s="4">
         <f>0.00088*1000</f>
         <v>0.88</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F66" s="6">
         <f t="shared" si="11"/>
         <v>5.2352272727272726E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B67" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="36">
-        <v>1</v>
-      </c>
-      <c r="D65" s="37">
+      <c r="C67" s="36">
+        <v>1</v>
+      </c>
+      <c r="D67" s="37">
         <v>60.08</v>
       </c>
-      <c r="E65" s="38">
+      <c r="E67" s="38">
         <f>0.00347*1000</f>
         <v>3.47</v>
       </c>
-      <c r="F65" s="39">
-        <f>C65*D65/(E65 * 1000)</f>
+      <c r="F67" s="39">
+        <f>C67*D67/(E67 * 1000)</f>
         <v>1.7314121037463978E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5">
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
         <v>233.88</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E68" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F68" s="6">
         <f t="shared" si="11"/>
         <v>4.6775999999999998E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="4">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E70" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F68" s="6">
-        <f>C68*D68/(E68 * 1000)</f>
+      <c r="F70" s="6">
+        <f>C70*D70/(E70 * 1000)</f>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
         <v>92.04</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E71" s="4">
         <f>0.00145*1000</f>
         <v>1.45</v>
       </c>
-      <c r="F69" s="6">
-        <f>C69*D69/(E69 * 1000)</f>
+      <c r="F71" s="6">
+        <f>C71*D71/(E71 * 1000)</f>
         <v>6.3475862068965522E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="4">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="4">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5">
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5">
         <v>32</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E74" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F72" s="6">
-        <f>C72*D72/(E72 * 1000)</f>
+      <c r="F74" s="6">
+        <f>C74*D74/(E74 * 1000)</f>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5">
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5">
         <v>30.97</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E75" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F73" s="6">
-        <f>C73*D73/(E73 * 1000)</f>
+      <c r="F75" s="6">
+        <f>C75*D75/(E75 * 1000)</f>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5">
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
         <v>244</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E76" s="4">
         <f>0.019816*1000</f>
         <v>19.815999999999999</v>
       </c>
-      <c r="F74" s="6">
-        <f>C74*D74/(E74 * 1000)</f>
+      <c r="F76" s="6">
+        <f>C76*D76/(E76 * 1000)</f>
         <v>1.2313282196205087E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="4">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="4">
         <f>0.00104*1000</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E78" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F76" s="6">
-        <f>C76*D76/(E76 * 1000)</f>
+      <c r="F78" s="6">
+        <f>C78*D78/(E78 * 1000)</f>
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="4">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="4">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="4">
         <f>0.0052*1000</f>
         <v>5.2</v>
       </c>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="4">
-        <f>0.0025*1000</f>
-        <v>2.5</v>
-      </c>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="4">
-        <f>0.004*1000</f>
-        <v>4</v>
-      </c>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B81" s="1"/>
       <c r="C81" s="1">
         <v>1</v>
       </c>
-      <c r="D81" s="5">
-        <v>76.08</v>
-      </c>
+      <c r="D81" s="5"/>
       <c r="E81" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F81" s="6">
-        <f>C81*D81/(E81 * 1000)</f>
-        <v>3.0432000000000001E-2</v>
-      </c>
+      <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="4">
+        <f>0.004*1000</f>
+        <v>4</v>
+      </c>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
+        <v>76.08</v>
+      </c>
+      <c r="E83" s="4">
+        <f>0.0025*1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="F83" s="6">
+        <f>C83*D83/(E83 * 1000)</f>
+        <v>3.0432000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5">
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
         <v>28.09</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E84" s="4">
         <f>0.002329*1000</f>
         <v>2.3289999999999997</v>
       </c>
-      <c r="F82" s="6">
-        <f>C82*D82/(E82 * 1000)</f>
+      <c r="F84" s="6">
+        <f>C84*D84/(E84 * 1000)</f>
         <v>1.2060970373550882E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="4">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5">
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5">
         <v>186.09</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E86" s="4">
         <f>0.0031*1000</f>
         <v>3.1</v>
       </c>
-      <c r="F84" s="6">
-        <f t="shared" ref="F84" si="12">C84*D84/(E84 * 1000)</f>
+      <c r="F86" s="6">
+        <f t="shared" ref="F86" si="12">C86*D86/(E86 * 1000)</f>
         <v>6.0029032258064517E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="4">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="4">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="5">
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E89" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F87" s="6">
-        <f>C87*D87/(E87 * 1000)</f>
+      <c r="F89" s="6">
+        <f>C89*D89/(E89 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5">
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5">
         <v>60.1</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E90" s="4">
         <f>0.000791*1000</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="F88" s="6">
-        <f>C88*D88/(E88 * 1000)</f>
+      <c r="F90" s="6">
+        <f>C90*D90/(E90 * 1000)</f>
         <v>7.5979772439949439E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-      <c r="D89" s="5">
-        <f>SUM(($D$41*0.25)+($D$88*0.75))</f>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5">
+        <f>SUM(($D$43*0.25)+($D$90*0.75))</f>
         <v>53.086500000000001</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E91" s="4">
         <f>0.000829*1000</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="F89" s="6">
-        <f>C89*D89/(E89 * 1000)</f>
+      <c r="F91" s="6">
+        <f>C91*D91/(E91 * 1000)</f>
         <v>6.4036791314837152E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="4">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="4">
         <f>0.00075*1000</f>
         <v>0.75</v>
       </c>
-      <c r="F90" s="6"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="4">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="4">
         <f>0.001005*1000</f>
         <v>1.0050000000000001</v>
       </c>
-      <c r="F91" s="6"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1</v>
-      </c>
-      <c r="D92" s="5">
-        <v>18.02</v>
-      </c>
-      <c r="E92" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F92" s="6">
-        <f>C92*D92/(E92 * 1000)</f>
-        <v>1.8020000000000001E-2</v>
-      </c>
+      <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="5">
+        <v>18.02</v>
+      </c>
+      <c r="E94" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F94" s="6">
+        <f>C94*D94/(E94 * 1000)</f>
+        <v>1.8020000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="29" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D95" s="30"/>
-      <c r="E95" s="4">
-        <f t="shared" ref="E95:E129" si="13">F95*1000</f>
+      <c r="D97" s="30"/>
+      <c r="E97" s="4">
+        <f t="shared" ref="E97:E131" si="13">F97*1000</f>
         <v>5</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F97" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="29" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E98" s="4">
         <f t="shared" si="13"/>
         <v>19.3</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F98" s="6">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E99" s="4">
         <f t="shared" si="13"/>
         <v>54.4</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F99" s="6">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="29" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E100" s="4">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F100" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="29" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E101" s="4">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F101" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="29" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E102" s="4">
         <f t="shared" si="13"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F102" s="6">
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="29" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E103" s="4">
         <f t="shared" si="13"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F103" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="29" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E104" s="4">
         <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F104" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="29" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E105" s="4">
         <f t="shared" si="13"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F105" s="6">
         <v>5.0108799999999997E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="29" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E106" s="4">
         <f t="shared" si="13"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F106" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="29" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E107" s="4">
         <f t="shared" si="13"/>
         <v>0.216</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F107" s="6">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="29" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E108" s="4">
         <f t="shared" si="13"/>
         <v>23.125</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F108" s="6">
         <v>2.3125E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="29" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E109" s="4">
         <f t="shared" si="13"/>
         <v>5.25</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F109" s="6">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="29" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E110" s="4">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F110" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="29" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E111" s="4">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F111" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="29" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E112" s="4">
         <f t="shared" si="13"/>
         <v>12.5</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F112" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="29" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E113" s="4">
         <f t="shared" si="13"/>
         <v>2.4</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F113" s="6">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="29" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E114" s="4">
         <f t="shared" si="13"/>
         <v>13.5</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F114" s="6">
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="29" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E115" s="4">
         <f t="shared" si="13"/>
         <v>8.6</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F115" s="6">
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="29" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E116" s="4">
         <f t="shared" si="13"/>
         <v>19.099999999999998</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F116" s="6">
         <v>1.9099999999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="29" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E117" s="4">
         <f t="shared" si="13"/>
         <v>10.97</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F117" s="6">
         <v>1.0970000000000001E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="4">
-        <f t="shared" si="13"/>
-        <v>5.7050000000000001</v>
-      </c>
-      <c r="F116" s="6">
-        <v>5.705E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="4">
-        <f t="shared" si="13"/>
-        <v>13.5</v>
-      </c>
-      <c r="F117" s="6">
-        <v>1.35E-2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="3"/>
       <c r="E118" s="4">
         <f t="shared" si="13"/>
-        <v>0.35399999999999998</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F118" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="29" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="3"/>
       <c r="E119" s="4">
         <f t="shared" si="13"/>
-        <v>2.12805</v>
+        <v>13.5</v>
       </c>
       <c r="F119" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="29" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="3"/>
       <c r="E120" s="4">
         <f t="shared" si="13"/>
-        <v>1.08</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F120" s="6">
-        <v>1.08E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="3"/>
       <c r="E121" s="4">
         <f t="shared" si="13"/>
-        <v>4.1000000000000005</v>
+        <v>2.12805</v>
       </c>
       <c r="F121" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
-        <v>49</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="3"/>
       <c r="E122" s="4">
         <f t="shared" si="13"/>
-        <v>12.5</v>
+        <v>1.08</v>
       </c>
       <c r="F122" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
-        <v>68</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="3"/>
       <c r="E123" s="4">
         <f t="shared" si="13"/>
-        <v>4.5999999999999996</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F123" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="E124" s="4">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="F124" s="6">
-        <v>1E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="E125" s="4">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F125" s="6">
-        <v>1E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="29" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" si="13"/>
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="F126" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="13"/>
-        <v>4.3499999999999996</v>
+        <v>1</v>
       </c>
       <c r="F127" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="F128" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="29" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="13"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F129" s="6">
+        <v>4.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E130" s="4">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F130" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E131" s="4">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="F131" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="1"/>
+    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="224">
   <si>
     <t>Resource</t>
   </si>
@@ -129,15 +121,9 @@
     <t>Minerals</t>
   </si>
   <si>
-    <t>Quartz (SiO2)</t>
-  </si>
-  <si>
     <t>ExoticMinerals</t>
   </si>
   <si>
-    <t>Xenotime (YPO4)</t>
-  </si>
-  <si>
     <t>RareMetals</t>
   </si>
   <si>
@@ -163,9 +149,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>Lanthanum var (LaPO4)</t>
   </si>
   <si>
     <t>Platinum (Pt)</t>
@@ -728,6 +711,27 @@
   </si>
   <si>
     <t>U + SiC</t>
+  </si>
+  <si>
+    <t>(CeLaNdTh)PO4</t>
+  </si>
+  <si>
+    <t>Thorium</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>Caesium</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Pezzottaite (Cs(Be2Li)Al2Si6O18)</t>
+  </si>
+  <si>
+    <t>Smaltite ((CoFeNi)As2) + Fluorite (CaF2)</t>
   </si>
 </sst>
 </file>
@@ -892,7 +896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -955,15 +959,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1045,7 +1040,6 @@
     <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="5" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="9" fillId="4" borderId="4" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1059,6 +1053,7 @@
     <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1390,56 +1385,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="18.625" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="1" max="7" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -1456,63 +1453,56 @@
       <c r="F6" s="18">
         <v>0</v>
       </c>
-      <c r="H6" s="34" t="e">
-        <f>B6/B9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" s="34" t="e">
-        <f>C6/B9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" s="34" t="e">
-        <f>(C6*0.2282)/B9</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$133,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$133,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$133,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$133,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$131,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(G7,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" s="24" t="str">
-        <f t="shared" ref="B9:E9" si="0">IFERROR(B6*B8,"-")</f>
+        <f t="shared" ref="B9:G9" si="0">IFERROR(B6*B8,"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="24" t="str">
@@ -1528,36 +1518,42 @@
         <v>-</v>
       </c>
       <c r="F9" s="24" t="str">
-        <f>IFERROR(F6*F8,"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G9" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="32">
-        <f>SUM(B9:F9)</f>
+        <f>SUM(B9:G9)</f>
         <v>0</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
-    </row>
-    <row r="12" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="28"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" s="18">
         <v>0</v>
@@ -1574,52 +1570,56 @@
       <c r="F13" s="18">
         <v>0</v>
       </c>
-      <c r="H13" s="34" t="e">
-        <f>B13/B9</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$133,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$133,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$133,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$131,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$133,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$131,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G15" s="21" t="str">
+        <f>IFERROR(VLOOKUP(G14,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" s="31" t="str">
-        <f t="shared" ref="B16:E16" si="1">IFERROR(B13*B15,"-")</f>
+        <f t="shared" ref="B16:G16" si="1">IFERROR(B13*B15,"-")</f>
         <v>-</v>
       </c>
       <c r="C16" s="24" t="str">
@@ -1635,36 +1635,42 @@
         <v>-</v>
       </c>
       <c r="F16" s="24" t="str">
-        <f>IFERROR(F13*F15,"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G16" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" s="32">
-        <f>SUM(B16:F16)</f>
+        <f>SUM(B16:G16)</f>
         <v>0</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="20" t="str">
         <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
@@ -1675,15 +1681,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1691,9 +1697,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$131</xm:f>
+            <xm:f>Database!$A$2:$A$133</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:F7 B14:F14</xm:sqref>
+          <xm:sqref>B7:G7 B14:G14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1703,55 +1709,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="18.625" customWidth="1"/>
+    <col min="1" max="7" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -1768,81 +1776,82 @@
       <c r="F6" s="18">
         <v>0</v>
       </c>
-      <c r="H6" s="34" t="e">
-        <f>B6/B9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" s="34" t="e">
-        <f>C6/B9</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$94,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$96,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$94,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$96,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$94,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$96,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$94,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$96,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$94,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G8" s="21" t="str">
+        <f>IFERROR(VLOOKUP(G7,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$94,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$96,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$94,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$96,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$94,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$96,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$94,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$96,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$94,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G9" s="21" t="str">
+        <f>IFERROR(VLOOKUP(G7,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B10" s="19">
         <f>IFERROR(B6*B8,0)</f>
@@ -1864,54 +1873,63 @@
         <f>IFERROR(F6*F8,"-")</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="19" t="str">
+        <f>IFERROR(G6*G8,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="35" t="str">
-        <f>IFERROR(B10/(B9*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C11" s="35" t="str">
-        <f>IFERROR(C10/(C9*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D11" s="35" t="str">
-        <f>IFERROR(D10/(D9*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E11" s="35" t="str">
-        <f>IFERROR(E10/(E9*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F11" s="35" t="str">
-        <f>IFERROR(F10/(F9*1000),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="B11" s="34" t="str">
+        <f t="shared" ref="B11:G11" si="0">IFERROR(B10/(B9*1000),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C11" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="D11" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="E11" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="F11" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G11" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B12" s="24">
-        <f>SUM(B10:F10)</f>
+        <f>SUM(B10:G10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="18">
         <v>0</v>
@@ -1928,77 +1946,82 @@
       <c r="F15" s="18">
         <v>0</v>
       </c>
-      <c r="H15" s="34" t="e">
-        <f>B15/B9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I15" s="34">
+      <c r="G15" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$94,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$96,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$94,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$96,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$94,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$96,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$94,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$96,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$94,4,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G17" s="21" t="str">
+        <f>IFERROR(VLOOKUP(G16,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$94,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$96,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$94,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$96,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$94,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$96,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$94,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$96,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$94,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G18" s="21" t="str">
+        <f>IFERROR(VLOOKUP(G16,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B19" s="19">
         <f>IFERROR(B15*B17,0)</f>
@@ -2009,68 +2032,77 @@
         <v>-</v>
       </c>
       <c r="D19" s="19" t="str">
-        <f t="shared" ref="D19:F19" si="0">IFERROR(D15*D17,"-")</f>
+        <f>IFERROR(D15*D17,"-")</f>
         <v>-</v>
       </c>
       <c r="E19" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IFERROR(E15*E17,"-")</f>
         <v>-</v>
       </c>
       <c r="F19" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IFERROR(F15*F17,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G19" s="19" t="str">
+        <f>IFERROR(G15*G17,"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="35" t="str">
-        <f>IFERROR(B19/(B18*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C20" s="35" t="str">
-        <f>IFERROR(C19/(C18*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D20" s="35" t="str">
-        <f>IFERROR(D19/(D18*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E20" s="35" t="str">
-        <f>IFERROR(E19/(E18*1000),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F20" s="35" t="str">
-        <f>IFERROR(F19/(F18*1000),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="B20" s="34" t="str">
+        <f t="shared" ref="B20:G20" si="1">IFERROR(B19/(B18*1000),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C20" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D20" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E20" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F20" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G20" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B21" s="24">
-        <f>SUM(B19:F19)</f>
+        <f>SUM(B19:G19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" s="20" t="str">
         <f>IF($B$12&gt;$B$21,"Input excesive",IF($B$12&lt;$B$21,"Output excessive","Equal"))</f>
@@ -2081,15 +2113,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2097,15 +2129,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$131</xm:f>
+            <xm:f>Database!$A$2:$A$133</xm:f>
           </x14:formula1>
-          <xm:sqref>B16:F16</xm:sqref>
+          <xm:sqref>B16:G16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$131</xm:f>
+            <xm:f>Database!$A$2:$A$133</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:F7</xm:sqref>
+          <xm:sqref>B7:G7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2115,17 +2147,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E32" sqref="E32"/>
+      <selection pane="topRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
@@ -2150,15 +2182,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2179,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2210,10 +2242,10 @@
         <v>3.4068000000000001E-2</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K3">
         <v>117.49</v>
@@ -2245,10 +2277,10 @@
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>26.98</v>
@@ -2276,14 +2308,14 @@
         <v>4</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F6" si="0">C5*D5/(E5 * 1000)</f>
+        <f>C5*D5/(E5 * 1000)</f>
         <v>8.0114999999999995E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K5">
         <v>71.84</v>
@@ -2311,14 +2343,14 @@
         <v>0.1</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="0"/>
+        <f>C6*D6/(E6 * 1000)</f>
         <v>1.3129</v>
       </c>
       <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -2334,10 +2366,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="23">
         <v>0.12</v>
@@ -2345,16 +2377,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <f>SUM(($D$43*0.5)+($D$90*0.5))</f>
+        <f>SUM(($D$44*0.5)+($D$92*0.5))</f>
         <v>46.073</v>
       </c>
       <c r="E9" s="4">
@@ -2362,14 +2394,14 @@
         <v>0.9</v>
       </c>
       <c r="F9" s="6">
-        <f>C9*D9/(E9 * 1000)</f>
+        <f t="shared" ref="F9:F18" si="0">C9*D9/(E9 * 1000)</f>
         <v>5.1192222222222222E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" s="22">
         <v>1.9599999999999999E-2</v>
@@ -2377,10 +2409,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -2393,16 +2425,16 @@
         <v>3.98</v>
       </c>
       <c r="F10" s="6">
-        <f>C10*D10/(E10 * 1000)</f>
+        <f t="shared" si="0"/>
         <v>2.5618090452261304E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -2415,7 +2447,7 @@
         <v>2.77</v>
       </c>
       <c r="F11" s="6">
-        <f>C11*D11/(E11 * 1000)</f>
+        <f t="shared" si="0"/>
         <v>9.7400722021660658E-3</v>
       </c>
     </row>
@@ -2437,7 +2469,7 @@
         <v>7.6899999999999994E-4</v>
       </c>
       <c r="F12" s="6">
-        <f>C12*D12/(E12 * 1000)</f>
+        <f t="shared" si="0"/>
         <v>22.145643693107935</v>
       </c>
     </row>
@@ -2459,29 +2491,29 @@
         <v>1.784E-3</v>
       </c>
       <c r="F13" s="6">
-        <f>C13*D13/(E13 * 1000)</f>
+        <f t="shared" si="0"/>
         <v>22.393497757847534</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="36">
-        <v>1</v>
-      </c>
-      <c r="D14" s="37">
+      <c r="A14" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="35">
+        <v>1</v>
+      </c>
+      <c r="D14" s="36">
         <v>9.01</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <f>0.0007508*1000</f>
         <v>0.75080000000000002</v>
       </c>
-      <c r="F14" s="39">
-        <f t="shared" ref="F14:F16" si="1">C14*D14/(E14 * 1000)</f>
+      <c r="F14" s="38">
+        <f t="shared" si="0"/>
         <v>1.2000532765050611E-2</v>
       </c>
       <c r="H14">
@@ -2489,24 +2521,24 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="36">
-        <v>1</v>
-      </c>
-      <c r="D15" s="37">
+      <c r="A15" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="35">
+        <v>1</v>
+      </c>
+      <c r="D15" s="36">
         <v>66.02</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <f>0.00244518*1000</f>
         <v>2.4451800000000001</v>
       </c>
-      <c r="F15" s="39">
-        <f t="shared" si="1"/>
+      <c r="F15" s="38">
+        <f t="shared" si="0"/>
         <v>2.7000057255498568E-2</v>
       </c>
       <c r="H15">
@@ -2514,1007 +2546,1008 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="36">
-        <v>1</v>
-      </c>
-      <c r="D16" s="37">
+      <c r="A16" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
         <v>10.81</v>
       </c>
-      <c r="E16" s="38">
-        <f t="shared" ref="E16" si="2">D16/H16</f>
+      <c r="E16" s="11">
+        <f>D16/H16</f>
         <v>0.90083333333333337</v>
       </c>
-      <c r="F16" s="39">
-        <f t="shared" si="1"/>
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
         <v>1.2E-2</v>
       </c>
       <c r="H16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>132.91</v>
+      </c>
+      <c r="E17" s="11">
+        <f>0.00193*1000</f>
+        <v>1.9300000000000002</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>6.8865284974093249E-2</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
         <v>12.01</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <f>0.0021*1000</f>
         <v>2.1</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" ref="F17" si="3">C17*D17/(E17 * 1000)</f>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
         <v>5.7190476190476193E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
         <v>44.01</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <f>0.000001951*1000</f>
         <v>1.951E-3</v>
       </c>
-      <c r="F18" s="6">
-        <f t="shared" ref="F18:F43" si="4">C18*D18/(E18 * 1000)</f>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19:F44" si="1">C19*D19/(E19 * 1000)</f>
         <v>22.557662737057917</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
         <v>28.01</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <f>0.00000125*1000</f>
         <v>1.25E-3</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" si="4"/>
+      <c r="F20" s="6">
+        <f t="shared" si="1"/>
         <v>22.408000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
         <v>35.450000000000003</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <f>0.0032*1000</f>
         <v>3.2</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="4"/>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
         <v>1.1078125000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4">
         <f>0.001556*1000</f>
         <v>1.556</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
         <v>238.03</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <f>0.01097*1000</f>
         <v>10.97</v>
       </c>
-      <c r="F23" s="6">
-        <f t="shared" si="4"/>
+      <c r="F24" s="6">
+        <f t="shared" si="1"/>
         <v>2.1698268003646309E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <f>0.00000018*1000</f>
         <v>1.7999999999999998E-4</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" si="4"/>
+      <c r="F25" s="6">
+        <f t="shared" si="1"/>
         <v>11.188888888888888</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
         <v>60.08</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="4"/>
+      <c r="F26" s="6">
+        <f t="shared" si="1"/>
         <v>3.755E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>238.03</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <f>0.01097*1000</f>
         <v>10.97</v>
       </c>
-      <c r="F26" s="6">
-        <f t="shared" si="4"/>
+      <c r="F27" s="6">
+        <f t="shared" si="1"/>
         <v>2.1698268003646309E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
         <v>46.07</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <f>0.000789*1000</f>
         <v>0.78900000000000003</v>
       </c>
-      <c r="F27" s="6">
-        <f t="shared" ref="F27:F28" si="5">C27*D27/(E27 * 1000)</f>
+      <c r="F28" s="6">
+        <f>C28*D28/(E28 * 1000)</f>
         <v>5.8390367553865653E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>61.206800000000001</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <f>0.00084175*1000</f>
         <v>0.84175</v>
       </c>
-      <c r="F28" s="6">
-        <f t="shared" si="5"/>
+      <c r="F29" s="6">
+        <f>C29*D29/(E29 * 1000)</f>
         <v>7.2713751113751113E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
-        <v>183.88</v>
-      </c>
-      <c r="E29" s="4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>668.34</v>
+      </c>
+      <c r="E30" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F29" s="6">
-        <f t="shared" si="4"/>
-        <v>7.3551999999999992E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4">
+      <c r="F30" s="6">
+        <f t="shared" si="1"/>
+        <v>0.26733600000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" si="4"/>
+      <c r="F31" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="36">
-        <v>1</v>
-      </c>
-      <c r="D31" s="37">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="35">
+        <v>1</v>
+      </c>
+      <c r="D32" s="36">
         <v>412.91</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E32" s="37">
         <f>0.001556*1000</f>
         <v>1.556</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" si="4"/>
+      <c r="F32" s="6">
+        <f t="shared" si="1"/>
         <v>0.26536632390745502</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" s="36">
-        <v>1</v>
-      </c>
-      <c r="D32" s="37">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="35">
+        <v>1</v>
+      </c>
+      <c r="D33" s="36">
         <v>278.13</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E33" s="37">
         <f>0.00321*1000</f>
         <v>3.21</v>
       </c>
-      <c r="F32" s="6">
-        <f t="shared" si="4"/>
+      <c r="F33" s="6">
+        <f t="shared" si="1"/>
         <v>8.6644859813084105E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="5"/>
+      <c r="E34" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <v>19</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <f>0.0032*1000</f>
         <v>3.2</v>
       </c>
-      <c r="F34" s="6">
-        <f t="shared" si="4"/>
+      <c r="F35" s="6">
+        <f t="shared" si="1"/>
         <v>5.9375000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4">
         <f xml:space="preserve"> 0.00028102905982906*1000</f>
         <v>0.28102905982906001</v>
       </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
         <f>5.03</f>
         <v>5.03</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <f>0.000216*1000</f>
         <v>0.216</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="4"/>
+      <c r="F37" s="6">
+        <f t="shared" si="1"/>
         <v>2.3287037037037037E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <v>92.09</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="4">
         <f>0.012*1000</f>
         <v>12</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" si="4"/>
+      <c r="F38" s="6">
+        <f t="shared" si="1"/>
         <v>7.6741666666666668E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
         <v>172.14</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F38" s="6">
-        <f t="shared" si="4"/>
+      <c r="F39" s="6">
+        <f t="shared" si="1"/>
         <v>3.1298181818181815E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
         <v>3.016</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <f>0.000000125*1000</f>
         <v>1.25E-4</v>
       </c>
-      <c r="F39" s="6">
-        <f t="shared" ref="F39:F41" si="6">C39*D39/(E39 * 1000)</f>
+      <c r="F40" s="6">
+        <f>C40*D40/(E40 * 1000)</f>
         <v>24.128</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E41" s="4">
         <f>0.0000001786*1000</f>
         <v>1.786E-4</v>
       </c>
-      <c r="F40" s="6">
-        <f t="shared" si="6"/>
+      <c r="F41" s="6">
+        <f>C41*D41/(E41 * 1000)</f>
         <v>22.407614781634937</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
         <v>34.01</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <f>0.001431*1000</f>
         <v>1.431</v>
       </c>
-      <c r="F41" s="6">
-        <f t="shared" si="6"/>
+      <c r="F42" s="6">
+        <f>C42*D42/(E42 * 1000)</f>
         <v>2.3766596785464708E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <v>168.69</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F42" s="6">
-        <f t="shared" si="4"/>
+      <c r="F43" s="6">
+        <f t="shared" si="1"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="4">
         <f>0.001004*1000</f>
         <v>1.004</v>
       </c>
-      <c r="F43" s="6">
-        <f t="shared" si="4"/>
+      <c r="F44" s="6">
+        <f t="shared" si="1"/>
         <v>3.1918326693227091E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
         <v>2.02</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E45" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F44" s="6">
-        <f t="shared" ref="F44:F56" si="7">C44*D44/(E44 * 1000)</f>
+      <c r="F45" s="6">
+        <f t="shared" ref="F45:F57" si="2">C45*D45/(E45 * 1000)</f>
         <v>22.469410456062288</v>
       </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
         <v>170.34</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="4">
         <f>0.00082*1000</f>
         <v>0.82</v>
       </c>
-      <c r="F45" s="6">
-        <f t="shared" ref="F45" si="8">C45*D45/(E45 * 1000)</f>
+      <c r="F46" s="6">
+        <f>C46*D46/(E46 * 1000)</f>
         <v>0.20773170731707319</v>
       </c>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
         <v>6.94</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <f xml:space="preserve"> 0.000534*1000</f>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F46" s="6">
-        <f t="shared" si="7"/>
+      <c r="F47" s="6">
+        <f t="shared" si="2"/>
         <v>1.2996254681647943E-2</v>
       </c>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
         <v>17.03</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F47" s="6">
-        <f t="shared" si="7"/>
+      <c r="F48" s="6">
+        <f t="shared" si="2"/>
         <v>2.4255804016521866E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
         <v>28.01</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <f>0.00079*1000</f>
         <v>0.79</v>
       </c>
-      <c r="F48" s="6">
-        <f t="shared" ref="F48" si="9">C48*D48/(E48 * 1000)</f>
+      <c r="F49" s="6">
+        <f>C49*D49/(E49 * 1000)</f>
         <v>3.5455696202531646E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
         <v>44.01</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E50" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F49" s="6">
-        <f t="shared" si="7"/>
+      <c r="F50" s="6">
+        <f t="shared" si="2"/>
         <v>3.7511186874067751E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E51" s="4">
         <f>0.0001624*1000</f>
         <v>0.16239999999999999</v>
       </c>
-      <c r="F50" s="6">
-        <f t="shared" si="7"/>
+      <c r="F51" s="6">
+        <f t="shared" si="2"/>
         <v>1.2401477832512315E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
         <v>3.016</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E52" s="4">
         <f>0.000059*1000</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F51" s="6">
-        <f>C51*D51/(E51 * 1000)</f>
+      <c r="F52" s="6">
+        <f>C52*D52/(E52 * 1000)</f>
         <v>5.1118644067796613E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E53" s="4">
         <f>0.0001786*1000</f>
         <v>0.17860000000000001</v>
       </c>
-      <c r="F52" s="6">
-        <f t="shared" ref="F52" si="10">C52*D52/(E52 * 1000)</f>
+      <c r="F53" s="6">
+        <f>C53*D53/(E53 * 1000)</f>
         <v>2.2407614781634933E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
         <v>2.02</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="4">
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F53" s="6">
-        <f>C53*D53/(E53 * 1000)</f>
+      <c r="F54" s="6">
+        <f>C54*D54/(E54 * 1000)</f>
         <v>2.8510938602681724E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
         <v>16.05</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F54" s="6">
-        <f t="shared" si="7"/>
+      <c r="F55" s="6">
+        <f t="shared" si="2"/>
         <v>3.7710580108550079E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="9" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="9">
-        <v>1</v>
-      </c>
-      <c r="D55" s="10">
+      <c r="C56" s="9">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10">
         <v>32</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F55" s="12">
-        <f t="shared" si="7"/>
+      <c r="F56" s="12">
+        <f t="shared" si="2"/>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
         <v>28.01</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E57" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F56" s="6">
-        <f t="shared" si="7"/>
+      <c r="F57" s="6">
+        <f t="shared" si="2"/>
         <v>3.3955342844708553E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5">
-        <f>D53</f>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5">
+        <f>D54</f>
         <v>2.02</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="4">
         <f>0.007085*1000</f>
         <v>7.085</v>
       </c>
-      <c r="F59" s="6">
-        <f t="shared" ref="F59:F68" si="11">C59*D59/(E59 * 1000)</f>
+      <c r="F60" s="6">
+        <f t="shared" ref="F60:F69" si="3">C60*D60/(E60 * 1000)</f>
         <v>2.851093860268172E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
         <v>159.69</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E61" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F60" s="6">
-        <f t="shared" si="11"/>
+      <c r="F61" s="6">
+        <f t="shared" si="3"/>
         <v>2.9034545454545455E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
         <v>159.69</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="4">
         <f>0.026*1000</f>
         <v>26</v>
       </c>
-      <c r="F61" s="6">
-        <f t="shared" si="11"/>
+      <c r="F62" s="6">
+        <f t="shared" si="3"/>
         <v>6.1419230769230769E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5">
-        <f>55.845*2</f>
-        <v>111.69</v>
-      </c>
-      <c r="E62" s="4">
-        <f>0.039*1000</f>
-        <v>39</v>
-      </c>
-      <c r="F62" s="6">
-        <f t="shared" si="11"/>
-        <v>2.8638461538461539E-3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3524,203 +3557,212 @@
         <v>111.69</v>
       </c>
       <c r="E63" s="4">
+        <f>0.039*1000</f>
+        <v>39</v>
+      </c>
+      <c r="F63" s="6">
+        <f t="shared" si="3"/>
+        <v>2.8638461538461539E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
+        <f>55.845*2</f>
+        <v>111.69</v>
+      </c>
+      <c r="E64" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F63" s="6">
-        <f t="shared" si="11"/>
+      <c r="F64" s="6">
+        <f t="shared" si="3"/>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5">
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E65" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F64" s="6">
-        <f t="shared" si="11"/>
+      <c r="F65" s="6">
+        <f t="shared" si="3"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5">
-        <f>(28.086*2)+(16*2)</f>
-        <v>88.171999999999997</v>
-      </c>
-      <c r="E65" s="4">
+      <c r="B66" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
+        <f>323.31+78.07</f>
+        <v>401.38</v>
+      </c>
+      <c r="E66" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F65" s="6">
-        <f t="shared" si="11"/>
-        <v>3.2656296296296294E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5">
+      <c r="F66" s="6">
+        <f t="shared" si="3"/>
+        <v>0.14865925925925927</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
         <v>46.07</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="4">
         <f>0.00088*1000</f>
         <v>0.88</v>
       </c>
-      <c r="F66" s="6">
-        <f t="shared" si="11"/>
+      <c r="F67" s="6">
+        <f t="shared" si="3"/>
         <v>5.2352272727272726E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="C67" s="36">
-        <v>1</v>
-      </c>
-      <c r="D67" s="37">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="35">
+        <v>1</v>
+      </c>
+      <c r="D68" s="36">
         <v>60.08</v>
       </c>
-      <c r="E67" s="38">
+      <c r="E68" s="37">
         <f>0.00347*1000</f>
         <v>3.47</v>
       </c>
-      <c r="F67" s="39">
-        <f>C67*D67/(E67 * 1000)</f>
+      <c r="F68" s="38">
+        <f>C68*D68/(E68 * 1000)</f>
         <v>1.7314121037463978E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5">
-        <v>233.88</v>
-      </c>
-      <c r="E68" s="4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <v>750.27</v>
+      </c>
+      <c r="E69" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F68" s="6">
-        <f t="shared" si="11"/>
-        <v>4.6775999999999998E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F69" s="6"/>
+      <c r="F69" s="6">
+        <f t="shared" si="3"/>
+        <v>0.15005399999999999</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5">
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E71" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F70" s="6">
-        <f>C70*D70/(E70 * 1000)</f>
+      <c r="F71" s="6">
+        <f>C71*D71/(E71 * 1000)</f>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5">
         <v>92.04</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="4">
         <f>0.00145*1000</f>
         <v>1.45</v>
       </c>
-      <c r="F71" s="6">
-        <f>C71*D71/(E71 * 1000)</f>
+      <c r="F72" s="6">
+        <f>C72*D72/(E72 * 1000)</f>
         <v>6.3475862068965522E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="4">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1">
@@ -3728,283 +3770,282 @@
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5">
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5">
         <v>32</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E75" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F74" s="6">
-        <f>C74*D74/(E74 * 1000)</f>
+      <c r="F75" s="6">
+        <f>C75*D75/(E75 * 1000)</f>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
         <v>30.97</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F75" s="6">
-        <f>C75*D75/(E75 * 1000)</f>
+      <c r="F76" s="6">
+        <f>C76*D76/(E76 * 1000)</f>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
         <v>244</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E77" s="4">
         <f>0.019816*1000</f>
         <v>19.815999999999999</v>
       </c>
-      <c r="F76" s="6">
-        <f>C76*D76/(E76 * 1000)</f>
+      <c r="F77" s="6">
+        <f>C77*D77/(E77 * 1000)</f>
         <v>1.2313282196205087E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="4">
         <f>0.00104*1000</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5">
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E79" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F78" s="6">
-        <f>C78*D78/(E78 * 1000)</f>
+      <c r="F79" s="6">
+        <f>C79*D79/(E79 * 1000)</f>
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="4">
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="4">
         <f>0.0052*1000</f>
         <v>5.2</v>
       </c>
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="4">
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="4">
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="4">
         <f>0.004*1000</f>
         <v>4</v>
       </c>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5">
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
         <v>76.08</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F83" s="6">
-        <f>C83*D83/(E83 * 1000)</f>
+      <c r="F84" s="6">
+        <f>C84*D84/(E84 * 1000)</f>
         <v>3.0432000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5">
         <v>28.09</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E85" s="4">
         <f>0.002329*1000</f>
         <v>2.3289999999999997</v>
       </c>
-      <c r="F84" s="6">
-        <f>C84*D84/(E84 * 1000)</f>
+      <c r="F85" s="6">
+        <f>C85*D85/(E85 * 1000)</f>
         <v>1.2060970373550882E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="5">
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5">
         <v>186.09</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E87" s="4">
         <f>0.0031*1000</f>
         <v>3.1</v>
       </c>
-      <c r="F86" s="6">
-        <f t="shared" ref="F86" si="12">C86*D86/(E86 * 1000)</f>
+      <c r="F87" s="6">
+        <f>C87*D87/(E87 * 1000)</f>
         <v>6.0029032258064517E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
-      </c>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
       </c>
       <c r="F88" s="6"/>
     </row>
@@ -4012,527 +4053,540 @@
       <c r="A89" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="1">
         <v>1</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="5"/>
+      <c r="E89" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5">
+        <v>232.04</v>
+      </c>
+      <c r="E90" s="4">
+        <f>0.0117*1000</f>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="F90" s="6">
+        <f>C90*D90/(E90 * 1000)</f>
+        <v>1.9832478632478629E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E91" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F89" s="6">
-        <f>C89*D89/(E89 * 1000)</f>
+      <c r="F91" s="6">
+        <f>C91*D91/(E91 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
-      <c r="D90" s="5">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5">
         <v>60.1</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E92" s="4">
         <f>0.000791*1000</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="F90" s="6">
-        <f>C90*D90/(E90 * 1000)</f>
+      <c r="F92" s="6">
+        <f>C92*D92/(E92 * 1000)</f>
         <v>7.5979772439949439E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
-      <c r="D91" s="5">
-        <f>SUM(($D$43*0.25)+($D$90*0.75))</f>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5">
+        <f>SUM(($D$44*0.25)+($D$92*0.75))</f>
         <v>53.086500000000001</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E93" s="4">
         <f>0.000829*1000</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="F91" s="6">
-        <f>C91*D91/(E91 * 1000)</f>
+      <c r="F93" s="6">
+        <f>C93*D93/(E93 * 1000)</f>
         <v>6.4036791314837152E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1">
-        <v>1</v>
-      </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="4">
         <f>0.00075*1000</f>
         <v>0.75</v>
       </c>
-      <c r="F92" s="6"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1">
-        <v>1</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="4">
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="4">
         <f>0.001005*1000</f>
         <v>1.0050000000000001</v>
       </c>
-      <c r="F93" s="6"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="1">
-        <v>1</v>
-      </c>
-      <c r="D94" s="5">
-        <v>18.02</v>
-      </c>
-      <c r="E94" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F94" s="6">
-        <f>C94*D94/(E94 * 1000)</f>
-        <v>1.8020000000000001E-2</v>
-      </c>
+      <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D97" s="30"/>
-      <c r="E97" s="4">
-        <f t="shared" ref="E97:E131" si="13">F97*1000</f>
-        <v>5</v>
-      </c>
-      <c r="F97" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>114</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="5">
+        <v>18.02</v>
+      </c>
+      <c r="E96" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F96" s="6">
+        <f>C96*D96/(E96 * 1000)</f>
+        <v>1.8020000000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E98" s="4">
-        <f t="shared" si="13"/>
-        <v>19.3</v>
-      </c>
-      <c r="F98" s="6">
-        <v>1.9300000000000001E-2</v>
+      <c r="A98" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
-        <v>54</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D99" s="30"/>
       <c r="E99" s="4">
-        <f t="shared" si="13"/>
-        <v>54.4</v>
+        <f t="shared" ref="E99:E133" si="4">F99*1000</f>
+        <v>5</v>
       </c>
       <c r="F99" s="6">
-        <v>5.4399999999999997E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>19.3</v>
       </c>
       <c r="F100" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>1.9300000000000001E-2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>54.4</v>
       </c>
       <c r="F101" s="6">
-        <v>7.0000000000000001E-3</v>
+        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="13"/>
-        <v>0.53399999999999992</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="F102" s="6">
-        <v>5.3399999999999997E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="13"/>
-        <v>6.0000000000000005E-2</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="F103" s="6">
-        <v>6.0000000000000002E-5</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="13"/>
-        <v>2.5</v>
+        <f t="shared" si="4"/>
+        <v>0.53399999999999992</v>
       </c>
       <c r="F104" s="6">
-        <v>2.5000000000000001E-3</v>
+        <v>5.3399999999999997E-4</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="13"/>
-        <v>5.0108799999999993</v>
+        <f t="shared" si="4"/>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="F105" s="6">
-        <v>5.0108799999999997E-3</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="13"/>
-        <v>4.3499999999999996</v>
+        <f t="shared" si="4"/>
+        <v>2.5</v>
       </c>
       <c r="F106" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="13"/>
-        <v>0.216</v>
+        <f t="shared" si="4"/>
+        <v>5.0108799999999993</v>
       </c>
       <c r="F107" s="6">
-        <v>2.1599999999999999E-4</v>
+        <v>5.0108799999999997E-3</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="13"/>
-        <v>23.125</v>
+        <f t="shared" si="4"/>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F108" s="6">
-        <v>2.3125E-2</v>
+        <v>4.3499999999999997E-3</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="13"/>
-        <v>5.25</v>
+        <f t="shared" si="4"/>
+        <v>0.216</v>
       </c>
       <c r="F109" s="6">
-        <v>5.2500000000000003E-3</v>
+        <v>2.1599999999999999E-4</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>23.125</v>
       </c>
       <c r="F110" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>2.3125E-2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5.25</v>
       </c>
       <c r="F111" s="6">
-        <v>1E-3</v>
+        <v>5.2500000000000003E-3</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="13"/>
-        <v>12.5</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="F112" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="29" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="13"/>
-        <v>2.4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="F113" s="6">
-        <v>2.3999999999999998E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="13"/>
-        <v>13.5</v>
+        <f t="shared" si="4"/>
+        <v>12.5</v>
       </c>
       <c r="F114" s="6">
-        <v>1.35E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="29" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="13"/>
-        <v>8.6</v>
+        <f t="shared" si="4"/>
+        <v>2.4</v>
       </c>
       <c r="F115" s="6">
-        <v>8.6E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="29" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" si="13"/>
-        <v>19.099999999999998</v>
+        <f t="shared" si="4"/>
+        <v>13.5</v>
       </c>
       <c r="F116" s="6">
-        <v>1.9099999999999999E-2</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="29" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="E117" s="4">
-        <f t="shared" si="13"/>
-        <v>10.97</v>
+        <f t="shared" si="4"/>
+        <v>8.6</v>
       </c>
       <c r="F117" s="6">
-        <v>1.0970000000000001E-2</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="3"/>
+        <v>164</v>
+      </c>
       <c r="E118" s="4">
-        <f t="shared" si="13"/>
-        <v>5.7050000000000001</v>
+        <f t="shared" si="4"/>
+        <v>19.099999999999998</v>
       </c>
       <c r="F118" s="6">
-        <v>5.705E-3</v>
+        <v>1.9099999999999999E-2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="3"/>
+        <v>165</v>
+      </c>
       <c r="E119" s="4">
-        <f t="shared" si="13"/>
-        <v>13.5</v>
+        <f t="shared" si="4"/>
+        <v>10.97</v>
       </c>
       <c r="F119" s="6">
-        <v>1.35E-2</v>
+        <v>1.0970000000000001E-2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="29" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="3"/>
       <c r="E120" s="4">
-        <f t="shared" si="13"/>
-        <v>0.35399999999999998</v>
+        <f t="shared" si="4"/>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F120" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="29" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="3"/>
       <c r="E121" s="4">
-        <f t="shared" si="13"/>
-        <v>2.12805</v>
+        <f t="shared" si="4"/>
+        <v>13.5</v>
       </c>
       <c r="F121" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="3"/>
       <c r="E122" s="4">
-        <f t="shared" si="13"/>
-        <v>1.08</v>
+        <f t="shared" si="4"/>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F122" s="6">
-        <v>1.08E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="3"/>
       <c r="E123" s="4">
-        <f t="shared" si="13"/>
-        <v>4.1000000000000005</v>
+        <f t="shared" si="4"/>
+        <v>2.12805</v>
       </c>
       <c r="F123" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
-        <v>49</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="3"/>
       <c r="E124" s="4">
-        <f t="shared" si="13"/>
-        <v>12.5</v>
+        <f t="shared" si="4"/>
+        <v>1.08</v>
       </c>
       <c r="F124" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
-        <v>68</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="3"/>
       <c r="E125" s="4">
-        <f t="shared" si="13"/>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="4"/>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F125" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="29" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="E126" s="4">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>12.5</v>
       </c>
       <c r="F126" s="6">
-        <v>1E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="29" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="E127" s="4">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F127" s="6">
-        <v>1E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E128" s="4">
-        <f t="shared" si="13"/>
-        <v>7.5</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="F128" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4540,34 +4594,58 @@
         <v>113</v>
       </c>
       <c r="E129" s="4">
-        <f t="shared" si="13"/>
-        <v>4.3499999999999996</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="F129" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E130" s="4">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>7.5</v>
       </c>
       <c r="F130" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="29" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="E131" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F131" s="6">
+        <v>4.3499999999999997E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" s="4">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F132" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E133" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F133" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="225">
   <si>
     <t>Resource</t>
   </si>
@@ -732,6 +732,9 @@
   </si>
   <si>
     <t>Smaltite ((CoFeNi)As2) + Fluorite (CaF2)</t>
+  </si>
+  <si>
+    <t>HalideCider</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1391,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1473,27 +1476,27 @@
         <v>70</v>
       </c>
       <c r="B8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$134,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$134,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$134,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$134,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$134,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="G8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(G7,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(G7,Database!$A$2:$E$134,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1590,27 +1593,27 @@
         <v>70</v>
       </c>
       <c r="B15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$134,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$134,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$134,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$134,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$134,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="G15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(G14,Database!$A$2:$E$133,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(G14,Database!$A$2:$E$134,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1697,7 +1700,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$133</xm:f>
+            <xm:f>Database!$A$2:$A$134</xm:f>
           </x14:formula1>
           <xm:sqref>B7:G7 B14:G14</xm:sqref>
         </x14:dataValidation>
@@ -2129,13 +2132,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$133</xm:f>
+            <xm:f>Database!$A$2:$A$134</xm:f>
           </x14:formula1>
           <xm:sqref>B16:G16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$133</xm:f>
+            <xm:f>Database!$A$2:$A$134</xm:f>
           </x14:formula1>
           <xm:sqref>B7:G7</xm:sqref>
         </x14:dataValidation>
@@ -2147,11 +2150,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D28" sqref="D28"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4216,7 +4219,7 @@
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="4">
-        <f t="shared" ref="E99:E133" si="4">F99*1000</f>
+        <f t="shared" ref="E99:E134" si="4">F99*1000</f>
         <v>5</v>
       </c>
       <c r="F99" s="6">
@@ -4369,229 +4372,229 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="29" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="E112" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6.24</v>
       </c>
       <c r="F112" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>6.2399999999999999E-3</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="29" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="E113" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F113" s="6">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="29" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="E114" s="4">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="F114" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="29" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="4"/>
-        <v>2.4</v>
+        <v>12.5</v>
       </c>
       <c r="F115" s="6">
-        <v>2.3999999999999998E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="29" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>2.4</v>
       </c>
       <c r="F116" s="6">
-        <v>1.35E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="4"/>
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="F117" s="6">
-        <v>8.6E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="29" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="4"/>
-        <v>19.099999999999998</v>
+        <v>8.6</v>
       </c>
       <c r="F118" s="6">
-        <v>1.9099999999999999E-2</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="4"/>
-        <v>10.97</v>
+        <v>19.099999999999998</v>
       </c>
       <c r="F119" s="6">
-        <v>1.0970000000000001E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="3"/>
+        <v>165</v>
+      </c>
       <c r="E120" s="4">
         <f t="shared" si="4"/>
-        <v>5.7050000000000001</v>
+        <v>10.97</v>
       </c>
       <c r="F120" s="6">
-        <v>5.705E-3</v>
+        <v>1.0970000000000001E-2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="3"/>
       <c r="E121" s="4">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F121" s="6">
-        <v>1.35E-2</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="3"/>
       <c r="E122" s="4">
         <f t="shared" si="4"/>
-        <v>0.35399999999999998</v>
+        <v>13.5</v>
       </c>
       <c r="F122" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="3"/>
       <c r="E123" s="4">
         <f t="shared" si="4"/>
-        <v>2.12805</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F123" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="3"/>
       <c r="E124" s="4">
         <f t="shared" si="4"/>
-        <v>1.08</v>
+        <v>2.12805</v>
       </c>
       <c r="F124" s="6">
-        <v>1.08E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="3"/>
       <c r="E125" s="4">
         <f t="shared" si="4"/>
-        <v>4.1000000000000005</v>
+        <v>1.08</v>
       </c>
       <c r="F125" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="29" t="s">
-        <v>46</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="3"/>
       <c r="E126" s="4">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F126" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="29" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="4"/>
-        <v>4.5999999999999996</v>
+        <v>12.5</v>
       </c>
       <c r="F127" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F128" s="6">
-        <v>1E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="4"/>
@@ -4603,49 +4606,61 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="4"/>
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="F130" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="4"/>
-        <v>4.3499999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="F131" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F132" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="29" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="E133" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F133" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E134" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F134" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="227">
   <si>
     <t>Resource</t>
   </si>
@@ -735,6 +735,12 @@
   </si>
   <si>
     <t>HalideCider</t>
+  </si>
+  <si>
+    <t>FissionPulses</t>
+  </si>
+  <si>
+    <t>(Fe + Be2O3)2.5 + (U)1.1</t>
   </si>
 </sst>
 </file>
@@ -1390,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1476,27 +1482,27 @@
         <v>70</v>
       </c>
       <c r="B8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$134,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$134,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$134,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$134,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$134,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="G8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(G7,Database!$A$2:$E$134,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(G7,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1593,27 +1599,27 @@
         <v>70</v>
       </c>
       <c r="B15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$134,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$134,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$134,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$134,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$134,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="G15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(G14,Database!$A$2:$E$134,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(G14,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1700,7 +1706,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$134</xm:f>
+            <xm:f>Database!$A$2:$A$135</xm:f>
           </x14:formula1>
           <xm:sqref>B7:G7 B14:G14</xm:sqref>
         </x14:dataValidation>
@@ -1714,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1799,27 +1805,27 @@
         <v>88</v>
       </c>
       <c r="B8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$97,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$97,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$97,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$97,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$97,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="G8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(G7,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(G7,Database!$A$2:$E$97,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1828,27 +1834,27 @@
         <v>93</v>
       </c>
       <c r="B9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$97,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$97,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D7,Database!$A$2:$E$97,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E7,Database!$A$2:$E$97,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F7,Database!$A$2:$E$97,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="G9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(G7,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(G7,Database!$A$2:$E$97,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1969,27 +1975,27 @@
         <v>88</v>
       </c>
       <c r="B17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$97,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$97,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$97,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$97,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$97,4,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="G17" s="21" t="str">
-        <f>IFERROR(VLOOKUP(G16,Database!$A$2:$E$96,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(G16,Database!$A$2:$E$97,4,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -1998,27 +2004,27 @@
         <v>93</v>
       </c>
       <c r="B18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B16,Database!$A$2:$E$97,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="C18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C16,Database!$A$2:$E$97,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="D18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D16,Database!$A$2:$E$97,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(E16,Database!$A$2:$E$97,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="F18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(F16,Database!$A$2:$E$97,5,FALSE),"-")</f>
         <v>-</v>
       </c>
       <c r="G18" s="21" t="str">
-        <f>IFERROR(VLOOKUP(G16,Database!$A$2:$E$96,5,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(G16,Database!$A$2:$E$97,5,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -2132,13 +2138,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$134</xm:f>
+            <xm:f>Database!$A$2:$A$135</xm:f>
           </x14:formula1>
           <xm:sqref>B16:G16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$134</xm:f>
+            <xm:f>Database!$A$2:$A$135</xm:f>
           </x14:formula1>
           <xm:sqref>B7:G7</xm:sqref>
         </x14:dataValidation>
@@ -2150,16 +2156,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L134"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="30.125" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -2389,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <f>SUM(($D$44*0.5)+($D$92*0.5))</f>
+        <f>SUM(($D$45*0.5)+($D$93*0.5))</f>
         <v>46.073</v>
       </c>
       <c r="E9" s="4">
@@ -2637,7 +2643,7 @@
         <v>1.951E-3</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:F44" si="1">C19*D19/(E19 * 1000)</f>
+        <f t="shared" ref="F19:F45" si="1">C19*D19/(E19 * 1000)</f>
         <v>22.557662737057917</v>
       </c>
     </row>
@@ -2948,629 +2954,628 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>741.30799999999999</v>
+      </c>
+      <c r="E35" s="4">
+        <f>0.05*1000</f>
+        <v>50</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="1"/>
+        <v>1.482616E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>19</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <f>0.0032*1000</f>
         <v>3.2</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="6">
         <f t="shared" si="1"/>
         <v>5.9375000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4">
         <f xml:space="preserve"> 0.00028102905982906*1000</f>
         <v>0.28102905982906001</v>
       </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
         <f>5.03</f>
         <v>5.03</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="4">
         <f>0.000216*1000</f>
         <v>0.216</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <f t="shared" si="1"/>
         <v>2.3287037037037037E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
         <v>92.09</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <f>0.012*1000</f>
         <v>12</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <f t="shared" si="1"/>
         <v>7.6741666666666668E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
         <v>172.14</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="6">
         <f t="shared" si="1"/>
         <v>3.1298181818181815E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <v>3.016</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E41" s="4">
         <f>0.000000125*1000</f>
         <v>1.25E-4</v>
       </c>
-      <c r="F40" s="6">
-        <f>C40*D40/(E40 * 1000)</f>
+      <c r="F41" s="6">
+        <f>C41*D41/(E41 * 1000)</f>
         <v>24.128</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <f>0.0000001786*1000</f>
         <v>1.786E-4</v>
       </c>
-      <c r="F41" s="6">
-        <f>C41*D41/(E41 * 1000)</f>
+      <c r="F42" s="6">
+        <f>C42*D42/(E42 * 1000)</f>
         <v>22.407614781634937</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <v>34.01</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <f>0.001431*1000</f>
         <v>1.431</v>
       </c>
-      <c r="F42" s="6">
-        <f>C42*D42/(E42 * 1000)</f>
+      <c r="F43" s="6">
+        <f>C43*D43/(E43 * 1000)</f>
         <v>2.3766596785464708E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <v>168.69</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="6">
         <f t="shared" si="1"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E45" s="4">
         <f>0.001004*1000</f>
         <v>1.004</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <f t="shared" si="1"/>
         <v>3.1918326693227091E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
         <v>2.02</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F45" s="6">
-        <f t="shared" ref="F45:F57" si="2">C45*D45/(E45 * 1000)</f>
+      <c r="F46" s="6">
+        <f t="shared" ref="F46:F58" si="2">C46*D46/(E46 * 1000)</f>
         <v>22.469410456062288</v>
       </c>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
         <v>170.34</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <f>0.00082*1000</f>
         <v>0.82</v>
       </c>
-      <c r="F46" s="6">
-        <f>C46*D46/(E46 * 1000)</f>
+      <c r="F47" s="6">
+        <f>C47*D47/(E47 * 1000)</f>
         <v>0.20773170731707319</v>
       </c>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
         <v>6.94</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="4">
         <f xml:space="preserve"> 0.000534*1000</f>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="6">
         <f t="shared" si="2"/>
         <v>1.2996254681647943E-2</v>
       </c>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
         <v>17.03</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <f t="shared" si="2"/>
         <v>2.4255804016521866E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
         <v>28.01</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E50" s="4">
         <f>0.00079*1000</f>
         <v>0.79</v>
       </c>
-      <c r="F49" s="6">
-        <f>C49*D49/(E49 * 1000)</f>
+      <c r="F50" s="6">
+        <f>C50*D50/(E50 * 1000)</f>
         <v>3.5455696202531646E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
         <v>44.01</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E51" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <f t="shared" si="2"/>
         <v>3.7511186874067751E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E52" s="4">
         <f>0.0001624*1000</f>
         <v>0.16239999999999999</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="6">
         <f t="shared" si="2"/>
         <v>1.2401477832512315E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
         <v>3.016</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E53" s="4">
         <f>0.000059*1000</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F52" s="6">
-        <f>C52*D52/(E52 * 1000)</f>
+      <c r="F53" s="6">
+        <f>C53*D53/(E53 * 1000)</f>
         <v>5.1118644067796613E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
         <v>4.0019999999999998</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="4">
         <f>0.0001786*1000</f>
         <v>0.17860000000000001</v>
       </c>
-      <c r="F53" s="6">
-        <f>C53*D53/(E53 * 1000)</f>
+      <c r="F54" s="6">
+        <f>C54*D54/(E54 * 1000)</f>
         <v>2.2407614781634933E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
         <v>2.02</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F54" s="6">
-        <f>C54*D54/(E54 * 1000)</f>
+      <c r="F55" s="6">
+        <f>C55*D55/(E55 * 1000)</f>
         <v>2.8510938602681724E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5">
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
         <v>16.05</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="4">
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F56" s="6">
         <f t="shared" si="2"/>
         <v>3.7710580108550079E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="9">
-        <v>1</v>
-      </c>
-      <c r="D56" s="10">
+      <c r="C57" s="9">
+        <v>1</v>
+      </c>
+      <c r="D57" s="10">
         <v>32</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F57" s="12">
         <f t="shared" si="2"/>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
         <v>28.01</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="6">
         <f t="shared" si="2"/>
         <v>3.3955342844708553E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="4">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5">
-        <f>D54</f>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
+        <f>D55</f>
         <v>2.02</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E61" s="4">
         <f>0.007085*1000</f>
         <v>7.085</v>
       </c>
-      <c r="F60" s="6">
-        <f t="shared" ref="F60:F69" si="3">C60*D60/(E60 * 1000)</f>
+      <c r="F61" s="6">
+        <f t="shared" ref="F61:F70" si="3">C61*D61/(E61 * 1000)</f>
         <v>2.851093860268172E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
         <v>159.69</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="6">
         <f t="shared" si="3"/>
         <v>2.9034545454545455E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
         <v>159.69</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E63" s="4">
         <f>0.026*1000</f>
         <v>26</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="6">
         <f t="shared" si="3"/>
         <v>6.1419230769230769E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5">
-        <f>55.845*2</f>
-        <v>111.69</v>
-      </c>
-      <c r="E63" s="4">
-        <f>0.039*1000</f>
-        <v>39</v>
-      </c>
-      <c r="F63" s="6">
-        <f t="shared" si="3"/>
-        <v>2.8638461538461539E-3</v>
-      </c>
-    </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>200</v>
@@ -3583,203 +3588,212 @@
         <v>111.69</v>
       </c>
       <c r="E64" s="4">
+        <f>0.039*1000</f>
+        <v>39</v>
+      </c>
+      <c r="F64" s="6">
+        <f t="shared" si="3"/>
+        <v>2.8638461538461539E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
+        <f>55.845*2</f>
+        <v>111.69</v>
+      </c>
+      <c r="E65" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <f t="shared" si="3"/>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5">
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F66" s="6">
         <f t="shared" si="3"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5">
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
         <f>323.31+78.07</f>
         <v>401.38</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F67" s="6">
         <f t="shared" si="3"/>
         <v>0.14865925925925927</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
         <v>46.07</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="4">
         <f>0.00088*1000</f>
         <v>0.88</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F68" s="6">
         <f t="shared" si="3"/>
         <v>5.2352272727272726E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B69" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="35">
-        <v>1</v>
-      </c>
-      <c r="D68" s="36">
+      <c r="C69" s="35">
+        <v>1</v>
+      </c>
+      <c r="D69" s="36">
         <v>60.08</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E69" s="37">
         <f>0.00347*1000</f>
         <v>3.47</v>
       </c>
-      <c r="F68" s="38">
-        <f>C68*D68/(E68 * 1000)</f>
+      <c r="F69" s="38">
+        <f>C69*D69/(E69 * 1000)</f>
         <v>1.7314121037463978E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
         <v>750.27</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F70" s="6">
         <f t="shared" si="3"/>
         <v>0.15005399999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
-      <c r="F70" s="6"/>
-    </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5">
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F71" s="6">
-        <f>C71*D71/(E71 * 1000)</f>
+      <c r="F72" s="6">
+        <f>C72*D72/(E72 * 1000)</f>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5">
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5">
         <v>92.04</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E73" s="4">
         <f>0.00145*1000</f>
         <v>1.45</v>
       </c>
-      <c r="F72" s="6">
-        <f>C72*D72/(E72 * 1000)</f>
+      <c r="F73" s="6">
+        <f>C73*D73/(E73 * 1000)</f>
         <v>6.3475862068965522E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="4">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1">
@@ -3787,826 +3801,828 @@
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5">
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
         <v>32</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E76" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F75" s="6">
-        <f>C75*D75/(E75 * 1000)</f>
+      <c r="F76" s="6">
+        <f>C76*D76/(E76 * 1000)</f>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
         <v>30.97</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F76" s="6">
-        <f>C76*D76/(E76 * 1000)</f>
+      <c r="F77" s="6">
+        <f>C77*D77/(E77 * 1000)</f>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5">
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
         <v>244</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="4">
         <f>0.019816*1000</f>
         <v>19.815999999999999</v>
       </c>
-      <c r="F77" s="6">
-        <f>C77*D77/(E77 * 1000)</f>
+      <c r="F78" s="6">
+        <f>C78*D78/(E78 * 1000)</f>
         <v>1.2313282196205087E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="4">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4">
         <f>0.00104*1000</f>
         <v>1.0399999999999998</v>
       </c>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5">
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F79" s="6">
-        <f>C79*D79/(E79 * 1000)</f>
+      <c r="F80" s="6">
+        <f>C80*D80/(E80 * 1000)</f>
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="4">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="4">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="4">
         <f>0.0052*1000</f>
         <v>5.2</v>
       </c>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="4">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="4">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="4">
         <f>0.004*1000</f>
         <v>4</v>
       </c>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5">
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5">
         <v>76.08</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E85" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F84" s="6">
-        <f>C84*D84/(E84 * 1000)</f>
+      <c r="F85" s="6">
+        <f>C85*D85/(E85 * 1000)</f>
         <v>3.0432000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5">
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5">
         <v>28.09</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="4">
         <f>0.002329*1000</f>
         <v>2.3289999999999997</v>
       </c>
-      <c r="F85" s="6">
-        <f>C85*D85/(E85 * 1000)</f>
+      <c r="F86" s="6">
+        <f>C86*D86/(E86 * 1000)</f>
         <v>1.2060970373550882E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="4">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="4">
         <f>0.00378*1000</f>
         <v>3.78</v>
       </c>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="5">
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5">
         <v>186.09</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E88" s="4">
         <f>0.0031*1000</f>
         <v>3.1</v>
       </c>
-      <c r="F87" s="6">
-        <f>C87*D87/(E87 * 1000)</f>
+      <c r="F88" s="6">
+        <f>C88*D88/(E88 * 1000)</f>
         <v>6.0029032258064517E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="4">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="4">
-        <f>0.001*1000</f>
-        <v>1</v>
-      </c>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="4">
+        <f>0.001*1000</f>
+        <v>1</v>
+      </c>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
-      <c r="D90" s="5">
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5">
         <v>232.04</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E91" s="4">
         <f>0.0117*1000</f>
         <v>11.700000000000001</v>
       </c>
-      <c r="F90" s="6">
-        <f>C90*D90/(E90 * 1000)</f>
+      <c r="F91" s="6">
+        <f>C91*D91/(E91 * 1000)</f>
         <v>1.9832478632478629E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
-      <c r="D91" s="5">
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5">
         <v>270.02999999999997</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E92" s="4">
         <f>0.0075*1000</f>
         <v>7.5</v>
       </c>
-      <c r="F91" s="6">
-        <f>C91*D91/(E91 * 1000)</f>
+      <c r="F92" s="6">
+        <f>C92*D92/(E92 * 1000)</f>
         <v>3.6003999999999994E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="1">
-        <v>1</v>
-      </c>
-      <c r="D92" s="5">
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5">
         <v>60.1</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E93" s="4">
         <f>0.000791*1000</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="F92" s="6">
-        <f>C92*D92/(E92 * 1000)</f>
+      <c r="F93" s="6">
+        <f>C93*D93/(E93 * 1000)</f>
         <v>7.5979772439949439E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="1">
-        <v>1</v>
-      </c>
-      <c r="D93" s="5">
-        <f>SUM(($D$44*0.25)+($D$92*0.75))</f>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="5">
+        <f>SUM(($D$45*0.25)+($D$93*0.75))</f>
         <v>53.086500000000001</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E94" s="4">
         <f>0.000829*1000</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="F93" s="6">
-        <f>C93*D93/(E93 * 1000)</f>
+      <c r="F94" s="6">
+        <f>C94*D94/(E94 * 1000)</f>
         <v>6.4036791314837152E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1">
-        <v>1</v>
-      </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="4">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="4">
         <f>0.00075*1000</f>
         <v>0.75</v>
       </c>
-      <c r="F94" s="6"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1">
-        <v>1</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="4">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="4">
         <f>0.001005*1000</f>
         <v>1.0050000000000001</v>
       </c>
-      <c r="F95" s="6"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="1">
-        <v>1</v>
-      </c>
-      <c r="D96" s="5">
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="5">
         <v>18.02</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E97" s="4">
         <f>0.001*1000</f>
         <v>1</v>
       </c>
-      <c r="F96" s="6">
-        <f>C96*D96/(E96 * 1000)</f>
+      <c r="F97" s="6">
+        <f>C97*D97/(E97 * 1000)</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" s="30"/>
-      <c r="E99" s="4">
-        <f t="shared" ref="E99:E134" si="4">F99*1000</f>
-        <v>5</v>
-      </c>
-      <c r="F99" s="6">
-        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" s="30"/>
+      <c r="E100" s="4">
+        <f t="shared" ref="E100:E135" si="4">F100*1000</f>
+        <v>5</v>
+      </c>
+      <c r="F100" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E101" s="4">
         <f t="shared" si="4"/>
         <v>19.3</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F101" s="6">
         <v>1.9300000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="29" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E102" s="4">
         <f t="shared" si="4"/>
         <v>54.4</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F102" s="6">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="29" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E103" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F103" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="29" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E104" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F104" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="29" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E105" s="4">
         <f t="shared" si="4"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F105" s="6">
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="29" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E106" s="4">
         <f t="shared" si="4"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F106" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="29" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E107" s="4">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F107" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="29" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E108" s="4">
         <f t="shared" si="4"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F108" s="6">
         <v>5.0108799999999997E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="29" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E109" s="4">
         <f t="shared" si="4"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F109" s="6">
         <v>4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="29" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E110" s="4">
         <f t="shared" si="4"/>
         <v>0.216</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F110" s="6">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="29" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E111" s="4">
         <f t="shared" si="4"/>
         <v>23.125</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F111" s="6">
         <v>2.3125E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="29" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E112" s="4">
         <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F112" s="6">
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="29" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E113" s="4">
         <f t="shared" si="4"/>
         <v>6.24</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F113" s="6">
         <v>6.2399999999999999E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="29" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E114" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F114" s="6">
         <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E114" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F114" s="6">
-        <v>1E-3</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="29" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="F115" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="29" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="4"/>
-        <v>2.4</v>
+        <v>12.5</v>
       </c>
       <c r="F116" s="6">
-        <v>2.3999999999999998E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="29" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>2.4</v>
       </c>
       <c r="F117" s="6">
-        <v>1.35E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="4"/>
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="F118" s="6">
-        <v>8.6E-3</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="29" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="4"/>
-        <v>19.099999999999998</v>
+        <v>8.6</v>
       </c>
       <c r="F119" s="6">
-        <v>1.9099999999999999E-2</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="4"/>
-        <v>10.97</v>
+        <v>19.099999999999998</v>
       </c>
       <c r="F120" s="6">
-        <v>1.0970000000000001E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="3"/>
+        <v>165</v>
+      </c>
       <c r="E121" s="4">
         <f t="shared" si="4"/>
-        <v>5.7050000000000001</v>
+        <v>10.97</v>
       </c>
       <c r="F121" s="6">
-        <v>5.705E-3</v>
+        <v>1.0970000000000001E-2</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="3"/>
       <c r="E122" s="4">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="F122" s="6">
-        <v>1.35E-2</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="3"/>
       <c r="E123" s="4">
         <f t="shared" si="4"/>
-        <v>0.35399999999999998</v>
+        <v>13.5</v>
       </c>
       <c r="F123" s="6">
-        <v>3.5399999999999999E-4</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="3"/>
       <c r="E124" s="4">
         <f t="shared" si="4"/>
-        <v>2.12805</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="F124" s="6">
-        <v>2.1280499999999998E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="3"/>
       <c r="E125" s="4">
         <f t="shared" si="4"/>
-        <v>1.08</v>
+        <v>2.12805</v>
       </c>
       <c r="F125" s="6">
-        <v>1.08E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="29" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="3"/>
       <c r="E126" s="4">
         <f t="shared" si="4"/>
-        <v>4.1000000000000005</v>
+        <v>1.08</v>
       </c>
       <c r="F126" s="6">
-        <v>4.1000000000000003E-3</v>
+        <v>1.08E-3</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="29" t="s">
-        <v>46</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="3"/>
       <c r="E127" s="4">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="F127" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="4"/>
-        <v>4.5999999999999996</v>
+        <v>12.5</v>
       </c>
       <c r="F128" s="6">
-        <v>4.5999999999999999E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="29" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F129" s="6">
-        <v>1E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="4"/>
@@ -4618,49 +4634,61 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="29" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="4"/>
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="F131" s="6">
-        <v>7.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="4"/>
-        <v>4.3499999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="F132" s="6">
-        <v>4.3499999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E133" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F133" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="29" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="E134" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F134" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E135" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F135" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>

--- a/RR_ISRU.xlsx
+++ b/RR_ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="1"/>
+    <workbookView xWindow="31620" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Calc (Kg)" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="235">
   <si>
     <t>Resource</t>
   </si>
@@ -741,6 +741,30 @@
   </si>
   <si>
     <t>(Fe + Be2O3)2.5 + (U)1.1</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>u/sec</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Units</t>
   </si>
 </sst>
 </file>
@@ -982,7 +1006,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1066,12 +1090,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="6"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1394,19 +1420,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>92</v>
       </c>
@@ -1417,38 +1444,43 @@
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -1465,25 +1497,53 @@
       <c r="G6" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="L6" s="19">
+        <f>J7/J6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L7" s="19">
+        <f>IF(J8&gt;0,L6-(J8*3600),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="21" t="str">
+      <c r="B8" s="21">
         <f>IFERROR(VLOOKUP(B7,Database!$A$2:$E$135,5,FALSE),"-")</f>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="C8" s="21" t="str">
         <f>IFERROR(VLOOKUP(C7,Database!$A$2:$E$135,5,FALSE),"-")</f>
@@ -1505,14 +1565,28 @@
         <f>IFERROR(VLOOKUP(G7,Database!$A$2:$E$135,5,FALSE),"-")</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="J8" s="43">
+        <f>ROUNDDOWN(IF(L6&gt;3600,L6/3600,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L8" s="19">
+        <f>ROUNDDOWN(IF(L7&gt;0,L7/60,L6/60),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="24" t="str">
+      <c r="B9" s="24">
         <f t="shared" ref="B9:G9" si="0">IFERROR(B6*B8,"-")</f>
-        <v>-</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="24" t="str">
         <f t="shared" si="0"/>
@@ -1534,181 +1608,265 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" s="43">
+        <f>IF(L8&lt;60,L8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="L9" s="19">
+        <f>IF(L6&gt;0,L6-((J8*3600)+(L8*60)),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="32">
         <f>SUM(B9:G9)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+      <c r="J10" s="43">
+        <f>IF(L9&gt;0,L9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B14" s="18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C14" s="18">
+        <f>B14*1.222</f>
+        <v>1.0997999999999999E-2</v>
+      </c>
+      <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="C13" s="18">
+      <c r="E14" s="18">
         <v>0</v>
       </c>
-      <c r="D13" s="18">
+      <c r="F14" s="18">
         <v>0</v>
       </c>
-      <c r="E13" s="18">
+      <c r="G14" s="18">
         <v>0</v>
       </c>
-      <c r="F13" s="18">
+      <c r="I14" t="s">
+        <v>230</v>
+      </c>
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" s="19">
+        <f>J15/J14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="I15" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L15" s="19">
+        <f>IF(J16&gt;0,L14-(J16*3600),0)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="18">
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="21">
+        <f>IFERROR(VLOOKUP(B15,Database!$A$2:$E$135,5,FALSE),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C16" s="21">
+        <f>IFERROR(VLOOKUP(C15,Database!$A$2:$E$135,5,FALSE),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D16" s="21" t="str">
+        <f>IFERROR(VLOOKUP(D15,Database!$A$2:$E$135,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E16" s="21" t="str">
+        <f>IFERROR(VLOOKUP(E15,Database!$A$2:$E$135,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F16" s="21" t="str">
+        <f>IFERROR(VLOOKUP(F15,Database!$A$2:$E$135,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G16" s="21" t="str">
+        <f>IFERROR(VLOOKUP(G15,Database!$A$2:$E$135,5,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="J16" s="43">
+        <f>ROUNDDOWN(IF(L14&gt;3600,L14/3600,0),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(B14,Database!$A$2:$E$135,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(C14,Database!$A$2:$E$135,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(D14,Database!$A$2:$E$135,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(E14,Database!$A$2:$E$135,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(F14,Database!$A$2:$E$135,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="G15" s="21" t="str">
-        <f>IFERROR(VLOOKUP(G14,Database!$A$2:$E$135,5,FALSE),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="K16" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L16" s="19">
+        <f>ROUNDDOWN(IF(L15&gt;0,L15/60,L14/60),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="31" t="str">
-        <f t="shared" ref="B16:G16" si="1">IFERROR(B13*B15,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C16" s="24" t="str">
+      <c r="B17" s="31">
+        <f t="shared" ref="B17:G17" si="1">IFERROR(B14*B16,"-")</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C17" s="24">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="D16" s="31" t="str">
+        <v>5.4989999999999997E-2</v>
+      </c>
+      <c r="D17" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E16" s="24" t="str">
+      <c r="E17" s="24" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F16" s="24" t="str">
+      <c r="F17" s="24" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="G16" s="24" t="str">
+      <c r="G17" s="24" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="J17" s="43">
+        <f>IF(L16&lt;60,L16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="L17" s="19">
+        <f>IF(L14&gt;0,L14-((J16*3600)+(L16*60)),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="32">
-        <f>SUM(B16:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="42" t="s">
+      <c r="B18" s="32">
+        <f>SUM(B17:G17)</f>
+        <v>9.9989999999999996E-2</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="J18" s="43">
+        <f>IF(L17&gt;0,L17,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="20" t="str">
-        <f>IF($B$10&gt;$B$17,"Input excesive",IF($B$10&lt;$B$17,"Output excessive","Equal"))</f>
-        <v>Equal</v>
-      </c>
-      <c r="C20" s="33">
-        <f>IF($B$10&gt;$B$17,B10/B17,IF($B$10&lt;$B$17,B17/B10,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="B21" s="20" t="str">
+        <f>IF($B$10&gt;$B$18,"Input excesive",IF($B$10&lt;$B$18,"Output excessive","Equal"))</f>
+        <v>Input excesive</v>
+      </c>
+      <c r="C21" s="33">
+        <f>IF($B$10&gt;$B$18,B10/B18,IF($B$10&lt;$B$18,B18/B10,1))</f>
+        <v>1.0001000100010002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Database!$A$2:$A$135</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:G7 B14:G14</xm:sqref>
+          <xm:sqref>B7:G7 B15:G15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1720,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1756,15 +1914,15 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1926,15 +2084,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -2099,15 +2257,15 @@
       <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -2126,10 +2284,7 @@
       <c r="A25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A5:G5"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
